--- a/backend/models/model-file-camp-sankey.xlsx
+++ b/backend/models/model-file-camp-sankey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/apple/documents/kapsarc_projects/h2project-app-main/backend/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/apple/documents/kapsarc_projects/camp-project/backend/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91652D6-131D-EE49-B7E3-DE1583636642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48873F4D-79F1-5040-87E7-A9FB68D90AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1140" windowWidth="27740" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_techniques" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="782">
   <si>
     <t>Sector</t>
   </si>
@@ -2406,6 +2406,9 @@
   </si>
   <si>
     <t>[ "Asia", "Europe", "Africa", "Oceania", "North America", "South America", "G20", "South America", "Australia", "G20", "Asia", "Europe", "Asia", "MENA", "GCC", "North America", "G20", "Asia", "G20", "Europe", "G20", "Asia", "MENA", "Asia", "Europe", "G20", "Asia", "G20", "MENA", "GCC", "Africa", "G20" ]</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2421,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6669,7 +6672,7 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
@@ -6684,7 +6687,7 @@
     <col min="16" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16" thickBot="1">
+    <row r="1" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6728,7 +6731,7 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:42" ht="90.5" customHeight="1">
+    <row r="2" spans="1:42" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="13"/>
       <c r="C2" s="33" t="s">
@@ -6774,7 +6777,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:42" ht="14.5" customHeight="1">
+    <row r="3" spans="1:42" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="17"/>
       <c r="C3" s="118" t="s">
@@ -6820,7 +6823,7 @@
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
     </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" thickBot="1">
+    <row r="4" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="17"/>
       <c r="C4" s="24"/>
@@ -6864,7 +6867,7 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
     </row>
-    <row r="5" spans="1:42" ht="16" thickBot="1">
+    <row r="5" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="17"/>
       <c r="C5" s="32" t="s">
@@ -6918,7 +6921,7 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="17"/>
       <c r="C6" s="10" t="s">
@@ -6970,7 +6973,7 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
     </row>
-    <row r="7" spans="1:42" ht="16" thickBot="1">
+    <row r="7" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="17"/>
       <c r="C7" s="11" t="s">
@@ -7022,7 +7025,7 @@
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
     </row>
-    <row r="8" spans="1:42" ht="16" thickBot="1">
+    <row r="8" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="17"/>
       <c r="C8" s="11" t="s">
@@ -7044,8 +7047,8 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="38" t="str">
-        <f>app!G5</f>
-        <v>GHGs</v>
+        <f>app!F5</f>
+        <v>CO2</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="4" t="s">
@@ -7083,7 +7086,7 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="17"/>
       <c r="C9" s="11" t="s">
@@ -7135,7 +7138,7 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="17"/>
       <c r="C10" s="11" t="s">
@@ -7187,7 +7190,7 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="1:42" ht="16" thickBot="1">
+    <row r="11" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="17"/>
       <c r="C11" s="11" t="s">
@@ -7239,7 +7242,7 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:42" ht="17" thickBot="1">
+    <row r="12" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="17"/>
       <c r="C12" s="11" t="s">
@@ -7261,8 +7264,8 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="39" t="str">
-        <f>app!G6</f>
-        <v>Global</v>
+        <f>app!F6</f>
+        <v>Albania</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="4" t="s">
@@ -7300,7 +7303,7 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42" ht="16" thickBot="1">
+    <row r="13" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="17"/>
       <c r="C13" s="11" t="s">
@@ -7352,7 +7355,7 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:42" ht="16" thickBot="1">
+    <row r="14" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="17"/>
       <c r="C14" s="11" t="s">
@@ -7373,7 +7376,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="44" t="str">
         <f>INDEX(Country!B:B,MATCH(K12,Country!A:A,0))</f>
-        <v>global</v>
+        <v>alb</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="45"/>
@@ -7410,7 +7413,7 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="17"/>
       <c r="C15" s="11" t="s">
@@ -7462,7 +7465,7 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="17"/>
       <c r="C16" s="11" t="s">
@@ -7514,7 +7517,7 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42" ht="16" thickBot="1">
+    <row r="17" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="17"/>
       <c r="C17" s="11" t="s">
@@ -7570,7 +7573,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42" ht="16" thickBot="1">
+    <row r="18" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="17"/>
       <c r="C18" s="11" t="s">
@@ -7628,7 +7631,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="17"/>
       <c r="C19" s="11" t="s">
@@ -7680,7 +7683,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="17"/>
       <c r="C20" s="11" t="s">
@@ -7732,7 +7735,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="17"/>
       <c r="C21" s="11" t="s">
@@ -7784,7 +7787,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="17"/>
       <c r="C22" s="11" t="s">
@@ -7838,7 +7841,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42" ht="16" thickBot="1">
+    <row r="23" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="17"/>
       <c r="C23" s="11" t="s">
@@ -7890,7 +7893,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42" ht="16" thickBot="1">
+    <row r="24" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="17"/>
       <c r="C24" s="11" t="s">
@@ -7958,7 +7961,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="17"/>
       <c r="C25" s="11" t="s">
@@ -8022,7 +8025,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="17"/>
       <c r="C26" s="11" t="s">
@@ -8086,7 +8089,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="17"/>
       <c r="C27" s="11" t="s">
@@ -8150,7 +8153,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="17"/>
       <c r="C28" s="11" t="s">
@@ -8214,7 +8217,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="17"/>
       <c r="C29" s="11" t="s">
@@ -8278,7 +8281,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="17"/>
       <c r="C30" s="11" t="s">
@@ -8342,7 +8345,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="17"/>
       <c r="C31" s="11" t="s">
@@ -8406,7 +8409,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="17"/>
       <c r="C32" s="11" t="s">
@@ -8470,7 +8473,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="17"/>
       <c r="C33" s="11" t="s">
@@ -8534,7 +8537,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" ht="16" thickBot="1">
+    <row r="34" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="17"/>
       <c r="C34" s="11" t="s">
@@ -8598,7 +8601,7 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="17"/>
       <c r="C35" s="11" t="s">
@@ -8650,7 +8653,7 @@
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="17"/>
       <c r="C36" s="11" t="s">
@@ -8702,7 +8705,7 @@
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="17"/>
       <c r="C37" s="11" t="s">
@@ -8754,7 +8757,7 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
     </row>
-    <row r="38" spans="1:42" ht="16" thickBot="1">
+    <row r="38" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="17"/>
       <c r="C38" s="11" t="s">
@@ -8806,7 +8809,7 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
     </row>
-    <row r="39" spans="1:42" ht="16" thickBot="1">
+    <row r="39" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="17"/>
       <c r="C39" s="11" t="s">
@@ -8862,7 +8865,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="17"/>
       <c r="C40" s="11" t="s">
@@ -8914,7 +8917,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="17"/>
       <c r="C41" s="11" t="s">
@@ -8966,7 +8969,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="17"/>
       <c r="C42" s="11" t="s">
@@ -9018,7 +9021,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="17"/>
       <c r="C43" s="11" t="s">
@@ -9070,7 +9073,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="17"/>
       <c r="C44" s="11" t="s">
@@ -9122,7 +9125,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="17"/>
       <c r="C45" s="11" t="s">
@@ -9174,7 +9177,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="17"/>
       <c r="C46" s="11" t="s">
@@ -9226,7 +9229,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="17"/>
       <c r="C47" s="11" t="s">
@@ -9278,7 +9281,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="17"/>
       <c r="C48" s="11" t="s">
@@ -9330,7 +9333,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="1:42">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="17"/>
       <c r="C49" s="11" t="s">
@@ -9382,7 +9385,7 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
     </row>
-    <row r="50" spans="1:42">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="17"/>
       <c r="C50" s="11" t="s">
@@ -9434,7 +9437,7 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
     </row>
-    <row r="51" spans="1:42">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="17"/>
       <c r="C51" s="11" t="s">
@@ -9486,7 +9489,7 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
     </row>
-    <row r="52" spans="1:42">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="17"/>
       <c r="C52" s="11" t="s">
@@ -9538,7 +9541,7 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
     </row>
-    <row r="53" spans="1:42">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="17"/>
       <c r="C53" s="11" t="s">
@@ -9590,7 +9593,7 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
     </row>
-    <row r="54" spans="1:42">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="17"/>
       <c r="C54" s="11" t="s">
@@ -9642,7 +9645,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
     </row>
-    <row r="55" spans="1:42">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="17"/>
       <c r="C55" s="11" t="s">
@@ -9694,7 +9697,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
     </row>
-    <row r="56" spans="1:42">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="17"/>
       <c r="C56" s="11" t="s">
@@ -9746,7 +9749,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="1:42">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="17"/>
       <c r="C57" s="11" t="s">
@@ -9798,7 +9801,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="1:42">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="17"/>
       <c r="C58" s="11" t="s">
@@ -9850,7 +9853,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="17"/>
       <c r="C59" s="11" t="s">
@@ -9902,7 +9905,7 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="17"/>
       <c r="C60" s="11" t="s">
@@ -9954,7 +9957,7 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="17"/>
       <c r="C61" s="11" t="s">
@@ -10006,7 +10009,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="17"/>
       <c r="C62" s="11" t="s">
@@ -10058,7 +10061,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="17"/>
       <c r="C63" s="11" t="s">
@@ -10110,7 +10113,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="1:42">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="17"/>
       <c r="C64" s="11" t="s">
@@ -10162,7 +10165,7 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="1:42" ht="16" thickBot="1">
+    <row r="65" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="17"/>
       <c r="C65" s="12" t="s">
@@ -10214,7 +10217,7 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="17"/>
       <c r="C66" s="20"/>
@@ -10258,7 +10261,7 @@
       <c r="AO66" s="2"/>
       <c r="AP66" s="2"/>
     </row>
-    <row r="67" spans="1:42">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="17"/>
       <c r="C67" s="20"/>
@@ -10302,7 +10305,7 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
     </row>
-    <row r="68" spans="1:42" ht="16" thickBot="1">
+    <row r="68" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="18"/>
       <c r="C68" s="21"/>
@@ -10346,7 +10349,7 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="1:42">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -10390,7 +10393,7 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="1:42">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -10434,7 +10437,7 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
     </row>
-    <row r="71" spans="1:42">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -10478,7 +10481,7 @@
       <c r="AO71" s="2"/>
       <c r="AP71" s="2"/>
     </row>
-    <row r="72" spans="1:42">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -10522,7 +10525,7 @@
       <c r="AO72" s="2"/>
       <c r="AP72" s="2"/>
     </row>
-    <row r="73" spans="1:42">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -10566,7 +10569,7 @@
       <c r="AO73" s="2"/>
       <c r="AP73" s="2"/>
     </row>
-    <row r="74" spans="1:42">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -10610,7 +10613,7 @@
       <c r="AO74" s="2"/>
       <c r="AP74" s="2"/>
     </row>
-    <row r="75" spans="1:42">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -10654,7 +10657,7 @@
       <c r="AO75" s="2"/>
       <c r="AP75" s="2"/>
     </row>
-    <row r="76" spans="1:42">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -10698,7 +10701,7 @@
       <c r="AO76" s="2"/>
       <c r="AP76" s="2"/>
     </row>
-    <row r="77" spans="1:42">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -10742,7 +10745,7 @@
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
     </row>
-    <row r="78" spans="1:42">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -10786,7 +10789,7 @@
       <c r="AO78" s="2"/>
       <c r="AP78" s="2"/>
     </row>
-    <row r="79" spans="1:42">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -10830,7 +10833,7 @@
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
     </row>
-    <row r="80" spans="1:42">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -10874,7 +10877,7 @@
       <c r="AO80" s="2"/>
       <c r="AP80" s="2"/>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -10918,7 +10921,7 @@
       <c r="AO81" s="2"/>
       <c r="AP81" s="2"/>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -10962,7 +10965,7 @@
       <c r="AO82" s="2"/>
       <c r="AP82" s="2"/>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -11006,7 +11009,7 @@
       <c r="AO83" s="2"/>
       <c r="AP83" s="2"/>
     </row>
-    <row r="84" spans="1:42">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -11050,7 +11053,7 @@
       <c r="AO84" s="2"/>
       <c r="AP84" s="2"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -11094,7 +11097,7 @@
       <c r="AO85" s="2"/>
       <c r="AP85" s="2"/>
     </row>
-    <row r="86" spans="1:42">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -11138,7 +11141,7 @@
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -11182,7 +11185,7 @@
       <c r="AO87" s="2"/>
       <c r="AP87" s="2"/>
     </row>
-    <row r="88" spans="1:42">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -11226,7 +11229,7 @@
       <c r="AO88" s="2"/>
       <c r="AP88" s="2"/>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -11270,7 +11273,7 @@
       <c r="AO89" s="2"/>
       <c r="AP89" s="2"/>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -11314,7 +11317,7 @@
       <c r="AO90" s="2"/>
       <c r="AP90" s="2"/>
     </row>
-    <row r="91" spans="1:42">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -11358,7 +11361,7 @@
       <c r="AO91" s="2"/>
       <c r="AP91" s="2"/>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -11402,7 +11405,7 @@
       <c r="AO92" s="2"/>
       <c r="AP92" s="2"/>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -11446,7 +11449,7 @@
       <c r="AO93" s="2"/>
       <c r="AP93" s="2"/>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -11490,7 +11493,7 @@
       <c r="AO94" s="2"/>
       <c r="AP94" s="2"/>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -11534,7 +11537,7 @@
       <c r="AO95" s="2"/>
       <c r="AP95" s="2"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -11578,7 +11581,7 @@
       <c r="AO96" s="2"/>
       <c r="AP96" s="2"/>
     </row>
-    <row r="97" spans="1:42">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -11622,7 +11625,7 @@
       <c r="AO97" s="2"/>
       <c r="AP97" s="2"/>
     </row>
-    <row r="98" spans="1:42">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -11666,7 +11669,7 @@
       <c r="AO98" s="2"/>
       <c r="AP98" s="2"/>
     </row>
-    <row r="99" spans="1:42">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -11710,7 +11713,7 @@
       <c r="AO99" s="2"/>
       <c r="AP99" s="2"/>
     </row>
-    <row r="100" spans="1:42">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -11754,7 +11757,7 @@
       <c r="AO100" s="2"/>
       <c r="AP100" s="2"/>
     </row>
-    <row r="101" spans="1:42">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -11798,7 +11801,7 @@
       <c r="AO101" s="2"/>
       <c r="AP101" s="2"/>
     </row>
-    <row r="102" spans="1:42">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -11842,7 +11845,7 @@
       <c r="AO102" s="2"/>
       <c r="AP102" s="2"/>
     </row>
-    <row r="103" spans="1:42">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -11886,7 +11889,7 @@
       <c r="AO103" s="2"/>
       <c r="AP103" s="2"/>
     </row>
-    <row r="104" spans="1:42">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -11930,7 +11933,7 @@
       <c r="AO104" s="2"/>
       <c r="AP104" s="2"/>
     </row>
-    <row r="105" spans="1:42">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -11974,7 +11977,7 @@
       <c r="AO105" s="2"/>
       <c r="AP105" s="2"/>
     </row>
-    <row r="106" spans="1:42">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -12018,7 +12021,7 @@
       <c r="AO106" s="2"/>
       <c r="AP106" s="2"/>
     </row>
-    <row r="107" spans="1:42">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -12062,7 +12065,7 @@
       <c r="AO107" s="2"/>
       <c r="AP107" s="2"/>
     </row>
-    <row r="108" spans="1:42">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -12106,7 +12109,7 @@
       <c r="AO108" s="2"/>
       <c r="AP108" s="2"/>
     </row>
-    <row r="109" spans="1:42">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -12150,7 +12153,7 @@
       <c r="AO109" s="2"/>
       <c r="AP109" s="2"/>
     </row>
-    <row r="110" spans="1:42">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -12194,7 +12197,7 @@
       <c r="AO110" s="2"/>
       <c r="AP110" s="2"/>
     </row>
-    <row r="111" spans="1:42">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -12238,7 +12241,7 @@
       <c r="AO111" s="2"/>
       <c r="AP111" s="2"/>
     </row>
-    <row r="112" spans="1:42">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -12282,7 +12285,7 @@
       <c r="AO112" s="2"/>
       <c r="AP112" s="2"/>
     </row>
-    <row r="113" spans="1:42">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -12326,7 +12329,7 @@
       <c r="AO113" s="2"/>
       <c r="AP113" s="2"/>
     </row>
-    <row r="114" spans="1:42">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -12370,7 +12373,7 @@
       <c r="AO114" s="2"/>
       <c r="AP114" s="2"/>
     </row>
-    <row r="115" spans="1:42">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -12414,7 +12417,7 @@
       <c r="AO115" s="2"/>
       <c r="AP115" s="2"/>
     </row>
-    <row r="116" spans="1:42">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -12458,7 +12461,7 @@
       <c r="AO116" s="2"/>
       <c r="AP116" s="2"/>
     </row>
-    <row r="117" spans="1:42">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -12502,7 +12505,7 @@
       <c r="AO117" s="2"/>
       <c r="AP117" s="2"/>
     </row>
-    <row r="118" spans="1:42">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -12546,7 +12549,7 @@
       <c r="AO118" s="2"/>
       <c r="AP118" s="2"/>
     </row>
-    <row r="119" spans="1:42">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -12590,7 +12593,7 @@
       <c r="AO119" s="2"/>
       <c r="AP119" s="2"/>
     </row>
-    <row r="120" spans="1:42">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -12634,7 +12637,7 @@
       <c r="AO120" s="2"/>
       <c r="AP120" s="2"/>
     </row>
-    <row r="121" spans="1:42">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -12678,7 +12681,7 @@
       <c r="AO121" s="2"/>
       <c r="AP121" s="2"/>
     </row>
-    <row r="122" spans="1:42">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -12722,7 +12725,7 @@
       <c r="AO122" s="2"/>
       <c r="AP122" s="2"/>
     </row>
-    <row r="123" spans="1:42">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -12766,7 +12769,7 @@
       <c r="AO123" s="2"/>
       <c r="AP123" s="2"/>
     </row>
-    <row r="124" spans="1:42">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -12810,7 +12813,7 @@
       <c r="AO124" s="2"/>
       <c r="AP124" s="2"/>
     </row>
-    <row r="125" spans="1:42">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -12854,7 +12857,7 @@
       <c r="AO125" s="2"/>
       <c r="AP125" s="2"/>
     </row>
-    <row r="126" spans="1:42">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -12898,7 +12901,7 @@
       <c r="AO126" s="2"/>
       <c r="AP126" s="2"/>
     </row>
-    <row r="127" spans="1:42">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -12942,7 +12945,7 @@
       <c r="AO127" s="2"/>
       <c r="AP127" s="2"/>
     </row>
-    <row r="128" spans="1:42">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -12986,7 +12989,7 @@
       <c r="AO128" s="2"/>
       <c r="AP128" s="2"/>
     </row>
-    <row r="129" spans="1:42">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -13030,7 +13033,7 @@
       <c r="AO129" s="2"/>
       <c r="AP129" s="2"/>
     </row>
-    <row r="130" spans="1:42">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -13074,7 +13077,7 @@
       <c r="AO130" s="2"/>
       <c r="AP130" s="2"/>
     </row>
-    <row r="131" spans="1:42">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -13118,7 +13121,7 @@
       <c r="AO131" s="2"/>
       <c r="AP131" s="2"/>
     </row>
-    <row r="132" spans="1:42">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -13162,7 +13165,7 @@
       <c r="AO132" s="2"/>
       <c r="AP132" s="2"/>
     </row>
-    <row r="133" spans="1:42">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -13206,7 +13209,7 @@
       <c r="AO133" s="2"/>
       <c r="AP133" s="2"/>
     </row>
-    <row r="134" spans="1:42">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -13250,7 +13253,7 @@
       <c r="AO134" s="2"/>
       <c r="AP134" s="2"/>
     </row>
-    <row r="135" spans="1:42">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -13294,7 +13297,7 @@
       <c r="AO135" s="2"/>
       <c r="AP135" s="2"/>
     </row>
-    <row r="136" spans="1:42">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -13338,7 +13341,7 @@
       <c r="AO136" s="2"/>
       <c r="AP136" s="2"/>
     </row>
-    <row r="137" spans="1:42">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -13382,7 +13385,7 @@
       <c r="AO137" s="2"/>
       <c r="AP137" s="2"/>
     </row>
-    <row r="138" spans="1:42">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -13426,7 +13429,7 @@
       <c r="AO138" s="2"/>
       <c r="AP138" s="2"/>
     </row>
-    <row r="139" spans="1:42">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -13470,7 +13473,7 @@
       <c r="AO139" s="2"/>
       <c r="AP139" s="2"/>
     </row>
-    <row r="140" spans="1:42">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -13514,7 +13517,7 @@
       <c r="AO140" s="2"/>
       <c r="AP140" s="2"/>
     </row>
-    <row r="141" spans="1:42">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -13558,7 +13561,7 @@
       <c r="AO141" s="2"/>
       <c r="AP141" s="2"/>
     </row>
-    <row r="142" spans="1:42">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -13602,7 +13605,7 @@
       <c r="AO142" s="2"/>
       <c r="AP142" s="2"/>
     </row>
-    <row r="143" spans="1:42">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -13646,7 +13649,7 @@
       <c r="AO143" s="2"/>
       <c r="AP143" s="2"/>
     </row>
-    <row r="144" spans="1:42">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -13690,7 +13693,7 @@
       <c r="AO144" s="2"/>
       <c r="AP144" s="2"/>
     </row>
-    <row r="145" spans="1:42">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -13734,7 +13737,7 @@
       <c r="AO145" s="2"/>
       <c r="AP145" s="2"/>
     </row>
-    <row r="146" spans="1:42">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -13778,7 +13781,7 @@
       <c r="AO146" s="2"/>
       <c r="AP146" s="2"/>
     </row>
-    <row r="147" spans="1:42">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -13822,7 +13825,7 @@
       <c r="AO147" s="2"/>
       <c r="AP147" s="2"/>
     </row>
-    <row r="148" spans="1:42">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -13866,7 +13869,7 @@
       <c r="AO148" s="2"/>
       <c r="AP148" s="2"/>
     </row>
-    <row r="149" spans="1:42">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -13910,7 +13913,7 @@
       <c r="AO149" s="2"/>
       <c r="AP149" s="2"/>
     </row>
-    <row r="150" spans="1:42">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -13954,7 +13957,7 @@
       <c r="AO150" s="2"/>
       <c r="AP150" s="2"/>
     </row>
-    <row r="151" spans="1:42">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -13998,7 +14001,7 @@
       <c r="AO151" s="2"/>
       <c r="AP151" s="2"/>
     </row>
-    <row r="152" spans="1:42">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -14042,7 +14045,7 @@
       <c r="AO152" s="2"/>
       <c r="AP152" s="2"/>
     </row>
-    <row r="153" spans="1:42">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -14086,7 +14089,7 @@
       <c r="AO153" s="2"/>
       <c r="AP153" s="2"/>
     </row>
-    <row r="154" spans="1:42">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -14130,7 +14133,7 @@
       <c r="AO154" s="2"/>
       <c r="AP154" s="2"/>
     </row>
-    <row r="155" spans="1:42">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -14174,7 +14177,7 @@
       <c r="AO155" s="2"/>
       <c r="AP155" s="2"/>
     </row>
-    <row r="156" spans="1:42">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -14218,7 +14221,7 @@
       <c r="AO156" s="2"/>
       <c r="AP156" s="2"/>
     </row>
-    <row r="157" spans="1:42">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -14262,7 +14265,7 @@
       <c r="AO157" s="2"/>
       <c r="AP157" s="2"/>
     </row>
-    <row r="158" spans="1:42">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -14306,7 +14309,7 @@
       <c r="AO158" s="2"/>
       <c r="AP158" s="2"/>
     </row>
-    <row r="159" spans="1:42">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -14350,7 +14353,7 @@
       <c r="AO159" s="2"/>
       <c r="AP159" s="2"/>
     </row>
-    <row r="160" spans="1:42">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -14394,7 +14397,7 @@
       <c r="AO160" s="2"/>
       <c r="AP160" s="2"/>
     </row>
-    <row r="161" spans="1:42">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -14438,7 +14441,7 @@
       <c r="AO161" s="2"/>
       <c r="AP161" s="2"/>
     </row>
-    <row r="162" spans="1:42">
+    <row r="162" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -14482,7 +14485,7 @@
       <c r="AO162" s="2"/>
       <c r="AP162" s="2"/>
     </row>
-    <row r="163" spans="1:42">
+    <row r="163" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -14526,7 +14529,7 @@
       <c r="AO163" s="2"/>
       <c r="AP163" s="2"/>
     </row>
-    <row r="164" spans="1:42">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -14570,7 +14573,7 @@
       <c r="AO164" s="2"/>
       <c r="AP164" s="2"/>
     </row>
-    <row r="165" spans="1:42">
+    <row r="165" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -14614,7 +14617,7 @@
       <c r="AO165" s="2"/>
       <c r="AP165" s="2"/>
     </row>
-    <row r="166" spans="1:42">
+    <row r="166" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -14658,7 +14661,7 @@
       <c r="AO166" s="2"/>
       <c r="AP166" s="2"/>
     </row>
-    <row r="167" spans="1:42">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -14702,7 +14705,7 @@
       <c r="AO167" s="2"/>
       <c r="AP167" s="2"/>
     </row>
-    <row r="168" spans="1:42">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -14746,7 +14749,7 @@
       <c r="AO168" s="2"/>
       <c r="AP168" s="2"/>
     </row>
-    <row r="169" spans="1:42">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -14790,7 +14793,7 @@
       <c r="AO169" s="2"/>
       <c r="AP169" s="2"/>
     </row>
-    <row r="170" spans="1:42">
+    <row r="170" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -14834,7 +14837,7 @@
       <c r="AO170" s="2"/>
       <c r="AP170" s="2"/>
     </row>
-    <row r="171" spans="1:42">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -14878,7 +14881,7 @@
       <c r="AO171" s="2"/>
       <c r="AP171" s="2"/>
     </row>
-    <row r="172" spans="1:42">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -14922,7 +14925,7 @@
       <c r="AO172" s="2"/>
       <c r="AP172" s="2"/>
     </row>
-    <row r="173" spans="1:42">
+    <row r="173" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -14966,7 +14969,7 @@
       <c r="AO173" s="2"/>
       <c r="AP173" s="2"/>
     </row>
-    <row r="174" spans="1:42">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -15010,7 +15013,7 @@
       <c r="AO174" s="2"/>
       <c r="AP174" s="2"/>
     </row>
-    <row r="175" spans="1:42">
+    <row r="175" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -15054,7 +15057,7 @@
       <c r="AO175" s="2"/>
       <c r="AP175" s="2"/>
     </row>
-    <row r="176" spans="1:42">
+    <row r="176" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -15098,7 +15101,7 @@
       <c r="AO176" s="2"/>
       <c r="AP176" s="2"/>
     </row>
-    <row r="177" spans="1:42">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -15142,7 +15145,7 @@
       <c r="AO177" s="2"/>
       <c r="AP177" s="2"/>
     </row>
-    <row r="178" spans="1:42">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -15186,7 +15189,7 @@
       <c r="AO178" s="2"/>
       <c r="AP178" s="2"/>
     </row>
-    <row r="179" spans="1:42">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -15230,7 +15233,7 @@
       <c r="AO179" s="2"/>
       <c r="AP179" s="2"/>
     </row>
-    <row r="180" spans="1:42">
+    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -15274,7 +15277,7 @@
       <c r="AO180" s="2"/>
       <c r="AP180" s="2"/>
     </row>
-    <row r="181" spans="1:42">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -15318,7 +15321,7 @@
       <c r="AO181" s="2"/>
       <c r="AP181" s="2"/>
     </row>
-    <row r="182" spans="1:42">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -15362,7 +15365,7 @@
       <c r="AO182" s="2"/>
       <c r="AP182" s="2"/>
     </row>
-    <row r="183" spans="1:42">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -15406,7 +15409,7 @@
       <c r="AO183" s="2"/>
       <c r="AP183" s="2"/>
     </row>
-    <row r="184" spans="1:42">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -15450,7 +15453,7 @@
       <c r="AO184" s="2"/>
       <c r="AP184" s="2"/>
     </row>
-    <row r="185" spans="1:42">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -15494,7 +15497,7 @@
       <c r="AO185" s="2"/>
       <c r="AP185" s="2"/>
     </row>
-    <row r="186" spans="1:42">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -15538,7 +15541,7 @@
       <c r="AO186" s="2"/>
       <c r="AP186" s="2"/>
     </row>
-    <row r="187" spans="1:42">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -15582,7 +15585,7 @@
       <c r="AO187" s="2"/>
       <c r="AP187" s="2"/>
     </row>
-    <row r="188" spans="1:42">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -15626,7 +15629,7 @@
       <c r="AO188" s="2"/>
       <c r="AP188" s="2"/>
     </row>
-    <row r="189" spans="1:42">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -15670,7 +15673,7 @@
       <c r="AO189" s="2"/>
       <c r="AP189" s="2"/>
     </row>
-    <row r="190" spans="1:42">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -15714,7 +15717,7 @@
       <c r="AO190" s="2"/>
       <c r="AP190" s="2"/>
     </row>
-    <row r="191" spans="1:42">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -15758,7 +15761,7 @@
       <c r="AO191" s="2"/>
       <c r="AP191" s="2"/>
     </row>
-    <row r="192" spans="1:42">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -15802,7 +15805,7 @@
       <c r="AO192" s="2"/>
       <c r="AP192" s="2"/>
     </row>
-    <row r="193" spans="1:42">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -15846,7 +15849,7 @@
       <c r="AO193" s="2"/>
       <c r="AP193" s="2"/>
     </row>
-    <row r="194" spans="1:42">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -15890,7 +15893,7 @@
       <c r="AO194" s="2"/>
       <c r="AP194" s="2"/>
     </row>
-    <row r="195" spans="1:42">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -15934,7 +15937,7 @@
       <c r="AO195" s="2"/>
       <c r="AP195" s="2"/>
     </row>
-    <row r="196" spans="1:42">
+    <row r="196" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -15978,7 +15981,7 @@
       <c r="AO196" s="2"/>
       <c r="AP196" s="2"/>
     </row>
-    <row r="197" spans="1:42">
+    <row r="197" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -16022,7 +16025,7 @@
       <c r="AO197" s="2"/>
       <c r="AP197" s="2"/>
     </row>
-    <row r="198" spans="1:42">
+    <row r="198" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -16066,7 +16069,7 @@
       <c r="AO198" s="2"/>
       <c r="AP198" s="2"/>
     </row>
-    <row r="199" spans="1:42">
+    <row r="199" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -16110,7 +16113,7 @@
       <c r="AO199" s="2"/>
       <c r="AP199" s="2"/>
     </row>
-    <row r="200" spans="1:42">
+    <row r="200" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -16154,7 +16157,7 @@
       <c r="AO200" s="2"/>
       <c r="AP200" s="2"/>
     </row>
-    <row r="201" spans="1:42">
+    <row r="201" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -16198,7 +16201,7 @@
       <c r="AO201" s="2"/>
       <c r="AP201" s="2"/>
     </row>
-    <row r="202" spans="1:42">
+    <row r="202" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -16242,7 +16245,7 @@
       <c r="AO202" s="2"/>
       <c r="AP202" s="2"/>
     </row>
-    <row r="203" spans="1:42">
+    <row r="203" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -16286,7 +16289,7 @@
       <c r="AO203" s="2"/>
       <c r="AP203" s="2"/>
     </row>
-    <row r="204" spans="1:42">
+    <row r="204" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -16330,7 +16333,7 @@
       <c r="AO204" s="2"/>
       <c r="AP204" s="2"/>
     </row>
-    <row r="205" spans="1:42">
+    <row r="205" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -16374,7 +16377,7 @@
       <c r="AO205" s="2"/>
       <c r="AP205" s="2"/>
     </row>
-    <row r="206" spans="1:42">
+    <row r="206" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -16418,7 +16421,7 @@
       <c r="AO206" s="2"/>
       <c r="AP206" s="2"/>
     </row>
-    <row r="207" spans="1:42">
+    <row r="207" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -16462,7 +16465,7 @@
       <c r="AO207" s="2"/>
       <c r="AP207" s="2"/>
     </row>
-    <row r="208" spans="1:42">
+    <row r="208" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -16506,7 +16509,7 @@
       <c r="AO208" s="2"/>
       <c r="AP208" s="2"/>
     </row>
-    <row r="209" spans="1:42">
+    <row r="209" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -16550,7 +16553,7 @@
       <c r="AO209" s="2"/>
       <c r="AP209" s="2"/>
     </row>
-    <row r="210" spans="1:42">
+    <row r="210" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -16594,7 +16597,7 @@
       <c r="AO210" s="2"/>
       <c r="AP210" s="2"/>
     </row>
-    <row r="211" spans="1:42">
+    <row r="211" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -16638,7 +16641,7 @@
       <c r="AO211" s="2"/>
       <c r="AP211" s="2"/>
     </row>
-    <row r="212" spans="1:42">
+    <row r="212" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -16682,7 +16685,7 @@
       <c r="AO212" s="2"/>
       <c r="AP212" s="2"/>
     </row>
-    <row r="213" spans="1:42">
+    <row r="213" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -16773,11 +16776,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B5B9BE-A5A2-C944-97F8-8873FAB3E8AE}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="45" style="56" customWidth="1"/>
@@ -16799,7 +16802,7 @@
     <col min="19" max="16384" width="8.83203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
         <v>710</v>
       </c>
@@ -16812,12 +16815,12 @@
       </c>
       <c r="N1" s="68"/>
     </row>
-    <row r="2" spans="1:19" ht="21">
+    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="M2" s="69"/>
       <c r="N2" s="68"/>
     </row>
-    <row r="3" spans="1:19" ht="21">
+    <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>685</v>
       </c>
@@ -16840,7 +16843,7 @@
       <c r="R3" s="52"/>
       <c r="S3" s="52"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
         <v>686</v>
       </c>
@@ -16848,289 +16851,290 @@
         <v>687</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>691</v>
+        <v>779</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>779</v>
+        <v>693</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>693</v>
-      </c>
-      <c r="I4" s="54" t="s">
         <v>694</v>
       </c>
+      <c r="I4" s="55" t="s">
+        <v>695</v>
+      </c>
       <c r="J4" s="55" t="s">
-        <v>695</v>
-      </c>
-      <c r="K4" s="55" t="s">
         <v>696</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="68"/>
       <c r="O4" s="68"/>
+      <c r="P4" s="56"/>
       <c r="R4" s="56"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>697</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>544</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58">
-        <v>1</v>
-      </c>
-      <c r="E5" s="58" t="s">
+      <c r="C5" s="58">
+        <v>0</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>698</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>772</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="115" t="s">
         <v>779</v>
       </c>
-      <c r="H5" s="115" t="s">
-        <v>779</v>
-      </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="68"/>
       <c r="O5" s="68"/>
+      <c r="P5" s="56"/>
       <c r="R5" s="56"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="58" t="s">
         <v>697</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58">
-        <v>2</v>
-      </c>
-      <c r="E6" s="58" t="s">
+      <c r="C6" s="58">
+        <v>1</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>698</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="E6" s="115" t="s">
         <v>773</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="F6" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="68"/>
       <c r="O6" s="68"/>
+      <c r="P6" s="56"/>
       <c r="R6" s="56"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="58" t="s">
         <v>697</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>543</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58">
-        <v>3</v>
-      </c>
-      <c r="E7" s="58" t="s">
+      <c r="C7" s="58">
+        <v>2</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>698</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>780</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="F7" s="59" t="s">
         <v>572</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="G7" s="115" t="s">
         <v>572</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="62"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="62"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="68"/>
       <c r="O7" s="68"/>
+      <c r="P7" s="56"/>
       <c r="R7" s="56"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="s">
         <v>697</v>
       </c>
       <c r="B8" s="58" t="s">
         <v>757</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58">
-        <v>4</v>
-      </c>
-      <c r="E8" s="58" t="s">
+      <c r="C8" s="58">
+        <v>3</v>
+      </c>
+      <c r="D8" s="58" t="s">
         <v>698</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>775</v>
       </c>
-      <c r="G8" s="59">
+      <c r="F8" s="59">
         <v>1970</v>
       </c>
-      <c r="H8" s="115">
+      <c r="G8" s="115">
         <v>1970</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="63"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="63"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="68"/>
       <c r="O8" s="68"/>
+      <c r="P8" s="56"/>
       <c r="R8" s="56"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="58" t="s">
         <v>697</v>
       </c>
       <c r="B9" s="58" t="s">
         <v>758</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58">
-        <v>5</v>
-      </c>
-      <c r="E9" s="58" t="s">
+      <c r="C9" s="58">
+        <v>4</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>698</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>775</v>
       </c>
-      <c r="G9" s="59">
+      <c r="F9" s="59">
         <v>2019</v>
       </c>
-      <c r="H9" s="115">
+      <c r="G9" s="115">
         <v>2019</v>
       </c>
-      <c r="I9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="57"/>
+      <c r="L9" s="69"/>
       <c r="M9" s="69"/>
-      <c r="O9" s="69"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="69"/>
       <c r="Q9" s="69"/>
       <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-    </row>
-    <row r="10" spans="1:19">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="58" t="s">
         <v>697</v>
       </c>
       <c r="B10" s="56" t="s">
         <v>533</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="58">
-        <v>6</v>
-      </c>
-      <c r="E10" s="58" t="s">
+      <c r="C10" s="58">
+        <v>5</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>698</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>776</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="F10" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="H10" s="115" t="s">
+      <c r="G10" s="115" t="s">
         <v>295</v>
       </c>
+      <c r="H10" s="56"/>
       <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="M10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="M10" s="69"/>
       <c r="O10" s="69"/>
       <c r="P10" s="69"/>
       <c r="Q10" s="69"/>
       <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-    </row>
-    <row r="11" spans="1:19">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="58" t="s">
         <v>697</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>759</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58">
-        <v>7</v>
-      </c>
-      <c r="E11" s="58" t="s">
+      <c r="C11" s="58">
+        <v>6</v>
+      </c>
+      <c r="D11" s="58" t="s">
         <v>698</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>777</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="F11" s="59" t="s">
         <v>596</v>
       </c>
-      <c r="H11" s="115" t="s">
+      <c r="G11" s="115" t="s">
         <v>596</v>
       </c>
-      <c r="I11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="57"/>
       <c r="J11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="M11" s="69"/>
       <c r="O11" s="69"/>
       <c r="P11" s="69"/>
       <c r="Q11" s="69"/>
       <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-    </row>
-    <row r="12" spans="1:19">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="58" t="s">
         <v>697</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>760</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58">
-        <v>8</v>
+      <c r="C12" s="58">
+        <v>7</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>698</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>698</v>
-      </c>
-      <c r="F12" s="58" t="s">
         <v>778</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="F12" s="59" t="s">
+        <v>781</v>
+      </c>
+      <c r="G12" s="115" t="s">
         <v>540</v>
       </c>
-      <c r="H12" s="115" t="s">
-        <v>540</v>
-      </c>
-      <c r="I12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="57"/>
       <c r="J12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="M12" s="69"/>
       <c r="O12" s="69"/>
       <c r="P12" s="69"/>
       <c r="Q12" s="69"/>
       <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-    </row>
-    <row r="13" spans="1:19">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="58"/>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
@@ -17138,14 +17142,14 @@
       <c r="R13" s="69"/>
       <c r="S13" s="69"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
       <c r="Q14" s="69"/>
       <c r="R14" s="69"/>
       <c r="S14" s="69"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
@@ -17161,7 +17165,7 @@
       <c r="P15" s="56"/>
       <c r="R15" s="56"/>
     </row>
-    <row r="16" spans="1:19" ht="21">
+    <row r="16" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>712</v>
       </c>
@@ -17184,14 +17188,14 @@
       <c r="R16" s="52"/>
       <c r="S16" s="52"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="71" t="s">
         <v>713</v>
       </c>
       <c r="Q17" s="72"/>
       <c r="R17" s="56"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
         <v>714</v>
       </c>
@@ -17220,7 +17224,7 @@
       <c r="Q18" s="73"/>
       <c r="R18" s="56"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>717</v>
       </c>
@@ -17247,7 +17251,7 @@
       </c>
       <c r="R19" s="56"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="56" t="s">
         <v>717</v>
       </c>
@@ -17261,7 +17265,7 @@
         <v>701</v>
       </c>
       <c r="E20" s="75" t="e">
-        <f>SUM([1]Cashflow!F105:AI105)/G7</f>
+        <f>SUM([1]Cashflow!F105:AI105)/F7</f>
         <v>#VALUE!</v>
       </c>
       <c r="F20" s="75"/>
@@ -17274,7 +17278,7 @@
       </c>
       <c r="R20" s="56"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="56" t="s">
         <v>717</v>
       </c>
@@ -17303,7 +17307,7 @@
       </c>
       <c r="R21" s="56"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="56" t="s">
         <v>726</v>
       </c>
@@ -17330,7 +17334,7 @@
       </c>
       <c r="R22" s="56"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="56" t="s">
         <v>726</v>
       </c>
@@ -17357,7 +17361,7 @@
       </c>
       <c r="R23" s="56"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="56" t="s">
         <v>726</v>
       </c>
@@ -17384,7 +17388,7 @@
       </c>
       <c r="R24" s="56"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="56" t="s">
         <v>726</v>
       </c>
@@ -17411,7 +17415,7 @@
       </c>
       <c r="R25" s="56"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="56" t="s">
         <v>726</v>
       </c>
@@ -17438,7 +17442,7 @@
       </c>
       <c r="R26" s="56"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="56" t="s">
         <v>726</v>
       </c>
@@ -17465,7 +17469,7 @@
       </c>
       <c r="R27" s="56"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="s">
         <v>726</v>
       </c>
@@ -17492,7 +17496,7 @@
       </c>
       <c r="R28" s="56"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
         <v>726</v>
       </c>
@@ -17516,7 +17520,7 @@
       </c>
       <c r="R29" s="56"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
         <v>726</v>
       </c>
@@ -17540,7 +17544,7 @@
       </c>
       <c r="R30" s="56"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="56" t="s">
         <v>726</v>
       </c>
@@ -17564,7 +17568,7 @@
       </c>
       <c r="R31" s="56"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="61" t="s">
         <v>702</v>
       </c>
@@ -17592,7 +17596,7 @@
       <c r="L32" s="87"/>
       <c r="R32" s="56"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="61" t="s">
         <v>702</v>
       </c>
@@ -17620,7 +17624,7 @@
       <c r="N33" s="91"/>
       <c r="R33" s="56"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="61" t="s">
         <v>702</v>
       </c>
@@ -17646,7 +17650,7 @@
       <c r="N34" s="91"/>
       <c r="R34" s="56"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="61" t="s">
         <v>702</v>
       </c>
@@ -17671,7 +17675,7 @@
       <c r="I35" s="60"/>
       <c r="R35" s="56"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="61" t="s">
         <v>702</v>
       </c>
@@ -17694,7 +17698,7 @@
       <c r="I36" s="60"/>
       <c r="R36" s="56"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="61" t="s">
         <v>702</v>
       </c>
@@ -17719,7 +17723,7 @@
       <c r="I37" s="94"/>
       <c r="R37" s="56"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="61" t="s">
         <v>707</v>
       </c>
@@ -17746,7 +17750,7 @@
       </c>
       <c r="R38" s="56"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="61" t="s">
         <v>707</v>
       </c>
@@ -17773,7 +17777,7 @@
       </c>
       <c r="R39" s="56"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="61" t="s">
         <v>707</v>
       </c>
@@ -17800,7 +17804,7 @@
       </c>
       <c r="R40" s="56"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="61" t="s">
         <v>707</v>
       </c>
@@ -17827,7 +17831,7 @@
       </c>
       <c r="R41" s="56"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="61" t="s">
         <v>703</v>
       </c>
@@ -17852,7 +17856,7 @@
       <c r="I42" s="97"/>
       <c r="R42" s="56"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="61" t="s">
         <v>705</v>
       </c>
@@ -17875,7 +17879,7 @@
       <c r="I43" s="60"/>
       <c r="R43" s="56"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="61" t="s">
         <v>705</v>
       </c>
@@ -17900,7 +17904,7 @@
       <c r="I44" s="60"/>
       <c r="R44" s="56"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="61" t="s">
         <v>703</v>
       </c>
@@ -17925,14 +17929,14 @@
       <c r="I45" s="60"/>
       <c r="R45" s="56"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D46" s="58"/>
       <c r="R46" s="56"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R47" s="56"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I48" s="56"/>
       <c r="J48" s="56"/>
       <c r="K48" s="56"/>
@@ -17943,7 +17947,7 @@
       <c r="P48" s="56"/>
       <c r="R48" s="56"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I49" s="68"/>
       <c r="J49" s="68"/>
       <c r="K49" s="56"/>
@@ -17952,7 +17956,7 @@
       <c r="O49" s="68"/>
       <c r="R49" s="56"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I50" s="68"/>
       <c r="J50" s="68"/>
       <c r="K50" s="56"/>
@@ -17961,7 +17965,7 @@
       <c r="O50" s="68"/>
       <c r="R50" s="56"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I51" s="68"/>
       <c r="J51" s="68"/>
       <c r="K51" s="56"/>
@@ -17970,7 +17974,7 @@
       <c r="O51" s="68"/>
       <c r="R51" s="56"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="s">
         <v>753</v>
       </c>
@@ -17995,7 +17999,7 @@
       <c r="O52" s="68"/>
       <c r="R52" s="56"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B53" s="100"/>
       <c r="C53" s="104">
         <v>0.05</v>
@@ -18019,7 +18023,7 @@
       <c r="O53" s="68"/>
       <c r="R53" s="56"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B54" s="100"/>
       <c r="C54" s="108">
         <v>7.0000000000000007E-2</v>
@@ -18043,7 +18047,7 @@
       <c r="O54" s="68"/>
       <c r="R54" s="56"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B55" s="100"/>
       <c r="C55" s="110">
         <v>0.09</v>
@@ -18067,7 +18071,7 @@
       <c r="O55" s="68"/>
       <c r="R55" s="56"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B56" s="100"/>
       <c r="C56" s="110">
         <v>0.11</v>
@@ -18091,7 +18095,7 @@
       <c r="O56" s="68"/>
       <c r="R56" s="56"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B57" s="100"/>
       <c r="C57" s="110">
         <v>0.13</v>
@@ -18115,7 +18119,7 @@
       <c r="O57" s="68"/>
       <c r="R57" s="56"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B58" s="100"/>
       <c r="C58" s="110">
         <v>0.15</v>
@@ -18139,7 +18143,7 @@
       <c r="O58" s="68"/>
       <c r="R58" s="56"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C59" s="56"/>
       <c r="D59" s="68"/>
       <c r="E59" s="68"/>
@@ -18154,7 +18158,7 @@
       <c r="O59" s="68"/>
       <c r="R59" s="56"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C60" s="56"/>
       <c r="D60" s="68"/>
       <c r="E60" s="68"/>
@@ -18169,7 +18173,7 @@
       <c r="O60" s="68"/>
       <c r="R60" s="56"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C61" s="56"/>
       <c r="D61" s="68"/>
       <c r="E61" s="68"/>
@@ -18184,7 +18188,7 @@
       <c r="O61" s="68"/>
       <c r="R61" s="56"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C62" s="56"/>
       <c r="D62" s="68"/>
       <c r="E62" s="68"/>
@@ -18199,7 +18203,7 @@
       <c r="O62" s="68"/>
       <c r="R62" s="56"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C63" s="56"/>
       <c r="D63" s="68"/>
       <c r="E63" s="68"/>
@@ -18214,7 +18218,7 @@
       <c r="O63" s="68"/>
       <c r="R63" s="56"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>772</v>
       </c>
@@ -18232,7 +18236,7 @@
       <c r="O64" s="68"/>
       <c r="R64" s="56"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="115" t="s">
         <v>773</v>
       </c>
@@ -18249,7 +18253,7 @@
       <c r="N65" s="91"/>
       <c r="O65" s="68"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>780</v>
       </c>
@@ -18270,7 +18274,7 @@
       <c r="T66" s="70"/>
       <c r="U66" s="70"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>775</v>
       </c>
@@ -18287,7 +18291,7 @@
       <c r="N67" s="91"/>
       <c r="O67" s="68"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>775</v>
       </c>
@@ -18304,7 +18308,7 @@
       <c r="N68" s="91"/>
       <c r="O68" s="68"/>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>776</v>
       </c>
@@ -18321,7 +18325,7 @@
       <c r="N69" s="91"/>
       <c r="O69" s="68"/>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>777</v>
       </c>
@@ -18340,7 +18344,7 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
@@ -18353,12 +18357,12 @@
     <col min="13" max="13" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -18370,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -18401,7 +18405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -18432,7 +18436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -18463,7 +18467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -18497,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -18528,7 +18532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20">
+    <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -18560,7 +18564,7 @@
       </c>
       <c r="M8" s="114"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -18591,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -18629,7 +18633,7 @@
         <v>Asia, Europe, Africa, Oceania, North America, South America,G20, South America, Australia,G20, Asia,Europe, Asia,MENA,GCC, North America,G20, Asia,G20, Europe,G20, Asia,MENA, Asia,Europe,G20, Asia,G20,MENA,GCC, Africa,G20</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -18660,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -18700,7 +18704,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -18731,7 +18735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -18765,7 +18769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -18802,7 +18806,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -18836,7 +18840,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -18870,7 +18874,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -18907,7 +18911,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -18941,7 +18945,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -18975,7 +18979,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -19009,7 +19013,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -19046,7 +19050,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -19080,7 +19084,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -19117,7 +19121,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -19151,7 +19155,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -19188,7 +19192,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -19222,7 +19226,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -19256,7 +19260,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -19293,7 +19297,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>281</v>
       </c>
@@ -19330,7 +19334,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -19364,7 +19368,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -19398,7 +19402,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -19429,7 +19433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -19460,7 +19464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>172</v>
       </c>
@@ -19491,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -19522,7 +19526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -19553,7 +19557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -19584,7 +19588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -19618,7 +19622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -19649,7 +19653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>260</v>
       </c>
@@ -19680,7 +19684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -19714,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -19745,7 +19749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>271</v>
       </c>
@@ -19776,7 +19780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -19810,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -19841,7 +19845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -19872,7 +19876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -19906,7 +19910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -19940,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -19971,7 +19975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -20002,7 +20006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -20036,7 +20040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -20070,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -20101,7 +20105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -20132,7 +20136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -20163,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>227</v>
       </c>
@@ -20194,7 +20198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -20225,7 +20229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -20256,7 +20260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -20287,7 +20291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -20321,7 +20325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -20355,7 +20359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -20389,7 +20393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -20420,7 +20424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -20454,7 +20458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -20485,7 +20489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -20516,7 +20520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -20547,7 +20551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -20578,7 +20582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>134</v>
       </c>
@@ -20610,7 +20614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -20644,7 +20648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -20678,7 +20682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>131</v>
       </c>
@@ -20712,7 +20716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -20743,7 +20747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -20774,7 +20778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -20808,7 +20812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>231</v>
       </c>
@@ -20842,7 +20846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>136</v>
       </c>
@@ -20873,7 +20877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -20904,7 +20908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -20938,7 +20942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -20969,7 +20973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>139</v>
       </c>
@@ -21000,7 +21004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -21031,7 +21035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>146</v>
       </c>
@@ -21062,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>148</v>
       </c>
@@ -21093,7 +21097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>147</v>
       </c>
@@ -21127,7 +21131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>142</v>
       </c>
@@ -21161,7 +21165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -21195,7 +21199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -21229,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>141</v>
       </c>
@@ -21260,7 +21264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>144</v>
       </c>
@@ -21291,7 +21295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -21325,7 +21329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>156</v>
       </c>
@@ -21359,7 +21363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -21393,7 +21397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -21424,7 +21428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>157</v>
       </c>
@@ -21455,7 +21459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>163</v>
       </c>
@@ -21486,7 +21490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -21517,7 +21521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>158</v>
       </c>
@@ -21548,7 +21552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>162</v>
       </c>
@@ -21579,7 +21583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>160</v>
       </c>
@@ -21610,7 +21614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>161</v>
       </c>
@@ -21641,7 +21645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -21672,7 +21676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>165</v>
       </c>
@@ -21703,7 +21707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>166</v>
       </c>
@@ -21737,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>168</v>
       </c>
@@ -21768,7 +21772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -21799,7 +21803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>169</v>
       </c>
@@ -21833,7 +21837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>170</v>
       </c>
@@ -21864,7 +21868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>173</v>
       </c>
@@ -21895,7 +21899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>248</v>
       </c>
@@ -21926,7 +21930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>176</v>
       </c>
@@ -21957,7 +21961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>171</v>
       </c>
@@ -21988,7 +21992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>177</v>
       </c>
@@ -22019,7 +22023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>187</v>
       </c>
@@ -22050,7 +22054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>178</v>
       </c>
@@ -22081,7 +22085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>184</v>
       </c>
@@ -22112,7 +22116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -22143,7 +22147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -22174,7 +22178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>182</v>
       </c>
@@ -22205,7 +22209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>185</v>
       </c>
@@ -22236,7 +22240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>186</v>
       </c>
@@ -22267,7 +22271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>188</v>
       </c>
@@ -22298,7 +22302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>195</v>
       </c>
@@ -22329,7 +22333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>191</v>
       </c>
@@ -22360,7 +22364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>206</v>
       </c>
@@ -22391,7 +22395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>207</v>
       </c>
@@ -22422,7 +22426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>192</v>
       </c>
@@ -22453,7 +22457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>196</v>
       </c>
@@ -22484,7 +22488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>197</v>
       </c>
@@ -22515,7 +22519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>194</v>
       </c>
@@ -22549,7 +22553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>204</v>
       </c>
@@ -22583,7 +22587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>202</v>
       </c>
@@ -22614,7 +22618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>205</v>
       </c>
@@ -22645,7 +22649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>193</v>
       </c>
@@ -22679,7 +22683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>190</v>
       </c>
@@ -22710,7 +22714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>200</v>
       </c>
@@ -22741,7 +22745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>199</v>
       </c>
@@ -22772,7 +22776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>203</v>
       </c>
@@ -22806,7 +22810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>189</v>
       </c>
@@ -22837,7 +22841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>201</v>
       </c>
@@ -22868,7 +22872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>198</v>
       </c>
@@ -22899,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>208</v>
       </c>
@@ -22930,7 +22934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>216</v>
       </c>
@@ -22961,7 +22965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>214</v>
       </c>
@@ -22992,7 +22996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>69</v>
       </c>
@@ -23024,7 +23028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>209</v>
       </c>
@@ -23055,7 +23059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>217</v>
       </c>
@@ -23086,7 +23090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>212</v>
       </c>
@@ -23120,7 +23124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -23151,7 +23155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -23182,7 +23186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>213</v>
       </c>
@@ -23216,7 +23220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>215</v>
       </c>
@@ -23247,7 +23251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>218</v>
       </c>
@@ -23278,7 +23282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>219</v>
       </c>
@@ -23309,7 +23313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>223</v>
       </c>
@@ -23340,7 +23344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>230</v>
       </c>
@@ -23371,7 +23375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>220</v>
       </c>
@@ -23405,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>224</v>
       </c>
@@ -23436,7 +23440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>229</v>
       </c>
@@ -23470,7 +23474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>221</v>
       </c>
@@ -23504,7 +23508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>222</v>
       </c>
@@ -23535,7 +23539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>225</v>
       </c>
@@ -23566,7 +23570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>228</v>
       </c>
@@ -23597,7 +23601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>226</v>
       </c>
@@ -23628,7 +23632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>232</v>
       </c>
@@ -23659,7 +23663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -23690,7 +23694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>233</v>
       </c>
@@ -23721,7 +23725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>234</v>
       </c>
@@ -23752,7 +23756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>235</v>
       </c>
@@ -23786,7 +23790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>236</v>
       </c>
@@ -23817,7 +23821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -23851,7 +23855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -23885,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>246</v>
       </c>
@@ -23919,7 +23923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>279</v>
       </c>
@@ -23953,7 +23957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>286</v>
       </c>
@@ -23984,7 +23988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>250</v>
       </c>
@@ -24015,7 +24019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>237</v>
       </c>
@@ -24046,7 +24050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>240</v>
       </c>
@@ -24077,7 +24081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>247</v>
       </c>
@@ -24108,7 +24112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>238</v>
       </c>
@@ -24139,7 +24143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>257</v>
       </c>
@@ -24170,7 +24174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>243</v>
       </c>
@@ -24201,7 +24205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>241</v>
       </c>
@@ -24232,7 +24236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>256</v>
       </c>
@@ -24266,7 +24270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -24297,7 +24301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>253</v>
       </c>
@@ -24328,7 +24332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>242</v>
       </c>
@@ -24359,7 +24363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>245</v>
       </c>
@@ -24390,7 +24394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>289</v>
       </c>
@@ -24421,7 +24425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>249</v>
       </c>
@@ -24452,7 +24456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>277</v>
       </c>
@@ -24486,7 +24490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>127</v>
       </c>
@@ -24517,7 +24521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>183</v>
       </c>
@@ -24548,7 +24552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>239</v>
       </c>
@@ -24579,7 +24583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>251</v>
       </c>
@@ -24613,7 +24617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>255</v>
       </c>
@@ -24644,7 +24648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>254</v>
       </c>
@@ -24675,7 +24679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>99</v>
       </c>
@@ -24706,7 +24710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>258</v>
       </c>
@@ -24737,7 +24741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>263</v>
       </c>
@@ -24768,7 +24772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>272</v>
       </c>
@@ -24799,7 +24803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>262</v>
       </c>
@@ -24830,7 +24834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>266</v>
       </c>
@@ -24861,7 +24865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>261</v>
       </c>
@@ -24892,7 +24896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>264</v>
       </c>
@@ -24926,7 +24930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>267</v>
       </c>
@@ -24960,7 +24964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>268</v>
       </c>
@@ -24994,7 +24998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>269</v>
       </c>
@@ -25025,7 +25029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>270</v>
       </c>
@@ -25056,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>265</v>
       </c>
@@ -25087,7 +25091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>259</v>
       </c>
@@ -25121,7 +25125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>273</v>
       </c>
@@ -25152,7 +25156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>274</v>
       </c>
@@ -25183,7 +25187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>70</v>
       </c>
@@ -25214,7 +25218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>137</v>
       </c>
@@ -25245,7 +25249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>276</v>
       </c>
@@ -25276,7 +25280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>282</v>
       </c>
@@ -25310,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>275</v>
       </c>
@@ -25344,7 +25348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>278</v>
       </c>
@@ -25375,7 +25379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>284</v>
       </c>
@@ -25409,7 +25413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>280</v>
       </c>
@@ -25443,7 +25447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>283</v>
       </c>
@@ -25474,7 +25478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>285</v>
       </c>
@@ -25508,7 +25512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>126</v>
       </c>
@@ -25539,7 +25543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>287</v>
       </c>
@@ -25570,7 +25574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>288</v>
       </c>
@@ -25601,7 +25605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>290</v>
       </c>
@@ -25632,7 +25636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>291</v>
       </c>
@@ -25681,77 +25685,77 @@
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
         <v>583</v>
       </c>
@@ -25759,22 +25763,22 @@
         <v>764</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
         <v>592</v>
       </c>
@@ -25795,54 +25799,54 @@
       <selection activeCell="H26" sqref="H26:H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2011</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -25851,22 +25855,22 @@
         <v>2019, 2018, 2017, 2016, 2015, 2014, 2013, 2012, 2011, 2010, 2009, 2008, 2007, 2006, 2005, 2004, 2003, 2002, 2001, 2000, 1999, 1998, 1997, 1996, 1995, 1994, 1993, 1992, 1991, 1990, 1989, 1988, 1987, 1986, 1985, 1984, 1983, 1982, 1981, 1980, 1979, 1978, 1977, 1976, 1975, 1974, 1973, 1972, 1971, 1970</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -25874,62 +25878,62 @@
         <v>765</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2005</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2004</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2003</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2002</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2001</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1999</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1998</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1997</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1996</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1995</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1994</v>
       </c>
@@ -25937,7 +25941,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1993</v>
       </c>
@@ -25945,7 +25949,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1992</v>
       </c>
@@ -25953,7 +25957,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1991</v>
       </c>
@@ -25961,7 +25965,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1990</v>
       </c>
@@ -25969,7 +25973,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1989</v>
       </c>
@@ -25977,7 +25981,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1988</v>
       </c>
@@ -25985,7 +25989,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1987</v>
       </c>
@@ -25993,87 +25997,87 @@
         <v>769</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1986</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1985</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1984</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1983</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1982</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1981</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1980</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1979</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1978</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1977</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1976</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1975</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1974</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1973</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1972</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1971</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1970</v>
       </c>

--- a/backend/models/model-file-camp-sankey.xlsx
+++ b/backend/models/model-file-camp-sankey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/apple/documents/kapsarc_projects/camp-project/backend/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bashaalfoghom/Documents/KAPSARC_Projects/CAMP_Project/backend/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48873F4D-79F1-5040-87E7-A9FB68D90AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBD888C-689F-0240-AA07-29CF60EC8995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_techniques" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -63,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="724">
   <si>
     <t>Sector</t>
   </si>
@@ -2129,9 +2127,6 @@
     <t>input</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -2141,9 +2136,6 @@
     <t>condition</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -2162,178 +2154,10 @@
     <t>option</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>Project Financing</t>
-  </si>
-  <si>
-    <t>Feedstck Prices and Cost</t>
-  </si>
-  <si>
-    <t>USD/MWh</t>
-  </si>
-  <si>
-    <t>Tax Credits and Other Incentives</t>
-  </si>
-  <si>
-    <t>USD/kgH2</t>
-  </si>
-  <si>
-    <t>Summary of Sources of Funding for Total Installed Cost</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>$/kg</t>
-  </si>
-  <si>
     <t>MODEL CONFIG</t>
   </si>
   <si>
     <t>User input</t>
-  </si>
-  <si>
-    <t>MODEL OUTPUTS</t>
-  </si>
-  <si>
-    <t>RESULTS</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Hydrogen flow rate, Yr 1</t>
-  </si>
-  <si>
-    <t>tonnes/Yr</t>
-  </si>
-  <si>
-    <t>result value</t>
-  </si>
-  <si>
-    <t>Backend</t>
-  </si>
-  <si>
-    <t>Total CO2 emissions, average</t>
-  </si>
-  <si>
-    <t>Emission reduction</t>
-  </si>
-  <si>
-    <t>ü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be reviewed </t>
-  </si>
-  <si>
-    <t>Levelized Cost of H2 Production</t>
-  </si>
-  <si>
-    <t>Capex cost</t>
-  </si>
-  <si>
-    <t>Fixed O&amp;M cost</t>
-  </si>
-  <si>
-    <t>Electricity cost</t>
-  </si>
-  <si>
-    <t>Water cost</t>
-  </si>
-  <si>
-    <t>Natural gas cost</t>
-  </si>
-  <si>
-    <t>Carbon tax cost</t>
-  </si>
-  <si>
-    <t>Total LCOH (including grants, if any)</t>
-  </si>
-  <si>
-    <t>Pre-tax IRR</t>
-  </si>
-  <si>
-    <t>Post-Tax IRR</t>
-  </si>
-  <si>
-    <t>Equity IRR</t>
-  </si>
-  <si>
-    <t>Equity financing</t>
-  </si>
-  <si>
-    <t>WACC</t>
-  </si>
-  <si>
-    <t>Actual Minimum DSCR, occurs in</t>
-  </si>
-  <si>
-    <t>Minimum DSCR Check</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
-  </si>
-  <si>
-    <t>Actual Average DSCR</t>
-  </si>
-  <si>
-    <t>Average DSCR Check</t>
-  </si>
-  <si>
-    <t>Debt component for main plant</t>
-  </si>
-  <si>
-    <t>Equity component for main plant</t>
-  </si>
-  <si>
-    <t>Total value of grants</t>
-  </si>
-  <si>
-    <t>Total project financing (w/o stack replacement)</t>
-  </si>
-  <si>
-    <t>Conventional electricity consumption</t>
-  </si>
-  <si>
-    <t>PTC credits</t>
-  </si>
-  <si>
-    <t>Eligible PTC Value</t>
-  </si>
-  <si>
-    <t>Weighted average price of electricity</t>
-  </si>
-  <si>
-    <t>Chart #1</t>
-  </si>
-  <si>
-    <t>Project IRR (with PTC)</t>
-  </si>
-  <si>
-    <t>Project IRR (w/O PTC)</t>
-  </si>
-  <si>
-    <t>Project IRR (with ITC)</t>
   </si>
   <si>
     <t>Year from</t>
@@ -2415,13 +2239,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2626,62 +2447,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="0.39997558519241921"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2698,7 +2467,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2920,14 +2689,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -3207,71 +2970,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
       <top style="dotted">
         <color auto="1"/>
       </top>
@@ -3294,7 +2992,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3337,10 +3035,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -3419,7 +3116,7 @@
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3430,123 +3127,21 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3560,7 +3155,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3598,10 +3193,9 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 3" xfId="43" xr:uid="{49682E0F-7A09-F646-8C2F-68AB39FA844A}"/>
+    <cellStyle name="Normal 2 3" xfId="42" xr:uid="{49682E0F-7A09-F646-8C2F-68AB39FA844A}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3642,2305 +3236,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Annual Cash Flows &amp; Returns'!$M$6:$M$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cummulative Cash Flow $</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Annual Cash Flows &amp; Returns'!$M$8:$M$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>-305779569.8924731</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-255808067.28584039</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-206122114.9859466</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-156727423.99892649</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-107729705.16825075</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-59037012.319833085</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-21855406.48551318</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14217399.973697238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49068978.819861226</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>82573822.980230913</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>114591785.33814505</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>144966330.34385571</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>175113129.01641405</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>205027626.42915702</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>234705176.55688834</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>264141040.45390776</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>293330384.39560103</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>322268277.98286164</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>350949692.20860094</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>379369497.48558849</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>407522461.63484925</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>435403247.83382869</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>463006412.52352118</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>490326403.27374101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>517357556.6056987</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>544094095.771029</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF21-3040-B305-FB547A86E2B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="748391840"/>
-        <c:axId val="748420128"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="748391840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Project Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.458689384661566"/>
-              <c:y val="0.72281157677163221"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-SA"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-SA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="748420128"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="748420128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1"/>
-                  <a:t>Cummulative Cash Flow ($)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-SA"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-SA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="748391840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-SA"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Input!$T$105</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Project IRR (with PTC)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Input!$N$106:$N$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Input!$T$106:$T$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.373</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.376</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.378</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-204F-3B4E-9540-4A6FF3285D93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Input!$U$105</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Project IRR (w/O PTC)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Input!$N$106:$N$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Input!$U$106:$U$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.11799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.123</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.124</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.126</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-204F-3B4E-9540-4A6FF3285D93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Input!$V$105</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Project IRR (with ITC)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Input!$N$106:$N$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Input!$V$106:$V$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.17599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.182</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.183</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.185</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-204F-3B4E-9540-4A6FF3285D93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Input!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Input!$N$106:$N$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Input!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-204F-3B4E-9540-4A6FF3285D93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="946565264"/>
-        <c:axId val="946562352"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="946565264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cost of debt (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-SA"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-SA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="946562352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="946562352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>IRR (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-SA"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-SA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="946565264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-SA"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-SA"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="38100" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>89443</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>99119</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>44141</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC2CE3E-2E60-DC43-8840-D358FC257492}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>117467</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>24349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC762D8C-CA92-7246-BC61-5D426AD0414C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6060,154 +3355,6 @@
         <row r="18">
           <cell r="D18">
             <v>620220.62732990342</v>
-          </cell>
-          <cell r="F18">
-            <v>62749.632000000005</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>-283129231.3819195</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>-168654331.10590801</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>-9303309.4099485502</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>-14885295.055917677</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>-116046543.6925161</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46">
-            <v>0.15253329731673437</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54">
-            <v>0.12442244245771761</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58">
-            <v>0.18257248288487227</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>1.2810160006699154</v>
-          </cell>
-          <cell r="D61">
-            <v>1.243020660732677</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="F105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="G105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="H105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="I105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="J105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="K105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="L105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="M105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="N105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="O105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="P105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="Q105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="R105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="S105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="T105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="U105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="V105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="W105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="X105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="Y105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="Z105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="AA105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="AB105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="AC105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="AD105">
-            <v>55847.172480000008</v>
-          </cell>
-          <cell r="AE105">
-            <v>0</v>
-          </cell>
-          <cell r="AF105">
-            <v>0</v>
-          </cell>
-          <cell r="AG105">
-            <v>0</v>
-          </cell>
-          <cell r="AH105">
-            <v>0</v>
-          </cell>
-          <cell r="AI105">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -6669,10 +3816,10 @@
   <dimension ref="A1:AP213"/>
   <sheetViews>
     <sheetView topLeftCell="H2" zoomScale="125" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
@@ -6687,7 +3834,7 @@
     <col min="16" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="16" thickBot="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6731,7 +3878,7 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:42" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" ht="90.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="13"/>
       <c r="C2" s="33" t="s">
@@ -6777,15 +3924,15 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:42" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" ht="14.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
@@ -6823,7 +3970,7 @@
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
     </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="17"/>
       <c r="C4" s="24"/>
@@ -6867,7 +4014,7 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
     </row>
-    <row r="5" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="16" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="17"/>
       <c r="C5" s="32" t="s">
@@ -6884,19 +4031,19 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="75" t="s">
         <v>535</v>
       </c>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="20"/>
       <c r="U5" s="23"/>
       <c r="V5" s="2"/>
@@ -6921,7 +4068,7 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42">
       <c r="A6" s="2"/>
       <c r="B6" s="17"/>
       <c r="C6" s="10" t="s">
@@ -6973,7 +4120,7 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
     </row>
-    <row r="7" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="16" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="17"/>
       <c r="C7" s="11" t="s">
@@ -7025,7 +4172,7 @@
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
     </row>
-    <row r="8" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="16" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="17"/>
       <c r="C8" s="11" t="s">
@@ -7055,7 +4202,7 @@
         <v>563</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>767</v>
+        <v>709</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -7086,7 +4233,7 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42">
       <c r="A9" s="2"/>
       <c r="B9" s="17"/>
       <c r="C9" s="11" t="s">
@@ -7138,7 +4285,7 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42">
       <c r="A10" s="2"/>
       <c r="B10" s="17"/>
       <c r="C10" s="11" t="s">
@@ -7190,7 +4337,7 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="16" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="17"/>
       <c r="C11" s="11" t="s">
@@ -7242,7 +4389,7 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="17" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="17"/>
       <c r="C12" s="11" t="s">
@@ -7303,7 +4450,7 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="16" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="17"/>
       <c r="C13" s="11" t="s">
@@ -7355,7 +4502,7 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="16" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="17"/>
       <c r="C14" s="11" t="s">
@@ -7413,7 +4560,7 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42">
       <c r="A15" s="2"/>
       <c r="B15" s="17"/>
       <c r="C15" s="11" t="s">
@@ -7465,7 +4612,7 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42">
       <c r="A16" s="2"/>
       <c r="B16" s="17"/>
       <c r="C16" s="11" t="s">
@@ -7517,7 +4664,7 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" ht="16" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="17"/>
       <c r="C17" s="11" t="s">
@@ -7573,7 +4720,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" ht="16" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="17"/>
       <c r="C18" s="11" t="s">
@@ -7631,7 +4778,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42">
       <c r="A19" s="2"/>
       <c r="B19" s="17"/>
       <c r="C19" s="11" t="s">
@@ -7683,7 +4830,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42">
       <c r="A20" s="2"/>
       <c r="B20" s="17"/>
       <c r="C20" s="11" t="s">
@@ -7735,7 +4882,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42">
       <c r="A21" s="2"/>
       <c r="B21" s="17"/>
       <c r="C21" s="11" t="s">
@@ -7756,10 +4903,10 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -7787,7 +4934,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42">
       <c r="A22" s="2"/>
       <c r="B22" s="17"/>
       <c r="C22" s="11" t="s">
@@ -7841,7 +4988,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" ht="16" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="17"/>
       <c r="C23" s="11" t="s">
@@ -7893,7 +5040,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="16" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="17"/>
       <c r="C24" s="11" t="s">
@@ -7961,7 +5108,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42">
       <c r="A25" s="2"/>
       <c r="B25" s="17"/>
       <c r="C25" s="11" t="s">
@@ -8025,7 +5172,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42">
       <c r="A26" s="2"/>
       <c r="B26" s="17"/>
       <c r="C26" s="11" t="s">
@@ -8089,7 +5236,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42">
       <c r="A27" s="2"/>
       <c r="B27" s="17"/>
       <c r="C27" s="11" t="s">
@@ -8153,7 +5300,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42">
       <c r="A28" s="2"/>
       <c r="B28" s="17"/>
       <c r="C28" s="11" t="s">
@@ -8217,7 +5364,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42">
       <c r="A29" s="2"/>
       <c r="B29" s="17"/>
       <c r="C29" s="11" t="s">
@@ -8281,7 +5428,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42">
       <c r="A30" s="2"/>
       <c r="B30" s="17"/>
       <c r="C30" s="11" t="s">
@@ -8345,7 +5492,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42">
       <c r="A31" s="2"/>
       <c r="B31" s="17"/>
       <c r="C31" s="11" t="s">
@@ -8409,7 +5556,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42">
       <c r="A32" s="2"/>
       <c r="B32" s="17"/>
       <c r="C32" s="11" t="s">
@@ -8473,7 +5620,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42">
       <c r="A33" s="2"/>
       <c r="B33" s="17"/>
       <c r="C33" s="11" t="s">
@@ -8537,7 +5684,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" ht="16" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="17"/>
       <c r="C34" s="11" t="s">
@@ -8601,7 +5748,7 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42">
       <c r="A35" s="2"/>
       <c r="B35" s="17"/>
       <c r="C35" s="11" t="s">
@@ -8653,7 +5800,7 @@
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42">
       <c r="A36" s="2"/>
       <c r="B36" s="17"/>
       <c r="C36" s="11" t="s">
@@ -8705,7 +5852,7 @@
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42">
       <c r="A37" s="2"/>
       <c r="B37" s="17"/>
       <c r="C37" s="11" t="s">
@@ -8757,7 +5904,7 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
     </row>
-    <row r="38" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" ht="16" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="17"/>
       <c r="C38" s="11" t="s">
@@ -8809,7 +5956,7 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
     </row>
-    <row r="39" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" ht="16" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="17"/>
       <c r="C39" s="11" t="s">
@@ -8865,7 +6012,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42">
       <c r="A40" s="2"/>
       <c r="B40" s="17"/>
       <c r="C40" s="11" t="s">
@@ -8917,7 +6064,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42">
       <c r="A41" s="2"/>
       <c r="B41" s="17"/>
       <c r="C41" s="11" t="s">
@@ -8969,7 +6116,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42">
       <c r="A42" s="2"/>
       <c r="B42" s="17"/>
       <c r="C42" s="11" t="s">
@@ -9021,7 +6168,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42">
       <c r="A43" s="2"/>
       <c r="B43" s="17"/>
       <c r="C43" s="11" t="s">
@@ -9073,7 +6220,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42">
       <c r="A44" s="2"/>
       <c r="B44" s="17"/>
       <c r="C44" s="11" t="s">
@@ -9125,7 +6272,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42">
       <c r="A45" s="2"/>
       <c r="B45" s="17"/>
       <c r="C45" s="11" t="s">
@@ -9177,7 +6324,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42">
       <c r="A46" s="2"/>
       <c r="B46" s="17"/>
       <c r="C46" s="11" t="s">
@@ -9229,7 +6376,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42">
       <c r="A47" s="2"/>
       <c r="B47" s="17"/>
       <c r="C47" s="11" t="s">
@@ -9281,7 +6428,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42">
       <c r="A48" s="2"/>
       <c r="B48" s="17"/>
       <c r="C48" s="11" t="s">
@@ -9333,7 +6480,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42">
       <c r="A49" s="2"/>
       <c r="B49" s="17"/>
       <c r="C49" s="11" t="s">
@@ -9385,7 +6532,7 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:42">
       <c r="A50" s="2"/>
       <c r="B50" s="17"/>
       <c r="C50" s="11" t="s">
@@ -9437,7 +6584,7 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:42">
       <c r="A51" s="2"/>
       <c r="B51" s="17"/>
       <c r="C51" s="11" t="s">
@@ -9489,7 +6636,7 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42">
       <c r="A52" s="2"/>
       <c r="B52" s="17"/>
       <c r="C52" s="11" t="s">
@@ -9541,7 +6688,7 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:42">
       <c r="A53" s="2"/>
       <c r="B53" s="17"/>
       <c r="C53" s="11" t="s">
@@ -9593,7 +6740,7 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42">
       <c r="A54" s="2"/>
       <c r="B54" s="17"/>
       <c r="C54" s="11" t="s">
@@ -9645,7 +6792,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42">
       <c r="A55" s="2"/>
       <c r="B55" s="17"/>
       <c r="C55" s="11" t="s">
@@ -9697,7 +6844,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42">
       <c r="A56" s="2"/>
       <c r="B56" s="17"/>
       <c r="C56" s="11" t="s">
@@ -9749,7 +6896,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42">
       <c r="A57" s="2"/>
       <c r="B57" s="17"/>
       <c r="C57" s="11" t="s">
@@ -9801,7 +6948,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:42">
       <c r="A58" s="2"/>
       <c r="B58" s="17"/>
       <c r="C58" s="11" t="s">
@@ -9853,7 +7000,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42">
       <c r="A59" s="2"/>
       <c r="B59" s="17"/>
       <c r="C59" s="11" t="s">
@@ -9905,7 +7052,7 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42">
       <c r="A60" s="2"/>
       <c r="B60" s="17"/>
       <c r="C60" s="11" t="s">
@@ -9957,7 +7104,7 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:42">
       <c r="A61" s="2"/>
       <c r="B61" s="17"/>
       <c r="C61" s="11" t="s">
@@ -10009,7 +7156,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:42">
       <c r="A62" s="2"/>
       <c r="B62" s="17"/>
       <c r="C62" s="11" t="s">
@@ -10061,7 +7208,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:42">
       <c r="A63" s="2"/>
       <c r="B63" s="17"/>
       <c r="C63" s="11" t="s">
@@ -10113,7 +7260,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:42">
       <c r="A64" s="2"/>
       <c r="B64" s="17"/>
       <c r="C64" s="11" t="s">
@@ -10165,7 +7312,7 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" ht="16" thickBot="1">
       <c r="A65" s="2"/>
       <c r="B65" s="17"/>
       <c r="C65" s="12" t="s">
@@ -10217,7 +7364,7 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:42">
       <c r="A66" s="2"/>
       <c r="B66" s="17"/>
       <c r="C66" s="20"/>
@@ -10261,7 +7408,7 @@
       <c r="AO66" s="2"/>
       <c r="AP66" s="2"/>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:42">
       <c r="A67" s="2"/>
       <c r="B67" s="17"/>
       <c r="C67" s="20"/>
@@ -10305,7 +7452,7 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
     </row>
-    <row r="68" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" ht="16" thickBot="1">
       <c r="A68" s="2"/>
       <c r="B68" s="18"/>
       <c r="C68" s="21"/>
@@ -10349,7 +7496,7 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:42">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -10393,7 +7540,7 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:42">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -10437,7 +7584,7 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:42">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -10481,7 +7628,7 @@
       <c r="AO71" s="2"/>
       <c r="AP71" s="2"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:42">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -10525,7 +7672,7 @@
       <c r="AO72" s="2"/>
       <c r="AP72" s="2"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:42">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -10569,7 +7716,7 @@
       <c r="AO73" s="2"/>
       <c r="AP73" s="2"/>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:42">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -10613,7 +7760,7 @@
       <c r="AO74" s="2"/>
       <c r="AP74" s="2"/>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:42">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -10657,7 +7804,7 @@
       <c r="AO75" s="2"/>
       <c r="AP75" s="2"/>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:42">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -10701,7 +7848,7 @@
       <c r="AO76" s="2"/>
       <c r="AP76" s="2"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:42">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -10745,7 +7892,7 @@
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:42">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -10789,7 +7936,7 @@
       <c r="AO78" s="2"/>
       <c r="AP78" s="2"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:42">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -10833,7 +7980,7 @@
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:42">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -10877,7 +8024,7 @@
       <c r="AO80" s="2"/>
       <c r="AP80" s="2"/>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:42">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -10921,7 +8068,7 @@
       <c r="AO81" s="2"/>
       <c r="AP81" s="2"/>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:42">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -10965,7 +8112,7 @@
       <c r="AO82" s="2"/>
       <c r="AP82" s="2"/>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:42">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -11009,7 +8156,7 @@
       <c r="AO83" s="2"/>
       <c r="AP83" s="2"/>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:42">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -11053,7 +8200,7 @@
       <c r="AO84" s="2"/>
       <c r="AP84" s="2"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:42">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -11097,7 +8244,7 @@
       <c r="AO85" s="2"/>
       <c r="AP85" s="2"/>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:42">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -11141,7 +8288,7 @@
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:42">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -11185,7 +8332,7 @@
       <c r="AO87" s="2"/>
       <c r="AP87" s="2"/>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:42">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -11229,7 +8376,7 @@
       <c r="AO88" s="2"/>
       <c r="AP88" s="2"/>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:42">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -11273,7 +8420,7 @@
       <c r="AO89" s="2"/>
       <c r="AP89" s="2"/>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:42">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -11317,7 +8464,7 @@
       <c r="AO90" s="2"/>
       <c r="AP90" s="2"/>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:42">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -11361,7 +8508,7 @@
       <c r="AO91" s="2"/>
       <c r="AP91" s="2"/>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:42">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -11405,7 +8552,7 @@
       <c r="AO92" s="2"/>
       <c r="AP92" s="2"/>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:42">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -11449,7 +8596,7 @@
       <c r="AO93" s="2"/>
       <c r="AP93" s="2"/>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:42">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -11493,7 +8640,7 @@
       <c r="AO94" s="2"/>
       <c r="AP94" s="2"/>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:42">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -11537,7 +8684,7 @@
       <c r="AO95" s="2"/>
       <c r="AP95" s="2"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:42">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -11581,7 +8728,7 @@
       <c r="AO96" s="2"/>
       <c r="AP96" s="2"/>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:42">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -11625,7 +8772,7 @@
       <c r="AO97" s="2"/>
       <c r="AP97" s="2"/>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:42">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -11669,7 +8816,7 @@
       <c r="AO98" s="2"/>
       <c r="AP98" s="2"/>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:42">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -11713,7 +8860,7 @@
       <c r="AO99" s="2"/>
       <c r="AP99" s="2"/>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:42">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -11757,7 +8904,7 @@
       <c r="AO100" s="2"/>
       <c r="AP100" s="2"/>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:42">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -11801,7 +8948,7 @@
       <c r="AO101" s="2"/>
       <c r="AP101" s="2"/>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:42">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -11845,7 +8992,7 @@
       <c r="AO102" s="2"/>
       <c r="AP102" s="2"/>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:42">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -11889,7 +9036,7 @@
       <c r="AO103" s="2"/>
       <c r="AP103" s="2"/>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:42">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -11933,7 +9080,7 @@
       <c r="AO104" s="2"/>
       <c r="AP104" s="2"/>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:42">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -11977,7 +9124,7 @@
       <c r="AO105" s="2"/>
       <c r="AP105" s="2"/>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:42">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -12021,7 +9168,7 @@
       <c r="AO106" s="2"/>
       <c r="AP106" s="2"/>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:42">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -12065,7 +9212,7 @@
       <c r="AO107" s="2"/>
       <c r="AP107" s="2"/>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:42">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -12109,7 +9256,7 @@
       <c r="AO108" s="2"/>
       <c r="AP108" s="2"/>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:42">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -12153,7 +9300,7 @@
       <c r="AO109" s="2"/>
       <c r="AP109" s="2"/>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:42">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -12197,7 +9344,7 @@
       <c r="AO110" s="2"/>
       <c r="AP110" s="2"/>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:42">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -12241,7 +9388,7 @@
       <c r="AO111" s="2"/>
       <c r="AP111" s="2"/>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:42">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -12285,7 +9432,7 @@
       <c r="AO112" s="2"/>
       <c r="AP112" s="2"/>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:42">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -12329,7 +9476,7 @@
       <c r="AO113" s="2"/>
       <c r="AP113" s="2"/>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:42">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -12373,7 +9520,7 @@
       <c r="AO114" s="2"/>
       <c r="AP114" s="2"/>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:42">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -12417,7 +9564,7 @@
       <c r="AO115" s="2"/>
       <c r="AP115" s="2"/>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:42">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -12461,7 +9608,7 @@
       <c r="AO116" s="2"/>
       <c r="AP116" s="2"/>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:42">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -12505,7 +9652,7 @@
       <c r="AO117" s="2"/>
       <c r="AP117" s="2"/>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:42">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -12549,7 +9696,7 @@
       <c r="AO118" s="2"/>
       <c r="AP118" s="2"/>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:42">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -12593,7 +9740,7 @@
       <c r="AO119" s="2"/>
       <c r="AP119" s="2"/>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:42">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -12637,7 +9784,7 @@
       <c r="AO120" s="2"/>
       <c r="AP120" s="2"/>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:42">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -12681,7 +9828,7 @@
       <c r="AO121" s="2"/>
       <c r="AP121" s="2"/>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:42">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -12725,7 +9872,7 @@
       <c r="AO122" s="2"/>
       <c r="AP122" s="2"/>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:42">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -12769,7 +9916,7 @@
       <c r="AO123" s="2"/>
       <c r="AP123" s="2"/>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:42">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -12813,7 +9960,7 @@
       <c r="AO124" s="2"/>
       <c r="AP124" s="2"/>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:42">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -12857,7 +10004,7 @@
       <c r="AO125" s="2"/>
       <c r="AP125" s="2"/>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:42">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -12901,7 +10048,7 @@
       <c r="AO126" s="2"/>
       <c r="AP126" s="2"/>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:42">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -12945,7 +10092,7 @@
       <c r="AO127" s="2"/>
       <c r="AP127" s="2"/>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:42">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -12989,7 +10136,7 @@
       <c r="AO128" s="2"/>
       <c r="AP128" s="2"/>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:42">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -13033,7 +10180,7 @@
       <c r="AO129" s="2"/>
       <c r="AP129" s="2"/>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:42">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -13077,7 +10224,7 @@
       <c r="AO130" s="2"/>
       <c r="AP130" s="2"/>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:42">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -13121,7 +10268,7 @@
       <c r="AO131" s="2"/>
       <c r="AP131" s="2"/>
     </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:42">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -13165,7 +10312,7 @@
       <c r="AO132" s="2"/>
       <c r="AP132" s="2"/>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:42">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -13209,7 +10356,7 @@
       <c r="AO133" s="2"/>
       <c r="AP133" s="2"/>
     </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:42">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -13253,7 +10400,7 @@
       <c r="AO134" s="2"/>
       <c r="AP134" s="2"/>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:42">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -13297,7 +10444,7 @@
       <c r="AO135" s="2"/>
       <c r="AP135" s="2"/>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:42">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -13341,7 +10488,7 @@
       <c r="AO136" s="2"/>
       <c r="AP136" s="2"/>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:42">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -13385,7 +10532,7 @@
       <c r="AO137" s="2"/>
       <c r="AP137" s="2"/>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:42">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -13429,7 +10576,7 @@
       <c r="AO138" s="2"/>
       <c r="AP138" s="2"/>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:42">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -13473,7 +10620,7 @@
       <c r="AO139" s="2"/>
       <c r="AP139" s="2"/>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:42">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -13517,7 +10664,7 @@
       <c r="AO140" s="2"/>
       <c r="AP140" s="2"/>
     </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:42">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -13561,7 +10708,7 @@
       <c r="AO141" s="2"/>
       <c r="AP141" s="2"/>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:42">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -13605,7 +10752,7 @@
       <c r="AO142" s="2"/>
       <c r="AP142" s="2"/>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:42">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -13649,7 +10796,7 @@
       <c r="AO143" s="2"/>
       <c r="AP143" s="2"/>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:42">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -13693,7 +10840,7 @@
       <c r="AO144" s="2"/>
       <c r="AP144" s="2"/>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:42">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -13737,7 +10884,7 @@
       <c r="AO145" s="2"/>
       <c r="AP145" s="2"/>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:42">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -13781,7 +10928,7 @@
       <c r="AO146" s="2"/>
       <c r="AP146" s="2"/>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:42">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -13825,7 +10972,7 @@
       <c r="AO147" s="2"/>
       <c r="AP147" s="2"/>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:42">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -13869,7 +11016,7 @@
       <c r="AO148" s="2"/>
       <c r="AP148" s="2"/>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:42">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -13913,7 +11060,7 @@
       <c r="AO149" s="2"/>
       <c r="AP149" s="2"/>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:42">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -13957,7 +11104,7 @@
       <c r="AO150" s="2"/>
       <c r="AP150" s="2"/>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:42">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -14001,7 +11148,7 @@
       <c r="AO151" s="2"/>
       <c r="AP151" s="2"/>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:42">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -14045,7 +11192,7 @@
       <c r="AO152" s="2"/>
       <c r="AP152" s="2"/>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:42">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -14089,7 +11236,7 @@
       <c r="AO153" s="2"/>
       <c r="AP153" s="2"/>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:42">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -14133,7 +11280,7 @@
       <c r="AO154" s="2"/>
       <c r="AP154" s="2"/>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:42">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -14177,7 +11324,7 @@
       <c r="AO155" s="2"/>
       <c r="AP155" s="2"/>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:42">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -14221,7 +11368,7 @@
       <c r="AO156" s="2"/>
       <c r="AP156" s="2"/>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:42">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -14265,7 +11412,7 @@
       <c r="AO157" s="2"/>
       <c r="AP157" s="2"/>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:42">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -14309,7 +11456,7 @@
       <c r="AO158" s="2"/>
       <c r="AP158" s="2"/>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:42">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -14353,7 +11500,7 @@
       <c r="AO159" s="2"/>
       <c r="AP159" s="2"/>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:42">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -14397,7 +11544,7 @@
       <c r="AO160" s="2"/>
       <c r="AP160" s="2"/>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:42">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -14441,7 +11588,7 @@
       <c r="AO161" s="2"/>
       <c r="AP161" s="2"/>
     </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:42">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -14485,7 +11632,7 @@
       <c r="AO162" s="2"/>
       <c r="AP162" s="2"/>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:42">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -14529,7 +11676,7 @@
       <c r="AO163" s="2"/>
       <c r="AP163" s="2"/>
     </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:42">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -14573,7 +11720,7 @@
       <c r="AO164" s="2"/>
       <c r="AP164" s="2"/>
     </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:42">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -14617,7 +11764,7 @@
       <c r="AO165" s="2"/>
       <c r="AP165" s="2"/>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:42">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -14661,7 +11808,7 @@
       <c r="AO166" s="2"/>
       <c r="AP166" s="2"/>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:42">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -14705,7 +11852,7 @@
       <c r="AO167" s="2"/>
       <c r="AP167" s="2"/>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:42">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -14749,7 +11896,7 @@
       <c r="AO168" s="2"/>
       <c r="AP168" s="2"/>
     </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:42">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -14793,7 +11940,7 @@
       <c r="AO169" s="2"/>
       <c r="AP169" s="2"/>
     </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:42">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -14837,7 +11984,7 @@
       <c r="AO170" s="2"/>
       <c r="AP170" s="2"/>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:42">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -14881,7 +12028,7 @@
       <c r="AO171" s="2"/>
       <c r="AP171" s="2"/>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:42">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -14925,7 +12072,7 @@
       <c r="AO172" s="2"/>
       <c r="AP172" s="2"/>
     </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:42">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -14969,7 +12116,7 @@
       <c r="AO173" s="2"/>
       <c r="AP173" s="2"/>
     </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:42">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -15013,7 +12160,7 @@
       <c r="AO174" s="2"/>
       <c r="AP174" s="2"/>
     </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:42">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -15057,7 +12204,7 @@
       <c r="AO175" s="2"/>
       <c r="AP175" s="2"/>
     </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:42">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -15101,7 +12248,7 @@
       <c r="AO176" s="2"/>
       <c r="AP176" s="2"/>
     </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:42">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -15145,7 +12292,7 @@
       <c r="AO177" s="2"/>
       <c r="AP177" s="2"/>
     </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:42">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -15189,7 +12336,7 @@
       <c r="AO178" s="2"/>
       <c r="AP178" s="2"/>
     </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:42">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -15233,7 +12380,7 @@
       <c r="AO179" s="2"/>
       <c r="AP179" s="2"/>
     </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:42">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -15277,7 +12424,7 @@
       <c r="AO180" s="2"/>
       <c r="AP180" s="2"/>
     </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:42">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -15321,7 +12468,7 @@
       <c r="AO181" s="2"/>
       <c r="AP181" s="2"/>
     </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:42">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -15365,7 +12512,7 @@
       <c r="AO182" s="2"/>
       <c r="AP182" s="2"/>
     </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:42">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -15409,7 +12556,7 @@
       <c r="AO183" s="2"/>
       <c r="AP183" s="2"/>
     </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:42">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -15453,7 +12600,7 @@
       <c r="AO184" s="2"/>
       <c r="AP184" s="2"/>
     </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:42">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -15497,7 +12644,7 @@
       <c r="AO185" s="2"/>
       <c r="AP185" s="2"/>
     </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:42">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -15541,7 +12688,7 @@
       <c r="AO186" s="2"/>
       <c r="AP186" s="2"/>
     </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:42">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -15585,7 +12732,7 @@
       <c r="AO187" s="2"/>
       <c r="AP187" s="2"/>
     </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:42">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -15629,7 +12776,7 @@
       <c r="AO188" s="2"/>
       <c r="AP188" s="2"/>
     </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:42">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -15673,7 +12820,7 @@
       <c r="AO189" s="2"/>
       <c r="AP189" s="2"/>
     </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:42">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -15717,7 +12864,7 @@
       <c r="AO190" s="2"/>
       <c r="AP190" s="2"/>
     </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:42">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -15761,7 +12908,7 @@
       <c r="AO191" s="2"/>
       <c r="AP191" s="2"/>
     </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:42">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -15805,7 +12952,7 @@
       <c r="AO192" s="2"/>
       <c r="AP192" s="2"/>
     </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:42">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -15849,7 +12996,7 @@
       <c r="AO193" s="2"/>
       <c r="AP193" s="2"/>
     </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:42">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -15893,7 +13040,7 @@
       <c r="AO194" s="2"/>
       <c r="AP194" s="2"/>
     </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:42">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -15937,7 +13084,7 @@
       <c r="AO195" s="2"/>
       <c r="AP195" s="2"/>
     </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:42">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -15981,7 +13128,7 @@
       <c r="AO196" s="2"/>
       <c r="AP196" s="2"/>
     </row>
-    <row r="197" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:42">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -16025,7 +13172,7 @@
       <c r="AO197" s="2"/>
       <c r="AP197" s="2"/>
     </row>
-    <row r="198" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:42">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -16069,7 +13216,7 @@
       <c r="AO198" s="2"/>
       <c r="AP198" s="2"/>
     </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:42">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -16113,7 +13260,7 @@
       <c r="AO199" s="2"/>
       <c r="AP199" s="2"/>
     </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:42">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -16157,7 +13304,7 @@
       <c r="AO200" s="2"/>
       <c r="AP200" s="2"/>
     </row>
-    <row r="201" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:42">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -16201,7 +13348,7 @@
       <c r="AO201" s="2"/>
       <c r="AP201" s="2"/>
     </row>
-    <row r="202" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:42">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -16245,7 +13392,7 @@
       <c r="AO202" s="2"/>
       <c r="AP202" s="2"/>
     </row>
-    <row r="203" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:42">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -16289,7 +13436,7 @@
       <c r="AO203" s="2"/>
       <c r="AP203" s="2"/>
     </row>
-    <row r="204" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:42">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -16333,7 +13480,7 @@
       <c r="AO204" s="2"/>
       <c r="AP204" s="2"/>
     </row>
-    <row r="205" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:42">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -16377,7 +13524,7 @@
       <c r="AO205" s="2"/>
       <c r="AP205" s="2"/>
     </row>
-    <row r="206" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:42">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -16421,7 +13568,7 @@
       <c r="AO206" s="2"/>
       <c r="AP206" s="2"/>
     </row>
-    <row r="207" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:42">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -16465,7 +13612,7 @@
       <c r="AO207" s="2"/>
       <c r="AP207" s="2"/>
     </row>
-    <row r="208" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:42">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -16509,7 +13656,7 @@
       <c r="AO208" s="2"/>
       <c r="AP208" s="2"/>
     </row>
-    <row r="209" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:42">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -16553,7 +13700,7 @@
       <c r="AO209" s="2"/>
       <c r="AP209" s="2"/>
     </row>
-    <row r="210" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:42">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -16597,7 +13744,7 @@
       <c r="AO210" s="2"/>
       <c r="AP210" s="2"/>
     </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:42">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -16641,7 +13788,7 @@
       <c r="AO211" s="2"/>
       <c r="AP211" s="2"/>
     </row>
-    <row r="212" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:42">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -16685,7 +13832,7 @@
       <c r="AO212" s="2"/>
       <c r="AP212" s="2"/>
     </row>
-    <row r="213" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:42">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -16774,53 +13921,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B5B9BE-A5A2-C944-97F8-8873FAB3E8AE}">
-  <dimension ref="A1:U70"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="177" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="39.6640625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="45" style="56" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="56" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="66" customWidth="1"/>
-    <col min="5" max="6" width="16.1640625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="77.6640625" style="66" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="64" customWidth="1"/>
+    <col min="5" max="6" width="16.1640625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="77.6640625" style="64" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="64" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" style="57" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="66.83203125" style="57" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" style="68" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="66" customWidth="1"/>
-    <col min="16" max="16" width="41.1640625" style="68" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="66" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="64" customWidth="1"/>
+    <col min="16" max="16" width="41.1640625" style="66" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" style="56" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" style="57" customWidth="1"/>
     <col min="19" max="16384" width="8.83203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>710</v>
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="63" t="s">
+        <v>697</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>774</v>
+        <v>716</v>
       </c>
       <c r="H1" s="59"/>
-      <c r="I1" s="67" t="s">
-        <v>711</v>
-      </c>
-      <c r="N1" s="68"/>
-    </row>
-    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="68"/>
-    </row>
-    <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="I1" s="65" t="s">
+        <v>698</v>
+      </c>
+      <c r="N1" s="66"/>
+    </row>
+    <row r="2" spans="1:19" ht="21">
+      <c r="A2" s="63"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="66"/>
+    </row>
+    <row r="3" spans="1:19" ht="21">
       <c r="A3" s="51" t="s">
         <v>685</v>
       </c>
@@ -16843,7 +13990,7 @@
       <c r="R3" s="52"/>
       <c r="S3" s="52"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="53" t="s">
         <v>686</v>
       </c>
@@ -16851,39 +13998,39 @@
         <v>687</v>
       </c>
       <c r="C4" s="54" t="s">
+        <v>688</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>689</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="E4" s="54" t="s">
         <v>690</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="F4" s="54" t="s">
+        <v>721</v>
+      </c>
+      <c r="G4" s="54" t="s">
         <v>691</v>
       </c>
-      <c r="F4" s="54" t="s">
-        <v>779</v>
-      </c>
-      <c r="G4" s="54" t="s">
+      <c r="H4" s="54" t="s">
+        <v>692</v>
+      </c>
+      <c r="I4" s="55" t="s">
         <v>693</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="J4" s="55" t="s">
         <v>694</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>695</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>696</v>
       </c>
       <c r="L4" s="56"/>
       <c r="M4" s="57"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
       <c r="P4" s="56"/>
       <c r="R4" s="56"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>544</v>
@@ -16892,30 +14039,30 @@
         <v>0</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E5" t="s">
-        <v>772</v>
+        <v>714</v>
       </c>
       <c r="F5" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="G5" s="115" t="s">
-        <v>779</v>
+      <c r="G5" s="69" t="s">
+        <v>721</v>
       </c>
       <c r="H5" s="58"/>
       <c r="I5" s="60"/>
       <c r="J5" s="56"/>
       <c r="L5" s="56"/>
       <c r="M5" s="57"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
       <c r="P5" s="56"/>
       <c r="R5" s="56"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>2</v>
@@ -16924,15 +14071,15 @@
         <v>1</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>698</v>
-      </c>
-      <c r="E6" s="115" t="s">
-        <v>773</v>
+        <v>696</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>715</v>
       </c>
       <c r="F6" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="115" t="s">
+      <c r="G6" s="69" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="58"/>
@@ -16940,14 +14087,14 @@
       <c r="J6" s="56"/>
       <c r="L6" s="56"/>
       <c r="M6" s="57"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
       <c r="P6" s="56"/>
       <c r="R6" s="56"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>543</v>
@@ -16956,94 +14103,94 @@
         <v>2</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E7" t="s">
-        <v>780</v>
+        <v>722</v>
       </c>
       <c r="F7" s="59" t="s">
         <v>572</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="69" t="s">
         <v>572</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="60"/>
-      <c r="J7" s="62"/>
+      <c r="J7" s="61"/>
       <c r="L7" s="56"/>
       <c r="M7" s="57"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
       <c r="P7" s="56"/>
       <c r="R7" s="56"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>757</v>
+        <v>699</v>
       </c>
       <c r="C8" s="58">
         <v>3</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E8" t="s">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="F8" s="59">
         <v>1970</v>
       </c>
-      <c r="G8" s="115">
+      <c r="G8" s="69">
         <v>1970</v>
       </c>
       <c r="H8" s="58"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="63"/>
+      <c r="J8" s="62"/>
       <c r="L8" s="56"/>
       <c r="M8" s="57"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
       <c r="P8" s="56"/>
       <c r="R8" s="56"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>758</v>
+        <v>700</v>
       </c>
       <c r="C9" s="58">
         <v>4</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E9" t="s">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="F9" s="59">
         <v>2019</v>
       </c>
-      <c r="G9" s="115">
+      <c r="G9" s="69">
         <v>2019</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B10" s="56" t="s">
         <v>533</v>
@@ -17052,1287 +14199,90 @@
         <v>5</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E10" t="s">
-        <v>776</v>
+        <v>718</v>
       </c>
       <c r="F10" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="69" t="s">
         <v>295</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="57"/>
-      <c r="M10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>759</v>
+        <v>701</v>
       </c>
       <c r="C11" s="58">
         <v>6</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E11" t="s">
-        <v>777</v>
+        <v>719</v>
       </c>
       <c r="F11" s="59" t="s">
         <v>596</v>
       </c>
-      <c r="G11" s="115" t="s">
+      <c r="G11" s="69" t="s">
         <v>596</v>
       </c>
       <c r="H11" s="58"/>
       <c r="I11" s="57"/>
       <c r="J11" s="57"/>
-      <c r="M11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>760</v>
+        <v>702</v>
       </c>
       <c r="C12" s="58">
         <v>7</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>778</v>
+        <v>720</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>781</v>
-      </c>
-      <c r="G12" s="115" t="s">
+        <v>723</v>
+      </c>
+      <c r="G12" s="69" t="s">
         <v>540</v>
       </c>
       <c r="H12" s="58"/>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
-      <c r="M12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="R15" s="56"/>
-    </row>
-    <row r="16" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>712</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="56"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
-        <v>714</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>715</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>688</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>690</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>692</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55" t="s">
-        <v>695</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>716</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="56"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
-        <v>717</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>718</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>719</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>701</v>
-      </c>
-      <c r="E19" s="75">
-        <f>[1]Cashflow!F18</f>
-        <v>62749.632000000005</v>
-      </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H19" s="77"/>
-      <c r="I19" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R19" s="56"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
-        <v>717</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>722</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>719</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>701</v>
-      </c>
-      <c r="E20" s="75" t="e">
-        <f>SUM([1]Cashflow!F105:AI105)/F7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H20" s="79"/>
-      <c r="I20" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R20" s="56"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
-        <v>717</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>723</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>700</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>701</v>
-      </c>
-      <c r="E21" s="81" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H21" s="82" t="s">
-        <v>724</v>
-      </c>
-      <c r="I21" s="60" t="s">
-        <v>725</v>
-      </c>
-      <c r="R21" s="56"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>727</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E22" s="83">
-        <f>-[1]Cashflow!D26/([1]Cashflow!D18*1000)</f>
-        <v>0.45649760570010744</v>
-      </c>
-      <c r="F22" s="83"/>
-      <c r="G22" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R22" s="56"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>728</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E23" s="83">
-        <f>-[1]Cashflow!D30/([1]Cashflow!D18*1000)</f>
-        <v>0.27192634955076816</v>
-      </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H23" s="84"/>
-      <c r="I23" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R23" s="56"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>729</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E24" s="83">
-        <f>-[1]Cashflow!D32/([1]Cashflow!D18*1000)</f>
-        <v>2.3999999999999994E-2</v>
-      </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H24" s="84"/>
-      <c r="I24" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R24" s="56"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>730</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E25" s="83">
-        <f>-[1]Cashflow!D31/([1]Cashflow!D18*10000)</f>
-        <v>1.4999999999999998E-3</v>
-      </c>
-      <c r="F25" s="83"/>
-      <c r="G25" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R25" s="56"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>731</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E26" s="83">
-        <f>-[1]Cashflow!D33/([1]Cashflow!D18*1000)</f>
-        <v>0.18710526315789469</v>
-      </c>
-      <c r="F26" s="83"/>
-      <c r="G26" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R26" s="56"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>732</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E27" s="83">
-        <f>-[1]Cashflow!D36/([1]Cashflow!D18*1000)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R27" s="56"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>733</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E28" s="83">
-        <f>SUM(E22:E27)</f>
-        <v>0.94102921840877019</v>
-      </c>
-      <c r="F28" s="83"/>
-      <c r="G28" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R28" s="56"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>734</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E29" s="83">
-        <f>[1]Cashflow!D46</f>
-        <v>0.15253329731673437</v>
-      </c>
-      <c r="F29" s="83"/>
-      <c r="G29" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R29" s="56"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>735</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E30" s="83">
-        <f>[1]Cashflow!D54</f>
-        <v>0.12442244245771761</v>
-      </c>
-      <c r="F30" s="83"/>
-      <c r="G30" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R30" s="56"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>736</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E31" s="83">
-        <f>[1]Cashflow!D58</f>
-        <v>0.18257248288487227</v>
-      </c>
-      <c r="F31" s="83"/>
-      <c r="G31" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H31" s="85"/>
-      <c r="I31" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="R31" s="56"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="61" t="s">
-        <v>702</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>737</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>700</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>701</v>
-      </c>
-      <c r="E32" s="81" t="e">
-        <f>1-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F32" s="81"/>
-      <c r="G32" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H32" s="86"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="87"/>
-      <c r="R32" s="56"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="61" t="s">
-        <v>702</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>738</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>700</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>701</v>
-      </c>
-      <c r="E33" s="89" t="e">
-        <f>#REF!*#REF!+E32*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F33" s="89"/>
-      <c r="G33" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H33" s="90"/>
-      <c r="I33" s="60"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="N33" s="91"/>
-      <c r="R33" s="56"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
-        <v>702</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>739</v>
-      </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E34" s="92">
-        <f>[1]Cashflow!D61</f>
-        <v>1.243020660732677</v>
-      </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H34" s="90"/>
-      <c r="I34" s="60"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="N34" s="91"/>
-      <c r="R34" s="56"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
-        <v>702</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>740</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>741</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>742</v>
-      </c>
-      <c r="E35" s="93" t="e">
-        <f>IF($E$34&gt;#REF!,"Pass","Fail")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H35" s="90"/>
-      <c r="I35" s="60"/>
-      <c r="R35" s="56"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="61" t="s">
-        <v>702</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>743</v>
-      </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E36" s="92">
-        <f>[1]Cashflow!C61</f>
-        <v>1.2810160006699154</v>
-      </c>
-      <c r="F36" s="92"/>
-      <c r="G36" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H36" s="90"/>
-      <c r="I36" s="60"/>
-      <c r="R36" s="56"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
-        <v>702</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>744</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>741</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>742</v>
-      </c>
-      <c r="E37" s="93" t="e">
-        <f>IF(E36&gt;#REF!,"Pass","Fail")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F37" s="93"/>
-      <c r="G37" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H37" s="90"/>
-      <c r="I37" s="94"/>
-      <c r="R37" s="56"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="61" t="s">
-        <v>707</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>745</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>708</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E38" s="95" t="e">
-        <f>IF(#REF!="Simple",((#REF!*3.75*#REF!*1000/1116)-#REF!)*#REF!,0)+IF(#REF!="Intermediate",(#REF!-#REF!)*(1-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F38" s="95"/>
-      <c r="G38" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H38" s="96"/>
-      <c r="I38" s="64" t="s">
-        <v>721</v>
-      </c>
-      <c r="R38" s="56"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="61" t="s">
-        <v>707</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>746</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>708</v>
-      </c>
-      <c r="D39" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E39" s="95" t="e">
-        <f>IF(#REF!="Simple",((#REF!*3.75*#REF!*1000/1116)-#REF!-$E$38),0)+IF(#REF!="Intermediate",(#REF!-#REF!)*(1-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F39" s="95"/>
-      <c r="G39" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H39" s="90"/>
-      <c r="I39" s="60" t="s">
-        <v>721</v>
-      </c>
-      <c r="R39" s="56"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="61" t="s">
-        <v>707</v>
-      </c>
-      <c r="B40" s="58" t="s">
-        <v>747</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>708</v>
-      </c>
-      <c r="D40" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E40" s="95" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F40" s="95"/>
-      <c r="G40" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H40" s="90"/>
-      <c r="I40" s="60" t="s">
-        <v>721</v>
-      </c>
-      <c r="R40" s="56"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="61" t="s">
-        <v>707</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>748</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>708</v>
-      </c>
-      <c r="D41" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E41" s="95" t="e">
-        <f>E38+E39+E40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F41" s="95"/>
-      <c r="G41" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H41" s="90"/>
-      <c r="I41" s="60" t="s">
-        <v>721</v>
-      </c>
-      <c r="R41" s="56"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="61" t="s">
-        <v>703</v>
-      </c>
-      <c r="B42" s="58" t="s">
-        <v>749</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>700</v>
-      </c>
-      <c r="D42" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E42" s="73" t="e">
-        <f>1-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H42" s="84"/>
-      <c r="I42" s="97"/>
-      <c r="R42" s="56"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="61" t="s">
-        <v>705</v>
-      </c>
-      <c r="B43" s="58" t="s">
-        <v>750</v>
-      </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58" t="s">
-        <v>701</v>
-      </c>
-      <c r="E43" s="81" t="e">
-        <f>IF(#REF!="&lt;0.45",100%,0)+IF(#REF!="0.45-&lt;1.5",50%,0)+IF(#REF!="1.5-&lt;2.5",33.4%,0)+IF(#REF!="2.5-&lt;4",20%,0)+IF(#REF!="4-&lt;6",8.4%,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F43" s="81"/>
-      <c r="G43" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H43" s="84"/>
-      <c r="I43" s="60"/>
-      <c r="R43" s="56"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="61" t="s">
-        <v>705</v>
-      </c>
-      <c r="B44" s="58" t="s">
-        <v>751</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>706</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E44" s="98" t="e">
-        <f>#REF!*E43</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F44" s="98"/>
-      <c r="G44" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H44" s="84"/>
-      <c r="I44" s="60"/>
-      <c r="R44" s="56"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="61" t="s">
-        <v>703</v>
-      </c>
-      <c r="B45" s="58" t="s">
-        <v>752</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>704</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="E45" s="99" t="e">
-        <f>#REF!*#REF!+E42*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F45" s="99"/>
-      <c r="G45" s="76" t="s">
-        <v>720</v>
-      </c>
-      <c r="H45" s="79"/>
-      <c r="I45" s="60"/>
-      <c r="R45" s="56"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D46" s="58"/>
-      <c r="R46" s="56"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R47" s="56"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="R48" s="56"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="68"/>
-      <c r="R49" s="56"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="N50" s="91"/>
-      <c r="O50" s="68"/>
-      <c r="R50" s="56"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="N51" s="91"/>
-      <c r="O51" s="68"/>
-      <c r="R51" s="56"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="56" t="s">
-        <v>753</v>
-      </c>
-      <c r="B52" s="100"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="101" t="s">
-        <v>754</v>
-      </c>
-      <c r="F52" s="101"/>
-      <c r="G52" s="102" t="s">
-        <v>755</v>
-      </c>
-      <c r="H52" s="103" t="s">
-        <v>756</v>
-      </c>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="N52" s="91"/>
-      <c r="O52" s="68"/>
-      <c r="R52" s="56"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="100"/>
-      <c r="C53" s="104">
-        <v>0.05</v>
-      </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="105">
-        <v>0.371</v>
-      </c>
-      <c r="F53" s="105"/>
-      <c r="G53" s="106">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="H53" s="107">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="68"/>
-      <c r="R53" s="56"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="100"/>
-      <c r="C54" s="108">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="105">
-        <v>0.373</v>
-      </c>
-      <c r="F54" s="105"/>
-      <c r="G54" s="109">
-        <v>0.12</v>
-      </c>
-      <c r="H54" s="107">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="68"/>
-      <c r="R54" s="56"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="100"/>
-      <c r="C55" s="110">
-        <v>0.09</v>
-      </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="111">
-        <v>0.375</v>
-      </c>
-      <c r="F55" s="111"/>
-      <c r="G55" s="106">
-        <v>0.121</v>
-      </c>
-      <c r="H55" s="112">
-        <v>0.18</v>
-      </c>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="N55" s="91"/>
-      <c r="O55" s="68"/>
-      <c r="R55" s="56"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="100"/>
-      <c r="C56" s="110">
-        <v>0.11</v>
-      </c>
-      <c r="D56" s="57"/>
-      <c r="E56" s="111">
-        <v>0.376</v>
-      </c>
-      <c r="F56" s="111"/>
-      <c r="G56" s="106">
-        <v>0.123</v>
-      </c>
-      <c r="H56" s="107">
-        <v>0.182</v>
-      </c>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="N56" s="91"/>
-      <c r="O56" s="68"/>
-      <c r="R56" s="56"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="100"/>
-      <c r="C57" s="110">
-        <v>0.13</v>
-      </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="111">
-        <v>0.378</v>
-      </c>
-      <c r="F57" s="111"/>
-      <c r="G57" s="106">
-        <v>0.124</v>
-      </c>
-      <c r="H57" s="107">
-        <v>0.183</v>
-      </c>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="68"/>
-      <c r="R57" s="56"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="100"/>
-      <c r="C58" s="110">
-        <v>0.15</v>
-      </c>
-      <c r="D58" s="57"/>
-      <c r="E58" s="113">
-        <v>0.38</v>
-      </c>
-      <c r="F58" s="113"/>
-      <c r="G58" s="106">
-        <v>0.126</v>
-      </c>
-      <c r="H58" s="107">
-        <v>0.185</v>
-      </c>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="N58" s="91"/>
-      <c r="O58" s="68"/>
-      <c r="R58" s="56"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C59" s="56"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="N59" s="91"/>
-      <c r="O59" s="68"/>
-      <c r="R59" s="56"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C60" s="56"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-      <c r="N60" s="91"/>
-      <c r="O60" s="68"/>
-      <c r="R60" s="56"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C61" s="56"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="N61" s="91"/>
-      <c r="O61" s="68"/>
-      <c r="R61" s="56"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C62" s="56"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="N62" s="91"/>
-      <c r="O62" s="68"/>
-      <c r="R62" s="56"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C63" s="56"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-      <c r="N63" s="91"/>
-      <c r="O63" s="68"/>
-      <c r="R63" s="56"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>772</v>
-      </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="N64" s="91"/>
-      <c r="O64" s="68"/>
-      <c r="R64" s="56"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="115" t="s">
-        <v>773</v>
-      </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="N65" s="91"/>
-      <c r="O65" s="68"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>780</v>
-      </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="68"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="70"/>
-      <c r="T66" s="70"/>
-      <c r="U66" s="70"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>775</v>
-      </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="N67" s="91"/>
-      <c r="O67" s="68"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>775</v>
-      </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="N68" s="91"/>
-      <c r="O68" s="68"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>776</v>
-      </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="N69" s="91"/>
-      <c r="O69" s="68"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>777</v>
-      </c>
+      <c r="M12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18344,7 +14294,7 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
@@ -18357,12 +14307,12 @@
     <col min="13" max="13" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -18374,7 +14324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -18405,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -18436,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -18467,7 +14417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -18501,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -18532,7 +14482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="20">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -18562,9 +14512,9 @@
         <f>COUNTIF(C8,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M8" s="114"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="68"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -18595,7 +14545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -18626,14 +14576,14 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>771</v>
+        <v>713</v>
       </c>
       <c r="M10" t="str">
         <f>_xlfn.TEXTJOIN(", ",TRUE,M16:M32)</f>
         <v>Asia, Europe, Africa, Oceania, North America, South America,G20, South America, Australia,G20, Asia,Europe, Asia,MENA,GCC, North America,G20, Asia,G20, Europe,G20, Asia,MENA, Asia,Europe,G20, Asia,G20,MENA,GCC, Africa,G20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -18664,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -18701,10 +14651,10 @@
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -18735,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -18769,7 +14719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -18803,10 +14753,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="53" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -18836,11 +14786,11 @@
         <f>COUNTIF(C16,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M16" s="116" t="s">
+      <c r="M16" s="70" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -18870,11 +14820,11 @@
         <f>COUNTIF(C17,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M17" s="116" t="s">
+      <c r="M17" s="70" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -18907,11 +14857,11 @@
         <f>COUNTIF(C18,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M18" s="116" t="s">
+      <c r="M18" s="70" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -18941,11 +14891,11 @@
         <f>COUNTIF(C19,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M19" s="117" t="s">
+      <c r="M19" s="71" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -18975,11 +14925,11 @@
         <f>COUNTIF(C20,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M20" s="117" t="s">
+      <c r="M20" s="71" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -19009,11 +14959,11 @@
         <f>COUNTIF(C21,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M21" s="117" t="s">
+      <c r="M21" s="71" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -19046,11 +14996,11 @@
         <f>COUNTIF(C22,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M22" s="117" t="s">
+      <c r="M22" s="71" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -19080,11 +15030,11 @@
         <f>COUNTIF(C23,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>1</v>
       </c>
-      <c r="M23" s="116" t="s">
+      <c r="M23" s="70" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -19117,11 +15067,11 @@
         <f>COUNTIF(C24,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M24" s="117" t="s">
+      <c r="M24" s="71" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -19151,11 +15101,11 @@
         <f>COUNTIF(C25,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M25" s="116" t="s">
+      <c r="M25" s="70" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -19188,11 +15138,11 @@
         <f>COUNTIF(C26,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M26" s="117" t="s">
+      <c r="M26" s="71" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -19222,11 +15172,11 @@
         <f>COUNTIF(C27,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M27" s="116" t="s">
+      <c r="M27" s="70" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -19256,11 +15206,11 @@
         <f>COUNTIF(C28,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>1</v>
       </c>
-      <c r="M28" s="116" t="s">
+      <c r="M28" s="70" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -19293,11 +15243,11 @@
         <f>COUNTIF(C29,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M29" s="116" t="s">
+      <c r="M29" s="70" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>281</v>
       </c>
@@ -19330,11 +15280,11 @@
         <f>COUNTIF(C30,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M30" s="117" t="s">
+      <c r="M30" s="71" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -19364,11 +15314,11 @@
         <f>COUNTIF(C31,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M31" s="116" t="s">
+      <c r="M31" s="70" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -19398,11 +15348,11 @@
         <f>COUNTIF(C32,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M32" s="116" t="s">
+      <c r="M32" s="70" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -19433,7 +15383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -19464,7 +15414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>172</v>
       </c>
@@ -19495,7 +15445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -19526,7 +15476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -19557,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -19588,7 +15538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -19622,7 +15572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -19653,7 +15603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>260</v>
       </c>
@@ -19684,7 +15634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -19718,7 +15668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -19749,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>271</v>
       </c>
@@ -19780,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -19814,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -19845,7 +15795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -19876,7 +15826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -19910,7 +15860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -19944,7 +15894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -19975,7 +15925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -20006,7 +15956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -20040,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -20074,7 +16024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -20105,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -20136,7 +16086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -20167,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>227</v>
       </c>
@@ -20198,7 +16148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -20229,7 +16179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -20260,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -20291,7 +16241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -20325,7 +16275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -20359,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -20393,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -20424,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -20458,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -20489,7 +16439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -20520,7 +16470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -20551,7 +16501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -20582,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>134</v>
       </c>
@@ -20614,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -20648,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -20682,7 +16632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>131</v>
       </c>
@@ -20716,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -20747,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -20778,7 +16728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -20812,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>231</v>
       </c>
@@ -20846,7 +16796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>136</v>
       </c>
@@ -20877,7 +16827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -20908,7 +16858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -20942,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -20973,7 +16923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>139</v>
       </c>
@@ -21004,7 +16954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -21035,7 +16985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>146</v>
       </c>
@@ -21066,7 +17016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>148</v>
       </c>
@@ -21097,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>147</v>
       </c>
@@ -21131,7 +17081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>142</v>
       </c>
@@ -21165,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -21199,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -21233,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>141</v>
       </c>
@@ -21264,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>144</v>
       </c>
@@ -21295,7 +17245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -21329,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>156</v>
       </c>
@@ -21363,7 +17313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -21397,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -21428,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>157</v>
       </c>
@@ -21459,7 +17409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>163</v>
       </c>
@@ -21490,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -21521,7 +17471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>158</v>
       </c>
@@ -21552,7 +17502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>162</v>
       </c>
@@ -21583,7 +17533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>160</v>
       </c>
@@ -21614,7 +17564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>161</v>
       </c>
@@ -21645,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -21676,7 +17626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>165</v>
       </c>
@@ -21707,7 +17657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>166</v>
       </c>
@@ -21741,7 +17691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>168</v>
       </c>
@@ -21772,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -21803,7 +17753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>169</v>
       </c>
@@ -21837,7 +17787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>170</v>
       </c>
@@ -21868,7 +17818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>173</v>
       </c>
@@ -21899,7 +17849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>248</v>
       </c>
@@ -21930,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>176</v>
       </c>
@@ -21961,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>171</v>
       </c>
@@ -21992,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>177</v>
       </c>
@@ -22023,7 +17973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>187</v>
       </c>
@@ -22054,7 +18004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>178</v>
       </c>
@@ -22085,7 +18035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>184</v>
       </c>
@@ -22116,7 +18066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -22147,7 +18097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -22178,7 +18128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>182</v>
       </c>
@@ -22209,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>185</v>
       </c>
@@ -22240,7 +18190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>186</v>
       </c>
@@ -22271,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>188</v>
       </c>
@@ -22302,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>195</v>
       </c>
@@ -22333,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>191</v>
       </c>
@@ -22364,7 +18314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>206</v>
       </c>
@@ -22395,7 +18345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>207</v>
       </c>
@@ -22426,7 +18376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>192</v>
       </c>
@@ -22457,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>196</v>
       </c>
@@ -22488,7 +18438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>197</v>
       </c>
@@ -22519,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>194</v>
       </c>
@@ -22553,7 +18503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>204</v>
       </c>
@@ -22587,7 +18537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>202</v>
       </c>
@@ -22618,7 +18568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>205</v>
       </c>
@@ -22649,7 +18599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>193</v>
       </c>
@@ -22683,7 +18633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>190</v>
       </c>
@@ -22714,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>200</v>
       </c>
@@ -22745,7 +18695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>199</v>
       </c>
@@ -22776,7 +18726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>203</v>
       </c>
@@ -22810,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>189</v>
       </c>
@@ -22841,7 +18791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>201</v>
       </c>
@@ -22872,7 +18822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>198</v>
       </c>
@@ -22903,7 +18853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>208</v>
       </c>
@@ -22934,7 +18884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>216</v>
       </c>
@@ -22965,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>214</v>
       </c>
@@ -22996,7 +18946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>69</v>
       </c>
@@ -23028,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>209</v>
       </c>
@@ -23059,7 +19009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>217</v>
       </c>
@@ -23090,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>212</v>
       </c>
@@ -23124,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -23155,7 +19105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -23186,7 +19136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>213</v>
       </c>
@@ -23220,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>215</v>
       </c>
@@ -23251,7 +19201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
         <v>218</v>
       </c>
@@ -23282,7 +19232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>219</v>
       </c>
@@ -23313,7 +19263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>223</v>
       </c>
@@ -23344,7 +19294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
         <v>230</v>
       </c>
@@ -23375,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
         <v>220</v>
       </c>
@@ -23409,7 +19359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>224</v>
       </c>
@@ -23440,7 +19390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
         <v>229</v>
       </c>
@@ -23474,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>221</v>
       </c>
@@ -23508,7 +19458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>222</v>
       </c>
@@ -23539,7 +19489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>225</v>
       </c>
@@ -23570,7 +19520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>228</v>
       </c>
@@ -23601,7 +19551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>226</v>
       </c>
@@ -23632,7 +19582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>232</v>
       </c>
@@ -23663,7 +19613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -23694,7 +19644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>233</v>
       </c>
@@ -23725,7 +19675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>234</v>
       </c>
@@ -23756,7 +19706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
         <v>235</v>
       </c>
@@ -23790,7 +19740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
         <v>236</v>
       </c>
@@ -23821,7 +19771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -23855,7 +19805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -23889,7 +19839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
         <v>246</v>
       </c>
@@ -23923,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>279</v>
       </c>
@@ -23957,7 +19907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
         <v>286</v>
       </c>
@@ -23988,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
         <v>250</v>
       </c>
@@ -24019,7 +19969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
         <v>237</v>
       </c>
@@ -24050,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
         <v>240</v>
       </c>
@@ -24081,7 +20031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>247</v>
       </c>
@@ -24112,7 +20062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
         <v>238</v>
       </c>
@@ -24143,7 +20093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
         <v>257</v>
       </c>
@@ -24174,7 +20124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
         <v>243</v>
       </c>
@@ -24205,7 +20155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
         <v>241</v>
       </c>
@@ -24236,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
         <v>256</v>
       </c>
@@ -24270,7 +20220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -24301,7 +20251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
         <v>253</v>
       </c>
@@ -24332,7 +20282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
         <v>242</v>
       </c>
@@ -24363,7 +20313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
         <v>245</v>
       </c>
@@ -24394,7 +20344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
         <v>289</v>
       </c>
@@ -24425,7 +20375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
         <v>249</v>
       </c>
@@ -24456,7 +20406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
         <v>277</v>
       </c>
@@ -24490,7 +20440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>127</v>
       </c>
@@ -24521,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>183</v>
       </c>
@@ -24552,7 +20502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>239</v>
       </c>
@@ -24583,7 +20533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>251</v>
       </c>
@@ -24617,7 +20567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>255</v>
       </c>
@@ -24648,7 +20598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>254</v>
       </c>
@@ -24679,7 +20629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>99</v>
       </c>
@@ -24710,7 +20660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>258</v>
       </c>
@@ -24741,7 +20691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>263</v>
       </c>
@@ -24772,7 +20722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>272</v>
       </c>
@@ -24803,7 +20753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>262</v>
       </c>
@@ -24834,7 +20784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>266</v>
       </c>
@@ -24865,7 +20815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>261</v>
       </c>
@@ -24896,7 +20846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>264</v>
       </c>
@@ -24930,7 +20880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>267</v>
       </c>
@@ -24964,7 +20914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>268</v>
       </c>
@@ -24998,7 +20948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>269</v>
       </c>
@@ -25029,7 +20979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>270</v>
       </c>
@@ -25060,7 +21010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>265</v>
       </c>
@@ -25091,7 +21041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
         <v>259</v>
       </c>
@@ -25125,7 +21075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>273</v>
       </c>
@@ -25156,7 +21106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
         <v>274</v>
       </c>
@@ -25187,7 +21137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>70</v>
       </c>
@@ -25218,7 +21168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>137</v>
       </c>
@@ -25249,7 +21199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>276</v>
       </c>
@@ -25280,7 +21230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
         <v>282</v>
       </c>
@@ -25314,7 +21264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>275</v>
       </c>
@@ -25348,7 +21298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>278</v>
       </c>
@@ -25379,7 +21329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
         <v>284</v>
       </c>
@@ -25413,7 +21363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>280</v>
       </c>
@@ -25447,7 +21397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>283</v>
       </c>
@@ -25478,7 +21428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>285</v>
       </c>
@@ -25512,7 +21462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>126</v>
       </c>
@@ -25543,7 +21493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
         <v>287</v>
       </c>
@@ -25574,7 +21524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
         <v>288</v>
       </c>
@@ -25605,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>290</v>
       </c>
@@ -25636,7 +21586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>291</v>
       </c>
@@ -25685,100 +21635,100 @@
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="47" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="47" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="47" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="47" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="47" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="47" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="47" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="47" t="s">
         <v>583</v>
       </c>
       <c r="E14" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="47" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="47" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="47" t="s">
         <v>592</v>
       </c>
@@ -25799,54 +21749,54 @@
       <selection activeCell="H26" sqref="H26:H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>2011</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -25855,229 +21805,229 @@
         <v>2019, 2018, 2017, 2016, 2015, 2014, 2013, 2012, 2011, 2010, 2009, 2008, 2007, 2006, 2005, 2004, 2003, 2002, 2001, 2000, 1999, 1998, 1997, 1996, 1995, 1994, 1993, 1992, 1991, 1990, 1989, 1988, 1987, 1986, 1985, 1984, 1983, 1982, 1981, 1980, 1979, 1978, 1977, 1976, 1975, 1974, 1973, 1972, 1971, 1970</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2006</v>
       </c>
       <c r="D14" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2005</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2003</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1998</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1997</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1996</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1995</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1994</v>
       </c>
       <c r="H26" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>1993</v>
       </c>
-      <c r="H27" s="115" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="69" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>1992</v>
       </c>
       <c r="H28" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>1991</v>
       </c>
       <c r="H29" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>1990</v>
       </c>
       <c r="H30" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>1989</v>
       </c>
       <c r="H31" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>1988</v>
       </c>
       <c r="H32" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>1987</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>1986</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1985</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1984</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1983</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>1982</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>1981</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>1980</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>1979</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>1978</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>1977</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>1976</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>1975</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>1974</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>1973</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>1972</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>1971</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>1970</v>
       </c>

--- a/backend/models/model-file-camp-sankey.xlsx
+++ b/backend/models/model-file-camp-sankey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bashaalfoghom/Documents/KAPSARC_Projects/CAMP_Project/backend/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CAMP-Project\CAMP-Project\backend\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBD888C-689F-0240-AA07-29CF60EC8995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EC0AFF-E9BC-4184-97CD-DE07FEEE52E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_techniques" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
     <sheet name="Years" sheetId="3" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Country!$F$2:$F$229</definedName>
   </definedNames>
@@ -30,8 +27,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="726">
   <si>
     <t>Sector</t>
   </si>
@@ -1854,270 +1854,9 @@
     <t>Sum</t>
   </si>
   <si>
-    <t>Technology Electricity Public</t>
-  </si>
-  <si>
-    <t>Subsector Power and Heat</t>
-  </si>
-  <si>
-    <t>Sector Energy production</t>
-  </si>
-  <si>
-    <t>Technology Heat Production</t>
-  </si>
-  <si>
-    <t>Technology Electricity Autoproducer</t>
-  </si>
-  <si>
-    <t>Subsector Industrial Combustion</t>
-  </si>
-  <si>
-    <t>Technology Other Transformation</t>
-  </si>
-  <si>
-    <t>Technology Fugitive Solid Fuels</t>
-  </si>
-  <si>
-    <t>Subsector Fugitive Energy Emissions</t>
-  </si>
-  <si>
-    <t>Technology Fugitive Petr</t>
-  </si>
-  <si>
-    <t>Technology Fugitive NG Distr</t>
-  </si>
-  <si>
-    <t>Technology Fugitive NG Prod</t>
-  </si>
-  <si>
-    <t>Technology Fugitive Other Energy</t>
-  </si>
-  <si>
-    <t>Technology Fossil Fuel Fires</t>
-  </si>
-  <si>
-    <t>Subsector Fosil Fuel Files</t>
-  </si>
-  <si>
-    <t>Technology Commercial Institutional</t>
-  </si>
-  <si>
-    <t>Subsector Commercial</t>
-  </si>
-  <si>
-    <t>Sector residential, commercial, other</t>
-  </si>
-  <si>
-    <t>Technology Residential</t>
-  </si>
-  <si>
-    <t>Subsector Residential</t>
-  </si>
-  <si>
-    <t>Technology Agriculture Forestry Fishing</t>
-  </si>
-  <si>
-    <t>Subsector Agriculture/Forestry</t>
-  </si>
-  <si>
-    <t>Technology Other Unspecified</t>
-  </si>
-  <si>
-    <t>Subsector Other Unspecified</t>
-  </si>
-  <si>
-    <t>Technology International Aviation</t>
-  </si>
-  <si>
-    <t>Subsector Aviation</t>
-  </si>
-  <si>
-    <t>Sector Transportation</t>
-  </si>
-  <si>
-    <t>Technology Domestic Aviation</t>
-  </si>
-  <si>
-    <t>Technology Road</t>
-  </si>
-  <si>
-    <t>Subsector Road</t>
-  </si>
-  <si>
     <t>You can change Global Warming Potential (GWP) in the following table columns GWP_100yr_SAR, GWP_100yr_AR4, GWP_100yr_AR5</t>
   </si>
   <si>
-    <t>Technology International Shipping</t>
-  </si>
-  <si>
-    <t>Subsector International Shipping</t>
-  </si>
-  <si>
-    <t>Technology Oil Tanker Loading</t>
-  </si>
-  <si>
-    <t>Technology Rail</t>
-  </si>
-  <si>
-    <t>Subsector Other Surface Transport</t>
-  </si>
-  <si>
-    <t>Technology Domestic Navigation</t>
-  </si>
-  <si>
-    <t>Technology Other Transp</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Iron steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subsector Industrial Combustion </t>
-  </si>
-  <si>
-    <t>Sector Industry</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Non Ferrous Metals</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Chemicals</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Pulp Paper</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Food Tobacco</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Non Metalic Minerals</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Construction</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Machinery</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Mining Quarying</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Other</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Textile Leather</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Transpequip</t>
-  </si>
-  <si>
-    <t>Technology Ind Comb Wood Products</t>
-  </si>
-  <si>
-    <t>Technology Cement Production</t>
-  </si>
-  <si>
-    <t>Subsector Minerals</t>
-  </si>
-  <si>
-    <t>Technology Lime Production</t>
-  </si>
-  <si>
-    <t>Technology Other Minerals</t>
-  </si>
-  <si>
-    <t>Technology Chemical Industry</t>
-  </si>
-  <si>
-    <t>Subsector Chemical Industry</t>
-  </si>
-  <si>
-    <t>Technology Chemicals Nitric Acid</t>
-  </si>
-  <si>
-    <t>Technology Chemicals Adipic Acid</t>
-  </si>
-  <si>
-    <t>Technology Metal Production</t>
-  </si>
-  <si>
-    <t>Subsector Metals Industry</t>
-  </si>
-  <si>
-    <t>Technology Chemical Products Manufacture Processing</t>
-  </si>
-  <si>
-    <t>Subsector Solvents</t>
-  </si>
-  <si>
-    <t>Technology Degreasing Cleaning</t>
-  </si>
-  <si>
-    <t>Technology Other Product Use</t>
-  </si>
-  <si>
-    <t>Technology Paint Application</t>
-  </si>
-  <si>
-    <t>Technology Pulp and Paper Food Beverage Wood</t>
-  </si>
-  <si>
-    <t>Subsector Pulp and Paper Food Beverage Wood</t>
-  </si>
-  <si>
-    <t>Technology Other Process Emissions</t>
-  </si>
-  <si>
-    <t>Subsector Other Non Combustion</t>
-  </si>
-  <si>
-    <t>Technology Manure Management</t>
-  </si>
-  <si>
-    <t>Subsector Agriculture Non Combustion</t>
-  </si>
-  <si>
-    <t>Sector Agriculture</t>
-  </si>
-  <si>
-    <t>Technology Rice Cultivation</t>
-  </si>
-  <si>
-    <t>Technology Soil Emissions</t>
-  </si>
-  <si>
-    <t>Technology Enteric Fermentation</t>
-  </si>
-  <si>
-    <t>Technology Agriculture Other</t>
-  </si>
-  <si>
-    <t>Technology Indirect N2O Non Agricultural N</t>
-  </si>
-  <si>
-    <t>Technology Solid Waste Disposal</t>
-  </si>
-  <si>
-    <t>Subsector Waste</t>
-  </si>
-  <si>
-    <t>Sector Waste</t>
-  </si>
-  <si>
-    <t>Technology Waste Combustion</t>
-  </si>
-  <si>
-    <t>Technology Wastewater Handling</t>
-  </si>
-  <si>
-    <t>Technology Other Waste Handling</t>
-  </si>
-  <si>
-    <t>Technology Other In Total</t>
-  </si>
-  <si>
-    <t>Technology Other Not In Total</t>
-  </si>
-  <si>
     <t>MODEL INPUTS</t>
   </si>
   <si>
@@ -2139,9 +1878,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>errormsg</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -2166,9 +1902,6 @@
     <t>Year to</t>
   </si>
   <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>diagnostic run</t>
   </si>
   <si>
@@ -2190,9 +1923,6 @@
     <t>GWP_100yr_SAR, GWP_100yr_AR4, GWP_100yr_AR5</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Sum, Average</t>
   </si>
   <si>
@@ -2208,9 +1938,6 @@
     <t>[ "GHGs", "CO2", "CH4", "N2O", "BC", "CO", "NH3", "NMVOC", "Nox", "OC", "SO2" ]</t>
   </si>
   <si>
-    <t>[ "Global", "Afghanistan", "Albania", "Algeria", "American Samoa", "Angola", "Antigua and Barbuda", "Argentina", "Armenia", "Aruba", "Australia", "Austria", "Azerbaijan", "Bahamas", "Bahrain", "Bangladesh", "Barbados", "Belarus", "Belgium", "Belgium-Luxembourg", "Belize", "Benin", "Bermuda", "Bhutan", "Bolivia", "Bosnia and Herzegovina", "Botswana", "Brazil", "British Virgin Islands", "Brunei Darussalam", "Bulgaria", "Burkina Faso", "Burundi", "Cambodia", "Cameroon", "Canada", "Cape Verde", "Cayman Islands", "Central African Republic", "Chad", "Chile", "China", "Chinese Taipei", "Colombia", "Comoros", "Congo", "Cook Islands", "Costa Rica", "Cote dIvoire", "Croatia", "Cuba", "Curacao", "Cyprus", "Czech Republic", "Czechoslovakia", "Democratic Peoples Republic of Korea", "Democratic Republic of Congo", "Denmark", "Djibouti", "Dominica", "Dominican Republic", "Ecuador", "Egypt", "El Salvador", "Equatorial Guinea", "Eritrea", "Estonia", "Ethiopia", "Faeroe Islands", "Falkland Islands", "Federated States of Micronesia", "Fiji", "Finland", "France", "French Guiana", "French Polynesia", "Gabon", "Gambia", "Georgia", "Germany", "Ghana", "Gibraltar", "Greece", "Greenland", "Grenada", "Guadeloupe", "Guam", "Guatemala", "Guinea", "Guinea-Bissau", "Guyana", "Haiti", "Honduras", "Hong Kong", "China", "Hungary", "Iceland", "India", "Indonesia", "Iraq", "Ireland", "Islamic Republic of Iran", "Israel", "Italy", "Jamaica", "Japan", "Jordan", "Kazakhstan", "Kenya", "Kiribati", "Kosovo", "Kuwait", "Kyrgyzstan", "Laos", "Latvia", "Lebanon", "Lesotho", "Liberia", "Libya", "Liechtenstein", "Lithuania", "Luxembourg", "Macao", "Macedonia", "Madagascar", "Malawi", "Malaysia", "Maldives", "Mali", "Malta", "Marshall Islands", "Martinique", "Mauritania", "Mauritius", "Mexico", "Moldova", "Mongolia", "Montenegro", "Montserrat", "Morocco", "Mozambique", "Myanmar (Burma)", "Namibia", "Nepal", "Netherlands", "Netherlands Antilles", "New Caledonia", "New Zealand", "Nicaragua", "Niger", "Nigeria", "Niue", "Norway", "Oman","Pakistan", "Palau", "Palestine", "Panama", "Papua New Guinea", "Paraguay", "Peru", "Philippines", "Poland", "Portugal", "Puerto Rico", "Qatar", "Republic of Korea", "Reunion", "Romania", "Russia", "Rwanda", "Saint Kitts and Nevis", "Saint Lucia", "Saint Pierre and Miquelon", "Saint Vincent And Grenadines", "Samoa", "Sao Tome and Principe", "Saudi Arabia", "Senegal", "Serbia", "Serbia and Montenegro", "Seychelles", "Sierra Leone", "Singapore", "Sint Maarten", "Slovakia", "Slovenia", "Soloman Islands", "Somalia", "South Africa", "South Sudan", "Soviet Union", "Spain", "Sri Lanka", "Sudan", "Suriname", "Swaziland", "Sweden", "Switzerland", "Syria", "Tajikistan", "Tanzania", "Thailand", "Timor-Leste", "Togo", "Tokelau", "Tonga", "Trinidad and Tobago", "Tunisia", "Turkey", "Turkmenistan", "Turks and Caicos Islands", "Uganda", "Ukraine", "United Arab Emirates", "United Kingdom", "United States", "United States Virgin Islands", "Uruguay", "Uzbekistan", "Vanuatu", "Venezuela", "Vietnam", "Wallis and Futuna Islands", "Western Sahara", "Yemen", "Yugoslavia", "Zambia", "Zimbabwe" ]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -2229,10 +1956,289 @@
     <t>GHGs</t>
   </si>
   <si>
-    <t>[ "Asia", "Europe", "Africa", "Oceania", "North America", "South America", "G20", "South America", "Australia", "G20", "Asia", "Europe", "Asia", "MENA", "GCC", "North America", "G20", "Asia", "G20", "Europe", "G20", "Asia", "MENA", "Asia", "Europe", "G20", "Asia", "G20", "MENA", "GCC", "Africa", "G20" ]</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>[ "Region", "Asia", "Europe", "Africa", "Oceania", "North America", "South America", "G20", "South America", "Australia", "G20", "Asia", "Europe", "Asia", "MENA", "GCC", "North America", "G20", "Asia", "G20", "Europe", "G20", "Asia", "MENA", "Asia", "Europe", "G20", "Asia", "G20", "MENA", "GCC", "Africa", "G20" ]</t>
+  </si>
+  <si>
+    <t>[ "Country", "Global", "Afghanistan", "Albania", "Algeria", "American Samoa", "Angola", "Antigua and Barbuda", "Argentina", "Armenia", "Aruba", "Australia", "Austria", "Azerbaijan", "Bahamas", "Bahrain", "Bangladesh", "Barbados", "Belarus", "Belgium", "Belgium-Luxembourg", "Belize", "Benin", "Bermuda", "Bhutan", "Bolivia", "Bosnia and Herzegovina", "Botswana", "Brazil", "British Virgin Islands", "Brunei Darussalam", "Bulgaria", "Burkina Faso", "Burundi", "Cambodia", "Cameroon", "Canada", "Cape Verde", "Cayman Islands", "Central African Republic", "Chad", "Chile", "China", "Chinese Taipei", "Colombia", "Comoros", "Congo", "Cook Islands", "Costa Rica", "Cote dIvoire", "Croatia", "Cuba", "Curacao", "Cyprus", "Czech Republic", "Czechoslovakia", "Democratic Peoples Republic of Korea", "Democratic Republic of Congo", "Denmark", "Djibouti", "Dominica", "Dominican Republic", "Ecuador", "Egypt", "El Salvador", "Equatorial Guinea", "Eritrea", "Estonia", "Ethiopia", "Faeroe Islands", "Falkland Islands", "Federated States of Micronesia", "Fiji", "Finland", "France", "French Guiana", "French Polynesia", "Gabon", "Gambia", "Georgia", "Germany", "Ghana", "Gibraltar", "Greece", "Greenland", "Grenada", "Guadeloupe", "Guam", "Guatemala", "Guinea", "Guinea-Bissau", "Guyana", "Haiti", "Honduras", "Hong Kong", "China", "Hungary", "Iceland", "India", "Indonesia", "Iraq", "Ireland", "Islamic Republic of Iran", "Israel", "Italy", "Jamaica", "Japan", "Jordan", "Kazakhstan", "Kenya", "Kiribati", "Kosovo", "Kuwait", "Kyrgyzstan", "Laos", "Latvia", "Lebanon", "Lesotho", "Liberia", "Libya", "Liechtenstein", "Lithuania", "Luxembourg", "Macao", "Macedonia", "Madagascar", "Malawi", "Malaysia", "Maldives", "Mali", "Malta", "Marshall Islands", "Martinique", "Mauritania", "Mauritius", "Mexico", "Moldova", "Mongolia", "Montenegro", "Montserrat", "Morocco", "Mozambique", "Myanmar (Burma)", "Namibia", "Nepal", "Netherlands", "Netherlands Antilles", "New Caledonia", "New Zealand", "Nicaragua", "Niger", "Nigeria", "Niue", "Norway", "Oman","Pakistan", "Palau", "Palestine", "Panama", "Papua New Guinea", "Paraguay", "Peru", "Philippines", "Poland", "Portugal", "Puerto Rico", "Qatar", "Republic of Korea", "Reunion", "Romania", "Russia", "Rwanda", "Saint Kitts and Nevis", "Saint Lucia", "Saint Pierre and Miquelon", "Saint Vincent And Grenadines", "Samoa", "Sao Tome and Principe", "Saudi Arabia", "Senegal", "Serbia", "Serbia and Montenegro", "Seychelles", "Sierra Leone", "Singapore", "Sint Maarten", "Slovakia", "Slovenia", "Soloman Islands", "Somalia", "South Africa", "South Sudan", "Soviet Union", "Spain", "Sri Lanka", "Sudan", "Suriname", "Swaziland", "Sweden", "Switzerland", "Syria", "Tajikistan", "Tanzania", "Thailand", "Timor-Leste", "Togo", "Tokelau", "Tonga", "Trinidad and Tobago", "Tunisia", "Turkey", "Turkmenistan", "Turks and Caicos Islands", "Uganda", "Ukraine", "United Arab Emirates", "United Kingdom", "United States", "United States Virgin Islands", "Uruguay", "Uzbekistan", "Vanuatu", "Venezuela", "Vietnam", "Wallis and Futuna Islands", "Western Sahara", "Yemen", "Yugoslavia", "Zambia", "Zimbabwe" ]</t>
+  </si>
+  <si>
+    <t>country code</t>
+  </si>
+  <si>
+    <t>Result for</t>
+  </si>
+  <si>
+    <t>Sectors</t>
+  </si>
+  <si>
+    <t>results as</t>
+  </si>
+  <si>
+    <t>results for</t>
+  </si>
+  <si>
+    <t>[ "Sectors", "Sectors Subsectors" ,"Sectors Subsectors Technologies"]</t>
+  </si>
+  <si>
+    <t>Waste sector</t>
+  </si>
+  <si>
+    <t>Agriculture sector</t>
+  </si>
+  <si>
+    <t>Industry sector</t>
+  </si>
+  <si>
+    <t>Energy production sector</t>
+  </si>
+  <si>
+    <t>Transportation sector</t>
+  </si>
+  <si>
+    <t>Residential, commercial, other sector</t>
+  </si>
+  <si>
+    <t>Power and Heat subsector</t>
+  </si>
+  <si>
+    <t>Industrial Combustion subsector</t>
+  </si>
+  <si>
+    <t>Fugitive Energy Emissions subsector</t>
+  </si>
+  <si>
+    <t>Fosil Fuel Files subsector</t>
+  </si>
+  <si>
+    <t>Waste subsector</t>
+  </si>
+  <si>
+    <t>Solvents subsector</t>
+  </si>
+  <si>
+    <t>Pulp and Paper Food Beverage Wood subsector</t>
+  </si>
+  <si>
+    <t>Other Non Combustion subsector</t>
+  </si>
+  <si>
+    <t>Agriculture Non Combustion subsector</t>
+  </si>
+  <si>
+    <t>Metals Industry subsector</t>
+  </si>
+  <si>
+    <t>Chemical Industry subsector</t>
+  </si>
+  <si>
+    <t>Minerals subsector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial Combustion subsector </t>
+  </si>
+  <si>
+    <t>International Shipping subsector</t>
+  </si>
+  <si>
+    <t>Other Surface Transport subsector</t>
+  </si>
+  <si>
+    <t>Commercial subsector</t>
+  </si>
+  <si>
+    <t>Residential subsector</t>
+  </si>
+  <si>
+    <t>Agriculture/Forestry subsector</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other Unspecified subsector</t>
+  </si>
+  <si>
+    <t>Aviation subsector</t>
+  </si>
+  <si>
+    <t>Road subsector</t>
+  </si>
+  <si>
+    <t>Electricity Public technology</t>
+  </si>
+  <si>
+    <t>Heat Production technology</t>
+  </si>
+  <si>
+    <t>Electricity Autoproducer technology</t>
+  </si>
+  <si>
+    <t>Other Transformation technology</t>
+  </si>
+  <si>
+    <t>Fugitive Solid Fuels technology</t>
+  </si>
+  <si>
+    <t>Fugitive Petr technology</t>
+  </si>
+  <si>
+    <t>Fugitive NG Distr technology</t>
+  </si>
+  <si>
+    <t>Fugitive NG Prod technology</t>
+  </si>
+  <si>
+    <t>Fugitive Other Energy technology</t>
+  </si>
+  <si>
+    <t>Fossil Fuel Fires technology</t>
+  </si>
+  <si>
+    <t>Commercial Institutional technology</t>
+  </si>
+  <si>
+    <t>Residential technology</t>
+  </si>
+  <si>
+    <t>Agriculture Forestry Fishing technology</t>
+  </si>
+  <si>
+    <t>Other Unspecified technology</t>
+  </si>
+  <si>
+    <t>International Aviation technology</t>
+  </si>
+  <si>
+    <t>Domestic Aviation technology</t>
+  </si>
+  <si>
+    <t>Road technology</t>
+  </si>
+  <si>
+    <t>International Shipping technology</t>
+  </si>
+  <si>
+    <t>Oil Tanker Loading technology</t>
+  </si>
+  <si>
+    <t>Rail technology</t>
+  </si>
+  <si>
+    <t>Domestic Navigation technology</t>
+  </si>
+  <si>
+    <t>Other Transp technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Iron steel technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Non Ferrous Metals technology</t>
+  </si>
+  <si>
+    <t>Other Not In Total technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Chemicals technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Pulp Paper technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Food Tobacco technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Non Metalic Minerals technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Construction technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Machinery technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Mining Quarying technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Other technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Textile Leather technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Transpequip technology</t>
+  </si>
+  <si>
+    <t>Ind Comb Wood Products technology</t>
+  </si>
+  <si>
+    <t>Cement Production technology</t>
+  </si>
+  <si>
+    <t>Lime Production technology</t>
+  </si>
+  <si>
+    <t>Other Minerals technology</t>
+  </si>
+  <si>
+    <t>Chemical Industry technology</t>
+  </si>
+  <si>
+    <t>Chemicals Nitric Acid technology</t>
+  </si>
+  <si>
+    <t>Chemicals Adipic Acid technology</t>
+  </si>
+  <si>
+    <t>Metal Production technology</t>
+  </si>
+  <si>
+    <t>Chemical Products Manufacture Processing technology</t>
+  </si>
+  <si>
+    <t>Degreasing Cleaning technology</t>
+  </si>
+  <si>
+    <t>Other Product Use technology</t>
+  </si>
+  <si>
+    <t>Paint Application technology</t>
+  </si>
+  <si>
+    <t>Pulp and Paper Food Beverage Wood technology</t>
+  </si>
+  <si>
+    <t>Other Process Emissions technology</t>
+  </si>
+  <si>
+    <t>Manure Management technology</t>
+  </si>
+  <si>
+    <t>Rice Cultivation technology</t>
+  </si>
+  <si>
+    <t>Soil Emissions technology</t>
+  </si>
+  <si>
+    <t>Enteric Fermentation technology</t>
+  </si>
+  <si>
+    <t>Agriculture Other technology</t>
+  </si>
+  <si>
+    <t>Indirect N2O Non Agricultural N technology</t>
+  </si>
+  <si>
+    <t>Solid Waste Disposal technology</t>
+  </si>
+  <si>
+    <t>Waste Combustion technology</t>
+  </si>
+  <si>
+    <t>Wastewater Handling technology</t>
+  </si>
+  <si>
+    <t>Other Waste Handling technology</t>
+  </si>
+  <si>
+    <t>Other In Total technology</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2686,6 +2692,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3037,7 +3049,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -3104,9 +3116,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
@@ -3142,6 +3151,12 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3236,274 +3251,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Outline"/>
-      <sheetName val="Input"/>
-      <sheetName val="app"/>
-      <sheetName val="Cashflow"/>
-      <sheetName val="Annual Cash Flows &amp; Returns"/>
-      <sheetName val="DebtSch"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="105">
-          <cell r="T105" t="str">
-            <v>Project IRR (with PTC)</v>
-          </cell>
-          <cell r="U105" t="str">
-            <v>Project IRR (w/O PTC)</v>
-          </cell>
-          <cell r="V105" t="str">
-            <v>Project IRR (with ITC)</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="N106">
-            <v>0.05</v>
-          </cell>
-          <cell r="T106">
-            <v>0.371</v>
-          </cell>
-          <cell r="U106">
-            <v>0.11799999999999999</v>
-          </cell>
-          <cell r="V106">
-            <v>0.17599999999999999</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="N107">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="T107">
-            <v>0.373</v>
-          </cell>
-          <cell r="U107">
-            <v>0.12</v>
-          </cell>
-          <cell r="V107">
-            <v>0.17799999999999999</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="N108">
-            <v>0.09</v>
-          </cell>
-          <cell r="T108">
-            <v>0.375</v>
-          </cell>
-          <cell r="U108">
-            <v>0.121</v>
-          </cell>
-          <cell r="V108">
-            <v>0.18</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="N109">
-            <v>0.11</v>
-          </cell>
-          <cell r="T109">
-            <v>0.376</v>
-          </cell>
-          <cell r="U109">
-            <v>0.123</v>
-          </cell>
-          <cell r="V109">
-            <v>0.182</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="N110">
-            <v>0.13</v>
-          </cell>
-          <cell r="T110">
-            <v>0.378</v>
-          </cell>
-          <cell r="U110">
-            <v>0.124</v>
-          </cell>
-          <cell r="V110">
-            <v>0.183</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="N111">
-            <v>0.15</v>
-          </cell>
-          <cell r="T111">
-            <v>0.38</v>
-          </cell>
-          <cell r="U111">
-            <v>0.126</v>
-          </cell>
-          <cell r="V111">
-            <v>0.185</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="18">
-          <cell r="D18">
-            <v>620220.62732990342</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="6">
-          <cell r="M6" t="str">
-            <v>Cummulative Cash Flow</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="M7" t="str">
-            <v>$</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="M8">
-            <v>-305779569.8924731</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="M9">
-            <v>-255808067.28584039</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="M10">
-            <v>-206122114.9859466</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="M11">
-            <v>-156727423.99892649</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="M12">
-            <v>-107729705.16825075</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="M13">
-            <v>-59037012.319833085</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="M14">
-            <v>-21855406.48551318</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="M15">
-            <v>14217399.973697238</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="M16">
-            <v>49068978.819861226</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="M17">
-            <v>82573822.980230913</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="M18">
-            <v>114591785.33814505</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="M19">
-            <v>144966330.34385571</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="M20">
-            <v>175113129.01641405</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="M21">
-            <v>205027626.42915702</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="M22">
-            <v>234705176.55688834</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="M23">
-            <v>264141040.45390776</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="M24">
-            <v>293330384.39560103</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="M25">
-            <v>322268277.98286164</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="M26">
-            <v>350949692.20860094</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="M27">
-            <v>379369497.48558849</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="M28">
-            <v>407522461.63484925</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="M29">
-            <v>435403247.83382869</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="M30">
-            <v>463006412.52352118</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="M31">
-            <v>490326403.27374101</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="M32">
-            <v>517357556.6056987</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="M33">
-            <v>544094095.771029</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3815,26 +3562,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP213"/>
   <sheetViews>
-    <sheetView topLeftCell="H2" zoomScale="125" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" customWidth="1"/>
-    <col min="14" max="15" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" customWidth="1"/>
+    <col min="14" max="15" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16" thickBot="1">
+    <row r="1" spans="1:42" ht="15" thickBot="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3927,12 +3674,12 @@
     <row r="3" spans="1:42" ht="14.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="75" t="s">
         <v>542</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
@@ -4014,7 +3761,7 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
     </row>
-    <row r="5" spans="1:42" ht="16" thickBot="1">
+    <row r="5" spans="1:42" ht="15" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="17"/>
       <c r="C5" s="32" t="s">
@@ -4031,19 +3778,19 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="78" t="s">
         <v>535</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="20"/>
       <c r="U5" s="23"/>
       <c r="V5" s="2"/>
@@ -4075,13 +3822,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>599</v>
+        <v>645</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>642</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="19"/>
@@ -4120,20 +3867,20 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
     </row>
-    <row r="7" spans="1:42" ht="16" thickBot="1">
+    <row r="7" spans="1:42" ht="15" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="17"/>
       <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>599</v>
+        <v>645</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>642</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="2"/>
@@ -4172,20 +3919,20 @@
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
     </row>
-    <row r="8" spans="1:42" ht="16" thickBot="1">
+    <row r="8" spans="1:42" ht="15" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="17"/>
       <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>601</v>
+        <v>668</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>602</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>599</v>
+        <v>646</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>642</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="2"/>
@@ -4195,18 +3942,24 @@
       <c r="J8" s="3"/>
       <c r="K8" s="38" t="str">
         <f>app!F5</f>
-        <v>CO2</v>
+        <v>GHGs</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="N8" s="43" t="s">
-        <v>709</v>
+      <c r="N8" s="43" t="str">
+        <f>app!F11</f>
+        <v>Sum</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="P8" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q8" s="43" t="str">
+        <f>app!F12</f>
+        <v>Sectors</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="20"/>
@@ -4240,13 +3993,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>603</v>
+        <v>669</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>602</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>599</v>
+        <v>646</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>642</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="2"/>
@@ -4292,13 +4045,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>604</v>
+        <v>670</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>599</v>
+        <v>647</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>642</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19"/>
@@ -4337,20 +4090,20 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="1:42" ht="16" thickBot="1">
+    <row r="11" spans="1:42" ht="15" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="17"/>
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>606</v>
+        <v>671</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>599</v>
+        <v>647</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>642</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="2"/>
@@ -4389,20 +4142,20 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:42" ht="17" thickBot="1">
+    <row r="12" spans="1:42" ht="16" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="17"/>
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>607</v>
+        <v>672</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>599</v>
+        <v>647</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>642</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="2"/>
@@ -4412,14 +4165,15 @@
       <c r="J12" s="3"/>
       <c r="K12" s="39" t="str">
         <f>app!F6</f>
-        <v>Albania</v>
+        <v>Global</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="N12" s="42" t="s">
-        <v>565</v>
+      <c r="N12" s="42" t="str">
+        <f>app!F7</f>
+        <v>Region</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -4450,20 +4204,20 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42" ht="16" thickBot="1">
+    <row r="13" spans="1:42" ht="15" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="17"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>608</v>
+        <v>673</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>599</v>
+        <v>647</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>642</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="2"/>
@@ -4502,34 +4256,34 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:42" ht="16" thickBot="1">
+    <row r="14" spans="1:42" ht="15" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="17"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>609</v>
+        <v>674</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>599</v>
+        <v>647</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>642</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="2"/>
       <c r="I14" s="35"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="44" t="str">
-        <f>INDEX(Country!B:B,MATCH(K12,Country!A:A,0))</f>
-        <v>alb</v>
+      <c r="K14" s="73" t="str">
+        <f>app!H6</f>
+        <v>global</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="50" t="str" cm="1">
-        <f t="array" ref="N14">_xlfn.TEXTJOIN(",",TRUE,IF(Country!J:J=TRUE,Country!B:B,""))</f>
-        <v>dza,ago,ben,bwa,bfa,bdi,cmr,cpv,caf,tcd,com,cog,civ,cod,dji,egy,gnq,eri,eth,gab,gmb,gha,gin,gnb,ken,lso,lbr,lby,mdg,mwi,mli,mrt,mus,mar,moz,nam,ner,nga,reu,rwa,stp,sen,syc,sle,som,zaf,ssd,sdn,swz,tza,tgo,tun,uga,esh,zmb,zwe</v>
+      <c r="M14" s="44"/>
+      <c r="N14" s="49" t="str">
+        <f>app!H7</f>
+        <v/>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -4567,13 +4321,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>610</v>
+        <v>675</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>599</v>
+        <v>648</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>642</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="2"/>
@@ -4582,7 +4336,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="46"/>
+      <c r="N15" s="45"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -4619,13 +4373,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>612</v>
+        <v>676</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>613</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>614</v>
+        <v>660</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>644</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="19"/>
@@ -4664,20 +4418,20 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42" ht="16" thickBot="1">
+    <row r="17" spans="1:42" ht="15" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="17"/>
       <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>615</v>
+        <v>677</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>616</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>614</v>
+        <v>661</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>644</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="2"/>
@@ -4720,20 +4474,20 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42" ht="16" thickBot="1">
+    <row r="18" spans="1:42" ht="15" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="17"/>
       <c r="C18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>617</v>
+        <v>678</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>618</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>614</v>
+        <v>662</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>644</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="2"/>
@@ -4742,10 +4496,12 @@
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="38">
-        <v>2000</v>
+        <f>app!F8</f>
+        <v>2018</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="38">
+        <f>app!F9</f>
         <v>2019</v>
       </c>
       <c r="N18" s="2"/>
@@ -4785,13 +4541,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>614</v>
+        <v>663</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>644</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="6"/>
@@ -4837,13 +4593,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>621</v>
+        <v>680</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="19"/>
@@ -4889,13 +4645,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>624</v>
+        <v>681</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="6"/>
@@ -4903,10 +4659,10 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -4941,13 +4697,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="6"/>
@@ -4956,7 +4712,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
       <c r="M22" s="41" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
@@ -4988,20 +4744,20 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42" ht="16" thickBot="1">
+    <row r="23" spans="1:42" ht="15" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="17"/>
       <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>628</v>
+        <v>683</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="6"/>
@@ -5040,20 +4796,20 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42" ht="16" thickBot="1">
+    <row r="24" spans="1:42" ht="15" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="17"/>
       <c r="C24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>630</v>
+        <v>684</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="6"/>
@@ -5061,8 +4817,9 @@
         <v>533</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="40" t="s">
-        <v>297</v>
+      <c r="K24" s="40" t="str">
+        <f>app!F10</f>
+        <v>GWP_100yr_SAR</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="5" t="s">
@@ -5115,13 +4872,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>631</v>
+        <v>685</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="2"/>
@@ -5179,13 +4936,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>633</v>
+        <v>686</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="6"/>
@@ -5243,13 +5000,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="6"/>
@@ -5307,13 +5064,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>635</v>
+        <v>688</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="6"/>
@@ -5371,13 +5128,13 @@
         <v>28</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>638</v>
+        <v>689</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="6"/>
@@ -5435,13 +5192,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>639</v>
+        <v>691</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="6"/>
@@ -5499,13 +5256,13 @@
         <v>30</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>640</v>
+        <v>692</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="6"/>
@@ -5563,13 +5320,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>641</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>637</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="6"/>
@@ -5627,13 +5384,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="6"/>
@@ -5684,20 +5441,20 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" ht="16" thickBot="1">
+    <row r="34" spans="1:42" ht="15" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="17"/>
       <c r="C34" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>643</v>
+        <v>695</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="2"/>
@@ -5755,13 +5512,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>644</v>
+        <v>696</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="2"/>
@@ -5807,13 +5564,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>645</v>
+        <v>697</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="6"/>
@@ -5859,13 +5616,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>646</v>
+        <v>698</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
@@ -5904,20 +5661,20 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
     </row>
-    <row r="38" spans="1:42" ht="16" thickBot="1">
+    <row r="38" spans="1:42" ht="15" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="17"/>
       <c r="C38" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>647</v>
+        <v>699</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="2"/>
@@ -5956,20 +5713,20 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
     </row>
-    <row r="39" spans="1:42" ht="16" thickBot="1">
+    <row r="39" spans="1:42" ht="15" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="17"/>
       <c r="C39" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>648</v>
+        <v>700</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="2"/>
@@ -5977,8 +5734,9 @@
         <v>536</v>
       </c>
       <c r="J39" s="3"/>
-      <c r="K39" s="38" t="s">
-        <v>540</v>
+      <c r="K39" s="38" t="str">
+        <f>app!F13</f>
+        <v>Yes</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -6019,13 +5777,13 @@
         <v>39</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>649</v>
+        <v>701</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="6"/>
@@ -6071,13 +5829,13 @@
         <v>40</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>650</v>
+        <v>702</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
@@ -6123,13 +5881,13 @@
         <v>41</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>652</v>
+        <v>703</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -6175,13 +5933,13 @@
         <v>42</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>653</v>
+        <v>704</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -6227,13 +5985,13 @@
         <v>43</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>654</v>
+        <v>705</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>655</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -6279,13 +6037,13 @@
         <v>44</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>656</v>
+        <v>706</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>655</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -6331,13 +6089,13 @@
         <v>45</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>657</v>
+        <v>707</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>655</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
@@ -6383,13 +6141,13 @@
         <v>46</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>658</v>
+        <v>708</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
@@ -6435,13 +6193,13 @@
         <v>47</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
@@ -6487,13 +6245,13 @@
         <v>48</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>662</v>
+        <v>710</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
@@ -6539,13 +6297,13 @@
         <v>49</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>663</v>
+        <v>711</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
@@ -6591,13 +6349,13 @@
         <v>50</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
@@ -6643,13 +6401,13 @@
         <v>51</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -6695,13 +6453,13 @@
         <v>52</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>667</v>
+        <v>714</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
@@ -6747,13 +6505,13 @@
         <v>53</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
@@ -6799,13 +6557,13 @@
         <v>54</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>672</v>
+        <v>716</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
@@ -6851,13 +6609,13 @@
         <v>55</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>673</v>
+        <v>717</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
@@ -6903,13 +6661,13 @@
         <v>56</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>674</v>
+        <v>718</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
@@ -6955,13 +6713,13 @@
         <v>57</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>675</v>
+        <v>719</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
@@ -7007,13 +6765,13 @@
         <v>58</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>676</v>
+        <v>720</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
@@ -7059,13 +6817,13 @@
         <v>59</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>677</v>
+        <v>721</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
@@ -7111,13 +6869,13 @@
         <v>60</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>680</v>
+        <v>722</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -7163,13 +6921,13 @@
         <v>61</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>681</v>
+        <v>723</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
@@ -7215,13 +6973,13 @@
         <v>62</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>682</v>
+        <v>724</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
@@ -7267,13 +7025,13 @@
         <v>63</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>683</v>
+        <v>725</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
@@ -7312,20 +7070,20 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="1:42" ht="16" thickBot="1">
+    <row r="65" spans="1:42" ht="15" thickBot="1">
       <c r="A65" s="2"/>
       <c r="B65" s="17"/>
       <c r="C65" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>684</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>678</v>
+        <v>690</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>649</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
@@ -7452,7 +7210,7 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
     </row>
-    <row r="68" spans="1:42" ht="16" thickBot="1">
+    <row r="68" spans="1:42" ht="15" thickBot="1">
       <c r="A68" s="2"/>
       <c r="B68" s="18"/>
       <c r="C68" s="21"/>
@@ -13882,7 +13640,7 @@
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="I5:S5"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K39" xr:uid="{6070DFE9-ADEE-4D34-80D8-1445EB635D09}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
@@ -13900,6 +13658,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8" xr:uid="{8162D2DB-D1FC-4078-8BD0-BF18A862B219}">
       <formula1>"Sum, Average"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8" xr:uid="{415B7039-1327-4B51-9B05-3FE3BDE94891}">
+      <formula1>"Sectors, Sectors Subsectors, Sectors Subsectors Technologies"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13921,368 +13682,406 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B5B9BE-A5A2-C944-97F8-8873FAB3E8AE}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="177" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="56" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="64" customWidth="1"/>
-    <col min="5" max="6" width="16.1640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="77.6640625" style="64" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.83203125" style="57" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" style="66" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="64" customWidth="1"/>
-    <col min="16" max="16" width="41.1640625" style="66" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="56" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" style="57" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="56"/>
+    <col min="1" max="1" width="39.6328125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="63" customWidth="1"/>
+    <col min="5" max="6" width="16.1796875" style="63" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" style="63" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="56" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.81640625" style="56" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" style="65" customWidth="1"/>
+    <col min="14" max="14" width="22.36328125" style="66" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="63" customWidth="1"/>
+    <col min="16" max="16" width="41.1796875" style="65" customWidth="1"/>
+    <col min="17" max="17" width="15.6328125" style="55" customWidth="1"/>
+    <col min="18" max="18" width="14.6328125" style="56" customWidth="1"/>
+    <col min="19" max="16384" width="8.81640625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="63" t="s">
-        <v>697</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>716</v>
-      </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="65" t="s">
-        <v>698</v>
-      </c>
-      <c r="N1" s="66"/>
+      <c r="A1" s="62" t="s">
+        <v>609</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64" t="s">
+        <v>610</v>
+      </c>
+      <c r="N1" s="65"/>
     </row>
     <row r="2" spans="1:19" ht="21">
-      <c r="A2" s="63"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="65"/>
     </row>
     <row r="3" spans="1:19" ht="21">
-      <c r="A3" s="51" t="s">
-        <v>685</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
+      <c r="A3" s="50" t="s">
+        <v>598</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="53" t="s">
-        <v>686</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>687</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>688</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>689</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>690</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>721</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>691</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>692</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>693</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>694</v>
-      </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="56"/>
-      <c r="R4" s="56"/>
+      <c r="A4" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>602</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>603</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>630</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>604</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>633</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="55"/>
+      <c r="R4" s="55"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="58" t="s">
-        <v>695</v>
-      </c>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>544</v>
       </c>
-      <c r="C5" s="58">
-        <v>0</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>696</v>
+      <c r="C5" s="57">
+        <v>0</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>608</v>
       </c>
       <c r="E5" t="s">
-        <v>714</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>721</v>
-      </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="56"/>
-      <c r="R5" s="56"/>
+        <v>624</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>630</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>630</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="55"/>
+      <c r="R5" s="55"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="58" t="s">
-        <v>695</v>
-      </c>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="57">
         <v>1</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>696</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>715</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="69" t="s">
+      <c r="D6" s="57" t="s">
+        <v>608</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>632</v>
+      </c>
+      <c r="F6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="56"/>
-      <c r="R6" s="56"/>
+      <c r="G6" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="74" t="str">
+        <f>INDEX(Country!B:B,MATCH(F6,Country!A:A,0))</f>
+        <v>global</v>
+      </c>
+      <c r="I6" s="59"/>
+      <c r="J6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="55"/>
+      <c r="R6" s="55"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="58" t="s">
-        <v>695</v>
-      </c>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>543</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="57">
         <v>2</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>696</v>
+      <c r="D7" s="57" t="s">
+        <v>608</v>
       </c>
       <c r="E7" t="s">
-        <v>722</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>572</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>572</v>
-      </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="56"/>
-      <c r="R7" s="56"/>
+        <v>631</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>543</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>543</v>
+      </c>
+      <c r="H7" s="57" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.TEXTJOIN(",",TRUE,IF(Country!J:J=TRUE,Country!B:B,""))</f>
+        <v/>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="55"/>
+      <c r="R7" s="55"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="58" t="s">
-        <v>695</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="C8" s="58">
+      <c r="A8" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>611</v>
+      </c>
+      <c r="C8" s="57">
         <v>3</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>696</v>
+      <c r="D8" s="57" t="s">
+        <v>608</v>
       </c>
       <c r="E8" t="s">
-        <v>717</v>
-      </c>
-      <c r="F8" s="59">
-        <v>1970</v>
-      </c>
-      <c r="G8" s="69">
-        <v>1970</v>
-      </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="62"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="56"/>
-      <c r="R8" s="56"/>
+        <v>626</v>
+      </c>
+      <c r="F8" s="58">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="68">
+        <v>2018</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="61"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="55"/>
+      <c r="R8" s="55"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="58" t="s">
-        <v>695</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>700</v>
-      </c>
-      <c r="C9" s="58">
+      <c r="A9" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>612</v>
+      </c>
+      <c r="C9" s="57">
         <v>4</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>696</v>
+      <c r="D9" s="57" t="s">
+        <v>608</v>
       </c>
       <c r="E9" t="s">
-        <v>717</v>
-      </c>
-      <c r="F9" s="59">
+        <v>626</v>
+      </c>
+      <c r="F9" s="58">
         <v>2019</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="68">
         <v>2019</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="58" t="s">
-        <v>695</v>
-      </c>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>533</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="57">
         <v>5</v>
       </c>
-      <c r="D10" s="58" t="s">
-        <v>696</v>
+      <c r="D10" s="57" t="s">
+        <v>608</v>
       </c>
       <c r="E10" t="s">
-        <v>718</v>
-      </c>
-      <c r="F10" s="59" t="s">
+        <v>627</v>
+      </c>
+      <c r="F10" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="M10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="M10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="58" t="s">
-        <v>695</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>701</v>
-      </c>
-      <c r="C11" s="58">
+      <c r="A11" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>636</v>
+      </c>
+      <c r="C11" s="57">
         <v>6</v>
       </c>
-      <c r="D11" s="58" t="s">
-        <v>696</v>
+      <c r="D11" s="57" t="s">
+        <v>608</v>
       </c>
       <c r="E11" t="s">
-        <v>719</v>
-      </c>
-      <c r="F11" s="59" t="s">
+        <v>628</v>
+      </c>
+      <c r="F11" s="58" t="s">
         <v>596</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="68" t="s">
         <v>596</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="M11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="M11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="58" t="s">
-        <v>695</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>702</v>
-      </c>
-      <c r="C12" s="58">
+      <c r="A12" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>637</v>
+      </c>
+      <c r="C12" s="57">
         <v>7</v>
       </c>
-      <c r="D12" s="58" t="s">
-        <v>696</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>720</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>723</v>
-      </c>
-      <c r="G12" s="69" t="s">
+      <c r="D12" s="57" t="s">
+        <v>608</v>
+      </c>
+      <c r="E12" t="s">
+        <v>638</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>635</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="M12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>613</v>
+      </c>
+      <c r="C13" s="57">
+        <v>8</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>608</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="F13" s="58" t="s">
         <v>540</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="M12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
+      <c r="G13" s="68" t="s">
+        <v>540</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="M13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14290,21 +14089,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="18" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="24.5" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="18" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -14341,7 +14140,7 @@
       <c r="E3" t="s">
         <v>588</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H3" t="s">
@@ -14372,7 +14171,7 @@
       <c r="E4" t="s">
         <v>588</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H4" t="s">
@@ -14403,7 +14202,7 @@
       <c r="E5" t="s">
         <v>588</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H5" t="s">
@@ -14414,7 +14213,7 @@
       </c>
       <c r="J5" t="b">
         <f>COUNTIF(C5,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -14437,7 +14236,7 @@
       <c r="F6" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H6" t="s">
@@ -14468,7 +14267,7 @@
       <c r="E7" t="s">
         <v>588</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H7" t="s">
@@ -14479,7 +14278,7 @@
       </c>
       <c r="J7" t="b">
         <f>COUNTIF(C7,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20">
@@ -14512,7 +14311,7 @@
         <f>COUNTIF(C8,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M8" s="68"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
@@ -14562,7 +14361,7 @@
       <c r="E10" t="s">
         <v>588</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H10" t="s">
@@ -14576,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>713</v>
+        <v>623</v>
       </c>
       <c r="M10" t="str">
         <f>_xlfn.TEXTJOIN(", ",TRUE,M16:M32)</f>
@@ -14631,10 +14430,10 @@
       <c r="E12" t="s">
         <v>588</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="46" t="s">
         <v>589</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H12" t="s">
@@ -14651,7 +14450,7 @@
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>704</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -14671,7 +14470,7 @@
       <c r="E13" t="s">
         <v>588</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H13" t="s">
@@ -14705,7 +14504,7 @@
       <c r="F14" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="48" t="s">
         <v>571</v>
       </c>
       <c r="H14" t="s">
@@ -14739,7 +14538,7 @@
       <c r="F15" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H15" t="s">
@@ -14752,8 +14551,8 @@
         <f>COUNTIF(C15,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M15" s="53" t="s">
-        <v>712</v>
+      <c r="M15" s="52" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -14773,7 +14572,7 @@
       <c r="E16" t="s">
         <v>588</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="46" t="s">
         <v>593</v>
       </c>
       <c r="H16" t="s">
@@ -14786,7 +14585,7 @@
         <f>COUNTIF(C16,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M16" s="70" t="s">
+      <c r="M16" s="69" t="s">
         <v>572</v>
       </c>
     </row>
@@ -14807,7 +14606,7 @@
       <c r="E17" t="s">
         <v>588</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H17" t="s">
@@ -14820,7 +14619,7 @@
         <f>COUNTIF(C17,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M17" s="70" t="s">
+      <c r="M17" s="69" t="s">
         <v>575</v>
       </c>
     </row>
@@ -14844,7 +14643,7 @@
       <c r="F18" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H18" t="s">
@@ -14857,7 +14656,7 @@
         <f>COUNTIF(C18,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M18" s="70" t="s">
+      <c r="M18" s="69" t="s">
         <v>565</v>
       </c>
     </row>
@@ -14878,7 +14677,7 @@
       <c r="E19" t="s">
         <v>588</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H19" t="s">
@@ -14891,7 +14690,7 @@
         <f>COUNTIF(C19,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="70" t="s">
         <v>567</v>
       </c>
     </row>
@@ -14912,7 +14711,7 @@
       <c r="E20" t="s">
         <v>588</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H20" t="s">
@@ -14925,7 +14724,7 @@
         <f>COUNTIF(C20,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M20" s="71" t="s">
+      <c r="M20" s="70" t="s">
         <v>570</v>
       </c>
     </row>
@@ -14946,7 +14745,7 @@
       <c r="E21" t="s">
         <v>588</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H21" t="s">
@@ -14959,7 +14758,7 @@
         <f>COUNTIF(C21,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="70" t="s">
         <v>587</v>
       </c>
     </row>
@@ -14983,7 +14782,7 @@
       <c r="F22" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H22" t="s">
@@ -14996,7 +14795,7 @@
         <f>COUNTIF(C22,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M22" s="71" t="s">
+      <c r="M22" s="70" t="s">
         <v>582</v>
       </c>
     </row>
@@ -15017,7 +14816,7 @@
       <c r="E23" t="s">
         <v>588</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H23" t="s">
@@ -15028,9 +14827,9 @@
       </c>
       <c r="J23" t="b">
         <f>COUNTIF(C23,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
-      </c>
-      <c r="M23" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="69" t="s">
         <v>589</v>
       </c>
     </row>
@@ -15054,7 +14853,7 @@
       <c r="F24" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H24" t="s">
@@ -15067,7 +14866,7 @@
         <f>COUNTIF(C24,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="70" t="s">
         <v>584</v>
       </c>
     </row>
@@ -15088,7 +14887,7 @@
       <c r="E25" t="s">
         <v>588</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H25" t="s">
@@ -15101,7 +14900,7 @@
         <f>COUNTIF(C25,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M25" s="70" t="s">
+      <c r="M25" s="69" t="s">
         <v>593</v>
       </c>
     </row>
@@ -15125,7 +14924,7 @@
       <c r="F26" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H26" t="s">
@@ -15138,7 +14937,7 @@
         <f>COUNTIF(C26,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M26" s="71" t="s">
+      <c r="M26" s="70" t="s">
         <v>586</v>
       </c>
     </row>
@@ -15159,7 +14958,7 @@
       <c r="E27" t="s">
         <v>588</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H27" t="s">
@@ -15172,7 +14971,7 @@
         <f>COUNTIF(C27,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M27" s="70" t="s">
+      <c r="M27" s="69" t="s">
         <v>591</v>
       </c>
     </row>
@@ -15193,7 +14992,7 @@
       <c r="E28" t="s">
         <v>588</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H28" t="s">
@@ -15204,9 +15003,9 @@
       </c>
       <c r="J28" t="b">
         <f>COUNTIF(C28,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
-      </c>
-      <c r="M28" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="69" t="s">
         <v>583</v>
       </c>
     </row>
@@ -15230,7 +15029,7 @@
       <c r="F29" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H29" t="s">
@@ -15243,7 +15042,7 @@
         <f>COUNTIF(C29,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M29" s="70" t="s">
+      <c r="M29" s="69" t="s">
         <v>590</v>
       </c>
     </row>
@@ -15267,7 +15066,7 @@
       <c r="F30" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H30" t="s">
@@ -15280,7 +15079,7 @@
         <f>COUNTIF(C30,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M30" s="71" t="s">
+      <c r="M30" s="70" t="s">
         <v>585</v>
       </c>
     </row>
@@ -15301,7 +15100,7 @@
       <c r="E31" t="s">
         <v>588</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H31" t="s">
@@ -15314,7 +15113,7 @@
         <f>COUNTIF(C31,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M31" s="70" t="s">
+      <c r="M31" s="69" t="s">
         <v>594</v>
       </c>
     </row>
@@ -15335,7 +15134,7 @@
       <c r="E32" t="s">
         <v>588</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H32" t="s">
@@ -15348,7 +15147,7 @@
         <f>COUNTIF(C32,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="M32" s="70" t="s">
+      <c r="M32" s="69" t="s">
         <v>592</v>
       </c>
     </row>
@@ -15369,7 +15168,7 @@
       <c r="E33" t="s">
         <v>588</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H33" t="s">
@@ -15380,7 +15179,7 @@
       </c>
       <c r="J33" t="b">
         <f>COUNTIF(C33,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -15400,7 +15199,7 @@
       <c r="E34" t="s">
         <v>588</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H34" t="s">
@@ -15411,7 +15210,7 @@
       </c>
       <c r="J34" t="b">
         <f>COUNTIF(C34,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -15431,7 +15230,7 @@
       <c r="E35" t="s">
         <v>588</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H35" t="s">
@@ -15462,7 +15261,7 @@
       <c r="E36" t="s">
         <v>588</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H36" t="s">
@@ -15473,7 +15272,7 @@
       </c>
       <c r="J36" t="b">
         <f>COUNTIF(C36,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -15524,7 +15323,7 @@
       <c r="E38" t="s">
         <v>588</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H38" t="s">
@@ -15535,7 +15334,7 @@
       </c>
       <c r="J38" t="b">
         <f>COUNTIF(C38,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -15558,7 +15357,7 @@
       <c r="F39" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H39" t="s">
@@ -15589,7 +15388,7 @@
       <c r="E40" t="s">
         <v>588</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H40" t="s">
@@ -15600,7 +15399,7 @@
       </c>
       <c r="J40" t="b">
         <f>COUNTIF(C40,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -15620,7 +15419,7 @@
       <c r="E41" t="s">
         <v>588</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H41" t="s">
@@ -15631,7 +15430,7 @@
       </c>
       <c r="J41" t="b">
         <f>COUNTIF(C41,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -15654,7 +15453,7 @@
       <c r="F42" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H42" t="s">
@@ -15685,7 +15484,7 @@
       <c r="E43" t="s">
         <v>588</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="46" t="s">
         <v>591</v>
       </c>
       <c r="H43" t="s">
@@ -15716,7 +15515,7 @@
       <c r="E44" t="s">
         <v>588</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H44" t="s">
@@ -15750,7 +15549,7 @@
       <c r="F45" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H45" t="s">
@@ -15781,7 +15580,7 @@
       <c r="E46" t="s">
         <v>588</v>
       </c>
-      <c r="F46" s="47" t="s">
+      <c r="F46" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H46" t="s">
@@ -15792,7 +15591,7 @@
       </c>
       <c r="J46" t="b">
         <f>COUNTIF(C46,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -15812,7 +15611,7 @@
       <c r="E47" t="s">
         <v>588</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H47" t="s">
@@ -15823,7 +15622,7 @@
       </c>
       <c r="J47" t="b">
         <f>COUNTIF(C47,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -15846,7 +15645,7 @@
       <c r="F48" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G48" s="49" t="s">
+      <c r="G48" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H48" t="s">
@@ -15880,7 +15679,7 @@
       <c r="F49" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H49" t="s">
@@ -15911,7 +15710,7 @@
       <c r="E50" t="s">
         <v>588</v>
       </c>
-      <c r="F50" s="47" t="s">
+      <c r="F50" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H50" t="s">
@@ -15922,7 +15721,7 @@
       </c>
       <c r="J50" t="b">
         <f>COUNTIF(C50,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -15942,7 +15741,7 @@
       <c r="E51" t="s">
         <v>588</v>
       </c>
-      <c r="F51" s="47" t="s">
+      <c r="F51" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H51" t="s">
@@ -15976,7 +15775,7 @@
       <c r="F52" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H52" t="s">
@@ -16010,7 +15809,7 @@
       <c r="F53" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G53" s="49" t="s">
+      <c r="G53" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H53" t="s">
@@ -16041,7 +15840,7 @@
       <c r="E54" t="s">
         <v>588</v>
       </c>
-      <c r="F54" s="47" t="s">
+      <c r="F54" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H54" t="s">
@@ -16072,7 +15871,7 @@
       <c r="E55" t="s">
         <v>588</v>
       </c>
-      <c r="F55" s="47" t="s">
+      <c r="F55" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H55" t="s">
@@ -16103,7 +15902,7 @@
       <c r="E56" t="s">
         <v>588</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H56" t="s">
@@ -16134,7 +15933,7 @@
       <c r="E57" t="s">
         <v>588</v>
       </c>
-      <c r="F57" s="47" t="s">
+      <c r="F57" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H57" t="s">
@@ -16165,7 +15964,7 @@
       <c r="E58" t="s">
         <v>588</v>
       </c>
-      <c r="F58" s="47" t="s">
+      <c r="F58" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H58" t="s">
@@ -16176,7 +15975,7 @@
       </c>
       <c r="J58" t="b">
         <f>COUNTIF(C58,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -16196,7 +15995,7 @@
       <c r="E59" t="s">
         <v>588</v>
       </c>
-      <c r="F59" s="47" t="s">
+      <c r="F59" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H59" t="s">
@@ -16227,7 +16026,7 @@
       <c r="E60" t="s">
         <v>588</v>
       </c>
-      <c r="F60" s="47" t="s">
+      <c r="F60" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H60" t="s">
@@ -16238,7 +16037,7 @@
       </c>
       <c r="J60" t="b">
         <f>COUNTIF(C60,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -16261,7 +16060,7 @@
       <c r="F61" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G61" s="49" t="s">
+      <c r="G61" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H61" t="s">
@@ -16295,7 +16094,7 @@
       <c r="F62" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G62" s="49" t="s">
+      <c r="G62" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H62" t="s">
@@ -16329,7 +16128,7 @@
       <c r="F63" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G63" s="49" t="s">
+      <c r="G63" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H63" t="s">
@@ -16360,7 +16159,7 @@
       <c r="E64" t="s">
         <v>588</v>
       </c>
-      <c r="F64" s="47" t="s">
+      <c r="F64" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H64" t="s">
@@ -16371,7 +16170,7 @@
       </c>
       <c r="J64" t="b">
         <f>COUNTIF(C64,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -16394,7 +16193,7 @@
       <c r="F65" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G65" s="49" t="s">
+      <c r="G65" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H65" t="s">
@@ -16425,7 +16224,7 @@
       <c r="E66" t="s">
         <v>588</v>
       </c>
-      <c r="F66" s="47" t="s">
+      <c r="F66" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H66" t="s">
@@ -16436,7 +16235,7 @@
       </c>
       <c r="J66" t="b">
         <f>COUNTIF(C66,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -16456,7 +16255,7 @@
       <c r="E67" t="s">
         <v>588</v>
       </c>
-      <c r="F67" s="47" t="s">
+      <c r="F67" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H67" t="s">
@@ -16467,7 +16266,7 @@
       </c>
       <c r="J67" t="b">
         <f>COUNTIF(C67,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -16487,7 +16286,7 @@
       <c r="E68" t="s">
         <v>588</v>
       </c>
-      <c r="F68" s="47" t="s">
+      <c r="F68" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H68" t="s">
@@ -16518,7 +16317,7 @@
       <c r="E69" t="s">
         <v>588</v>
       </c>
-      <c r="F69" s="47" t="s">
+      <c r="F69" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H69" t="s">
@@ -16529,7 +16328,7 @@
       </c>
       <c r="J69" t="b">
         <f>COUNTIF(C69,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -16549,8 +16348,8 @@
       <c r="E70" t="s">
         <v>588</v>
       </c>
-      <c r="F70" s="48"/>
-      <c r="G70" s="49" t="s">
+      <c r="F70" s="47"/>
+      <c r="G70" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H70" t="s">
@@ -16584,7 +16383,7 @@
       <c r="F71" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G71" s="49" t="s">
+      <c r="G71" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H71" t="s">
@@ -16618,7 +16417,7 @@
       <c r="F72" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G72" s="49" t="s">
+      <c r="G72" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H72" t="s">
@@ -16652,7 +16451,7 @@
       <c r="F73" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G73" s="49" t="s">
+      <c r="G73" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H73" t="s">
@@ -16683,7 +16482,7 @@
       <c r="E74" t="s">
         <v>588</v>
       </c>
-      <c r="F74" s="47" t="s">
+      <c r="F74" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H74" t="s">
@@ -16714,7 +16513,7 @@
       <c r="E75" t="s">
         <v>588</v>
       </c>
-      <c r="F75" s="47" t="s">
+      <c r="F75" s="46" t="s">
         <v>583</v>
       </c>
       <c r="H75" t="s">
@@ -16748,7 +16547,7 @@
       <c r="F76" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G76" s="49" t="s">
+      <c r="G76" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H76" t="s">
@@ -16782,7 +16581,7 @@
       <c r="F77" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G77" s="49" t="s">
+      <c r="G77" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H77" t="s">
@@ -16813,7 +16612,7 @@
       <c r="E78" t="s">
         <v>588</v>
       </c>
-      <c r="F78" s="47" t="s">
+      <c r="F78" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H78" t="s">
@@ -16824,7 +16623,7 @@
       </c>
       <c r="J78" t="b">
         <f>COUNTIF(C78,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -16844,7 +16643,7 @@
       <c r="E79" t="s">
         <v>588</v>
       </c>
-      <c r="F79" s="47" t="s">
+      <c r="F79" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H79" t="s">
@@ -16855,7 +16654,7 @@
       </c>
       <c r="J79" t="b">
         <f>COUNTIF(C79,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -16878,7 +16677,7 @@
       <c r="F80" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G80" s="49" t="s">
+      <c r="G80" s="48" t="s">
         <v>571</v>
       </c>
       <c r="H80" t="s">
@@ -16909,7 +16708,7 @@
       <c r="E81" t="s">
         <v>588</v>
       </c>
-      <c r="F81" s="47" t="s">
+      <c r="F81" s="46" t="s">
         <v>583</v>
       </c>
       <c r="H81" t="s">
@@ -16940,7 +16739,7 @@
       <c r="E82" t="s">
         <v>588</v>
       </c>
-      <c r="F82" s="47" t="s">
+      <c r="F82" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H82" t="s">
@@ -16951,7 +16750,7 @@
       </c>
       <c r="J82" t="b">
         <f>COUNTIF(C82,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -16971,7 +16770,7 @@
       <c r="E83" t="s">
         <v>588</v>
       </c>
-      <c r="F83" s="47" t="s">
+      <c r="F83" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H83" t="s">
@@ -17002,7 +16801,7 @@
       <c r="E84" t="s">
         <v>588</v>
       </c>
-      <c r="F84" s="47" t="s">
+      <c r="F84" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H84" t="s">
@@ -17033,7 +16832,7 @@
       <c r="E85" t="s">
         <v>588</v>
       </c>
-      <c r="F85" s="47" t="s">
+      <c r="F85" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H85" t="s">
@@ -17067,7 +16866,7 @@
       <c r="F86" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G86" s="49" t="s">
+      <c r="G86" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H86" t="s">
@@ -17101,7 +16900,7 @@
       <c r="F87" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G87" s="49" t="s">
+      <c r="G87" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H87" t="s">
@@ -17135,7 +16934,7 @@
       <c r="F88" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G88" s="49" t="s">
+      <c r="G88" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H88" t="s">
@@ -17169,7 +16968,7 @@
       <c r="F89" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G89" s="49" t="s">
+      <c r="G89" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H89" t="s">
@@ -17200,7 +16999,7 @@
       <c r="E90" t="s">
         <v>588</v>
       </c>
-      <c r="F90" s="47" t="s">
+      <c r="F90" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H90" t="s">
@@ -17211,7 +17010,7 @@
       </c>
       <c r="J90" t="b">
         <f>COUNTIF(C90,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -17231,7 +17030,7 @@
       <c r="E91" t="s">
         <v>588</v>
       </c>
-      <c r="F91" s="47" t="s">
+      <c r="F91" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H91" t="s">
@@ -17242,7 +17041,7 @@
       </c>
       <c r="J91" t="b">
         <f>COUNTIF(C91,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -17265,7 +17064,7 @@
       <c r="F92" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G92" s="49" t="s">
+      <c r="G92" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H92" t="s">
@@ -17299,7 +17098,7 @@
       <c r="F93" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G93" s="49" t="s">
+      <c r="G93" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H93" t="s">
@@ -17333,7 +17132,7 @@
       <c r="F94" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G94" s="49" t="s">
+      <c r="G94" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H94" t="s">
@@ -17364,7 +17163,7 @@
       <c r="E95" t="s">
         <v>588</v>
       </c>
-      <c r="F95" s="47" t="s">
+      <c r="F95" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H95" t="s">
@@ -17395,7 +17194,7 @@
       <c r="E96" t="s">
         <v>588</v>
       </c>
-      <c r="F96" s="47" t="s">
+      <c r="F96" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H96" t="s">
@@ -17426,7 +17225,7 @@
       <c r="E97" t="s">
         <v>588</v>
       </c>
-      <c r="F97" s="47" t="s">
+      <c r="F97" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H97" t="s">
@@ -17457,7 +17256,7 @@
       <c r="E98" t="s">
         <v>588</v>
       </c>
-      <c r="F98" s="47" t="s">
+      <c r="F98" s="46" t="s">
         <v>591</v>
       </c>
       <c r="H98" t="s">
@@ -17488,7 +17287,7 @@
       <c r="E99" t="s">
         <v>588</v>
       </c>
-      <c r="F99" s="47" t="s">
+      <c r="F99" s="46" t="s">
         <v>591</v>
       </c>
       <c r="H99" t="s">
@@ -17519,7 +17318,7 @@
       <c r="E100" t="s">
         <v>588</v>
       </c>
-      <c r="F100" s="47" t="s">
+      <c r="F100" s="46" t="s">
         <v>590</v>
       </c>
       <c r="H100" t="s">
@@ -17550,7 +17349,7 @@
       <c r="E101" t="s">
         <v>588</v>
       </c>
-      <c r="F101" s="47" t="s">
+      <c r="F101" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H101" t="s">
@@ -17581,7 +17380,7 @@
       <c r="E102" t="s">
         <v>588</v>
       </c>
-      <c r="F102" s="47" t="s">
+      <c r="F102" s="46" t="s">
         <v>590</v>
       </c>
       <c r="H102" t="s">
@@ -17612,7 +17411,7 @@
       <c r="E103" t="s">
         <v>588</v>
       </c>
-      <c r="F103" s="47" t="s">
+      <c r="F103" s="46" t="s">
         <v>590</v>
       </c>
       <c r="H103" t="s">
@@ -17643,7 +17442,7 @@
       <c r="E104" t="s">
         <v>588</v>
       </c>
-      <c r="F104" s="47" t="s">
+      <c r="F104" s="46" t="s">
         <v>583</v>
       </c>
       <c r="H104" t="s">
@@ -17677,7 +17476,7 @@
       <c r="F105" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G105" s="49" t="s">
+      <c r="G105" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H105" t="s">
@@ -17708,7 +17507,7 @@
       <c r="E106" t="s">
         <v>588</v>
       </c>
-      <c r="F106" s="47" t="s">
+      <c r="F106" s="46" t="s">
         <v>591</v>
       </c>
       <c r="H106" t="s">
@@ -17739,7 +17538,7 @@
       <c r="E107" t="s">
         <v>588</v>
       </c>
-      <c r="F107" s="47" t="s">
+      <c r="F107" s="46" t="s">
         <v>590</v>
       </c>
       <c r="H107" t="s">
@@ -17773,7 +17572,7 @@
       <c r="F108" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G108" s="49" t="s">
+      <c r="G108" s="48" t="s">
         <v>571</v>
       </c>
       <c r="H108" t="s">
@@ -17804,7 +17603,7 @@
       <c r="E109" t="s">
         <v>588</v>
       </c>
-      <c r="F109" s="47" t="s">
+      <c r="F109" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H109" t="s">
@@ -17815,7 +17614,7 @@
       </c>
       <c r="J109" t="b">
         <f>COUNTIF(C109,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -17835,7 +17634,7 @@
       <c r="E110" t="s">
         <v>588</v>
       </c>
-      <c r="F110" s="47" t="s">
+      <c r="F110" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H110" t="s">
@@ -17866,7 +17665,7 @@
       <c r="E111" t="s">
         <v>588</v>
       </c>
-      <c r="F111" s="47" t="s">
+      <c r="F111" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H111" t="s">
@@ -17897,7 +17696,7 @@
       <c r="E112" t="s">
         <v>588</v>
       </c>
-      <c r="F112" s="47" t="s">
+      <c r="F112" s="46" t="s">
         <v>593</v>
       </c>
       <c r="H112" t="s">
@@ -17928,7 +17727,7 @@
       <c r="E113" t="s">
         <v>588</v>
       </c>
-      <c r="F113" s="47" t="s">
+      <c r="F113" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H113" t="s">
@@ -17959,7 +17758,7 @@
       <c r="E114" t="s">
         <v>588</v>
       </c>
-      <c r="F114" s="47" t="s">
+      <c r="F114" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H114" t="s">
@@ -17990,7 +17789,7 @@
       <c r="E115" t="s">
         <v>588</v>
       </c>
-      <c r="F115" s="47" t="s">
+      <c r="F115" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H115" t="s">
@@ -18021,7 +17820,7 @@
       <c r="E116" t="s">
         <v>588</v>
       </c>
-      <c r="F116" s="47" t="s">
+      <c r="F116" s="46" t="s">
         <v>590</v>
       </c>
       <c r="H116" t="s">
@@ -18052,7 +17851,7 @@
       <c r="E117" t="s">
         <v>588</v>
       </c>
-      <c r="F117" s="47" t="s">
+      <c r="F117" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H117" t="s">
@@ -18063,7 +17862,7 @@
       </c>
       <c r="J117" t="b">
         <f>COUNTIF(C117,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -18083,7 +17882,7 @@
       <c r="E118" t="s">
         <v>588</v>
       </c>
-      <c r="F118" s="47" t="s">
+      <c r="F118" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H118" t="s">
@@ -18094,7 +17893,7 @@
       </c>
       <c r="J118" t="b">
         <f>COUNTIF(C118,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -18114,7 +17913,7 @@
       <c r="E119" t="s">
         <v>588</v>
       </c>
-      <c r="F119" s="47" t="s">
+      <c r="F119" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H119" t="s">
@@ -18125,7 +17924,7 @@
       </c>
       <c r="J119" t="b">
         <f>COUNTIF(C119,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -18145,7 +17944,7 @@
       <c r="E120" t="s">
         <v>588</v>
       </c>
-      <c r="F120" s="47" t="s">
+      <c r="F120" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H120" t="s">
@@ -18176,7 +17975,7 @@
       <c r="E121" t="s">
         <v>588</v>
       </c>
-      <c r="F121" s="47" t="s">
+      <c r="F121" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H121" t="s">
@@ -18207,7 +18006,7 @@
       <c r="E122" t="s">
         <v>588</v>
       </c>
-      <c r="F122" s="47" t="s">
+      <c r="F122" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H122" t="s">
@@ -18238,7 +18037,7 @@
       <c r="E123" t="s">
         <v>588</v>
       </c>
-      <c r="F123" s="47" t="s">
+      <c r="F123" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H123" t="s">
@@ -18269,7 +18068,7 @@
       <c r="E124" t="s">
         <v>588</v>
       </c>
-      <c r="F124" s="47" t="s">
+      <c r="F124" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H124" t="s">
@@ -18300,7 +18099,7 @@
       <c r="E125" t="s">
         <v>588</v>
       </c>
-      <c r="F125" s="47" t="s">
+      <c r="F125" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H125" t="s">
@@ -18311,7 +18110,7 @@
       </c>
       <c r="J125" t="b">
         <f>COUNTIF(C125,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -18331,7 +18130,7 @@
       <c r="E126" t="s">
         <v>588</v>
       </c>
-      <c r="F126" s="47" t="s">
+      <c r="F126" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H126" t="s">
@@ -18342,7 +18141,7 @@
       </c>
       <c r="J126" t="b">
         <f>COUNTIF(C126,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -18362,7 +18161,7 @@
       <c r="E127" t="s">
         <v>588</v>
       </c>
-      <c r="F127" s="47" t="s">
+      <c r="F127" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H127" t="s">
@@ -18393,7 +18192,7 @@
       <c r="E128" t="s">
         <v>588</v>
       </c>
-      <c r="F128" s="47" t="s">
+      <c r="F128" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H128" t="s">
@@ -18424,7 +18223,7 @@
       <c r="E129" t="s">
         <v>588</v>
       </c>
-      <c r="F129" s="47" t="s">
+      <c r="F129" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H129" t="s">
@@ -18435,7 +18234,7 @@
       </c>
       <c r="J129" t="b">
         <f>COUNTIF(C129,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -18455,7 +18254,7 @@
       <c r="E130" t="s">
         <v>588</v>
       </c>
-      <c r="F130" s="47" t="s">
+      <c r="F130" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H130" t="s">
@@ -18489,7 +18288,7 @@
       <c r="F131" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G131" s="49" t="s">
+      <c r="G131" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H131" t="s">
@@ -18523,7 +18322,7 @@
       <c r="F132" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G132" s="49" t="s">
+      <c r="G132" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H132" t="s">
@@ -18554,7 +18353,7 @@
       <c r="E133" t="s">
         <v>588</v>
       </c>
-      <c r="F133" s="47" t="s">
+      <c r="F133" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H133" t="s">
@@ -18565,7 +18364,7 @@
       </c>
       <c r="J133" t="b">
         <f>COUNTIF(C133,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -18585,7 +18384,7 @@
       <c r="E134" t="s">
         <v>588</v>
       </c>
-      <c r="F134" s="47" t="s">
+      <c r="F134" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H134" t="s">
@@ -18596,7 +18395,7 @@
       </c>
       <c r="J134" t="b">
         <f>COUNTIF(C134,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -18619,7 +18418,7 @@
       <c r="F135" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G135" s="49" t="s">
+      <c r="G135" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H135" t="s">
@@ -18650,7 +18449,7 @@
       <c r="E136" t="s">
         <v>588</v>
       </c>
-      <c r="F136" s="47" t="s">
+      <c r="F136" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H136" t="s">
@@ -18681,7 +18480,7 @@
       <c r="E137" t="s">
         <v>588</v>
       </c>
-      <c r="F137" s="47" t="s">
+      <c r="F137" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H137" t="s">
@@ -18712,7 +18511,7 @@
       <c r="E138" t="s">
         <v>588</v>
       </c>
-      <c r="F138" s="47" t="s">
+      <c r="F138" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H138" t="s">
@@ -18746,7 +18545,7 @@
       <c r="F139" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G139" s="49" t="s">
+      <c r="G139" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H139" t="s">
@@ -18777,7 +18576,7 @@
       <c r="E140" t="s">
         <v>588</v>
       </c>
-      <c r="F140" s="47" t="s">
+      <c r="F140" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H140" t="s">
@@ -18788,7 +18587,7 @@
       </c>
       <c r="J140" t="b">
         <f>COUNTIF(C140,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -18808,7 +18607,7 @@
       <c r="E141" t="s">
         <v>588</v>
       </c>
-      <c r="F141" s="47" t="s">
+      <c r="F141" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H141" t="s">
@@ -18819,7 +18618,7 @@
       </c>
       <c r="J141" t="b">
         <f>COUNTIF(C141,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -18839,7 +18638,7 @@
       <c r="E142" t="s">
         <v>588</v>
       </c>
-      <c r="F142" s="47" t="s">
+      <c r="F142" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H142" t="s">
@@ -18870,7 +18669,7 @@
       <c r="E143" t="s">
         <v>588</v>
       </c>
-      <c r="F143" s="47" t="s">
+      <c r="F143" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H143" t="s">
@@ -18881,7 +18680,7 @@
       </c>
       <c r="J143" t="b">
         <f>COUNTIF(C143,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -18901,7 +18700,7 @@
       <c r="E144" t="s">
         <v>588</v>
       </c>
-      <c r="F144" s="47" t="s">
+      <c r="F144" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H144" t="s">
@@ -18932,7 +18731,7 @@
       <c r="E145" t="s">
         <v>588</v>
       </c>
-      <c r="F145" s="47" t="s">
+      <c r="F145" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H145" t="s">
@@ -18963,8 +18762,8 @@
       <c r="E146" t="s">
         <v>588</v>
       </c>
-      <c r="F146" s="48"/>
-      <c r="G146" s="49" t="s">
+      <c r="F146" s="47"/>
+      <c r="G146" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H146" t="s">
@@ -18995,7 +18794,7 @@
       <c r="E147" t="s">
         <v>588</v>
       </c>
-      <c r="F147" s="47" t="s">
+      <c r="F147" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H147" t="s">
@@ -19026,7 +18825,7 @@
       <c r="E148" t="s">
         <v>588</v>
       </c>
-      <c r="F148" s="47" t="s">
+      <c r="F148" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H148" t="s">
@@ -19060,7 +18859,7 @@
       <c r="F149" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G149" s="49" t="s">
+      <c r="G149" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H149" t="s">
@@ -19091,7 +18890,7 @@
       <c r="E150" t="s">
         <v>588</v>
       </c>
-      <c r="F150" s="47" t="s">
+      <c r="F150" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H150" t="s">
@@ -19102,7 +18901,7 @@
       </c>
       <c r="J150" t="b">
         <f>COUNTIF(C150,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -19122,7 +18921,7 @@
       <c r="E151" t="s">
         <v>588</v>
       </c>
-      <c r="F151" s="47" t="s">
+      <c r="F151" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H151" t="s">
@@ -19133,7 +18932,7 @@
       </c>
       <c r="J151" t="b">
         <f>COUNTIF(C151,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -19156,7 +18955,7 @@
       <c r="F152" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G152" s="49" t="s">
+      <c r="G152" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H152" t="s">
@@ -19187,7 +18986,7 @@
       <c r="E153" t="s">
         <v>588</v>
       </c>
-      <c r="F153" s="47" t="s">
+      <c r="F153" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H153" t="s">
@@ -19218,7 +19017,7 @@
       <c r="E154" t="s">
         <v>588</v>
       </c>
-      <c r="F154" s="47" t="s">
+      <c r="F154" s="46" t="s">
         <v>593</v>
       </c>
       <c r="H154" t="s">
@@ -19249,7 +19048,7 @@
       <c r="E155" t="s">
         <v>588</v>
       </c>
-      <c r="F155" s="47" t="s">
+      <c r="F155" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H155" t="s">
@@ -19280,7 +19079,7 @@
       <c r="E156" t="s">
         <v>588</v>
       </c>
-      <c r="F156" s="47" t="s">
+      <c r="F156" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H156" t="s">
@@ -19311,7 +19110,7 @@
       <c r="E157" t="s">
         <v>588</v>
       </c>
-      <c r="F157" s="47" t="s">
+      <c r="F157" s="46" t="s">
         <v>590</v>
       </c>
       <c r="H157" t="s">
@@ -19345,7 +19144,7 @@
       <c r="F158" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G158" s="49" t="s">
+      <c r="G158" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H158" t="s">
@@ -19376,7 +19175,7 @@
       <c r="E159" t="s">
         <v>588</v>
       </c>
-      <c r="F159" s="47" t="s">
+      <c r="F159" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H159" t="s">
@@ -19410,7 +19209,7 @@
       <c r="F160" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G160" s="49" t="s">
+      <c r="G160" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H160" t="s">
@@ -19444,7 +19243,7 @@
       <c r="F161" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G161" s="49" t="s">
+      <c r="G161" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H161" t="s">
@@ -19475,7 +19274,7 @@
       <c r="E162" t="s">
         <v>588</v>
       </c>
-      <c r="F162" s="47" t="s">
+      <c r="F162" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H162" t="s">
@@ -19506,7 +19305,7 @@
       <c r="E163" t="s">
         <v>588</v>
       </c>
-      <c r="F163" s="47" t="s">
+      <c r="F163" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H163" t="s">
@@ -19537,7 +19336,7 @@
       <c r="E164" t="s">
         <v>588</v>
       </c>
-      <c r="F164" s="47" t="s">
+      <c r="F164" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H164" t="s">
@@ -19599,7 +19398,7 @@
       <c r="E166" t="s">
         <v>588</v>
       </c>
-      <c r="F166" s="47" t="s">
+      <c r="F166" s="46" t="s">
         <v>593</v>
       </c>
       <c r="H166" t="s">
@@ -19630,7 +19429,7 @@
       <c r="E167" t="s">
         <v>588</v>
       </c>
-      <c r="F167" s="47" t="s">
+      <c r="F167" s="46" t="s">
         <v>591</v>
       </c>
       <c r="H167" t="s">
@@ -19661,7 +19460,7 @@
       <c r="E168" t="s">
         <v>588</v>
       </c>
-      <c r="F168" s="47" t="s">
+      <c r="F168" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H168" t="s">
@@ -19672,7 +19471,7 @@
       </c>
       <c r="J168" t="b">
         <f>COUNTIF(C168,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -19692,7 +19491,7 @@
       <c r="E169" t="s">
         <v>588</v>
       </c>
-      <c r="F169" s="47" t="s">
+      <c r="F169" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H169" t="s">
@@ -19726,7 +19525,7 @@
       <c r="F170" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="G170" s="49" t="s">
+      <c r="G170" s="48" t="s">
         <v>571</v>
       </c>
       <c r="H170" t="s">
@@ -19757,7 +19556,7 @@
       <c r="E171" t="s">
         <v>588</v>
       </c>
-      <c r="F171" s="47" t="s">
+      <c r="F171" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H171" t="s">
@@ -19768,7 +19567,7 @@
       </c>
       <c r="J171" t="b">
         <f>COUNTIF(C171,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -19791,7 +19590,7 @@
       <c r="F172" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G172" s="49" t="s">
+      <c r="G172" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H172" t="s">
@@ -19825,7 +19624,7 @@
       <c r="F173" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G173" s="49" t="s">
+      <c r="G173" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H173" t="s">
@@ -19859,7 +19658,7 @@
       <c r="F174" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G174" s="49" t="s">
+      <c r="G174" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H174" t="s">
@@ -19893,7 +19692,7 @@
       <c r="F175" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G175" s="49" t="s">
+      <c r="G175" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H175" t="s">
@@ -19924,7 +19723,7 @@
       <c r="E176" t="s">
         <v>588</v>
       </c>
-      <c r="F176" s="47" t="s">
+      <c r="F176" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H176" t="s">
@@ -19955,7 +19754,7 @@
       <c r="E177" t="s">
         <v>588</v>
       </c>
-      <c r="F177" s="47" t="s">
+      <c r="F177" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H177" t="s">
@@ -19966,7 +19765,7 @@
       </c>
       <c r="J177" t="b">
         <f>COUNTIF(C177,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -19986,7 +19785,7 @@
       <c r="E178" t="s">
         <v>588</v>
       </c>
-      <c r="F178" s="47" t="s">
+      <c r="F178" s="46" t="s">
         <v>594</v>
       </c>
       <c r="H178" t="s">
@@ -20017,7 +19816,7 @@
       <c r="E179" t="s">
         <v>588</v>
       </c>
-      <c r="F179" s="47" t="s">
+      <c r="F179" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H179" t="s">
@@ -20028,7 +19827,7 @@
       </c>
       <c r="J179" t="b">
         <f>COUNTIF(C179,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -20048,7 +19847,7 @@
       <c r="E180" t="s">
         <v>588</v>
       </c>
-      <c r="F180" s="47" t="s">
+      <c r="F180" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H180" t="s">
@@ -20079,7 +19878,7 @@
       <c r="E181" t="s">
         <v>588</v>
       </c>
-      <c r="F181" s="47" t="s">
+      <c r="F181" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H181" t="s">
@@ -20110,7 +19909,7 @@
       <c r="E182" t="s">
         <v>588</v>
       </c>
-      <c r="F182" s="47" t="s">
+      <c r="F182" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H182" t="s">
@@ -20121,7 +19920,7 @@
       </c>
       <c r="J182" t="b">
         <f>COUNTIF(C182,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -20141,7 +19940,7 @@
       <c r="E183" t="s">
         <v>588</v>
       </c>
-      <c r="F183" s="47" t="s">
+      <c r="F183" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H183" t="s">
@@ -20152,7 +19951,7 @@
       </c>
       <c r="J183" t="b">
         <f>COUNTIF(C183,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -20172,7 +19971,7 @@
       <c r="E184" t="s">
         <v>588</v>
       </c>
-      <c r="F184" s="47" t="s">
+      <c r="F184" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H184" t="s">
@@ -20206,7 +20005,7 @@
       <c r="F185" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G185" s="49" t="s">
+      <c r="G185" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H185" t="s">
@@ -20237,7 +20036,7 @@
       <c r="E186" t="s">
         <v>588</v>
       </c>
-      <c r="F186" s="47" t="s">
+      <c r="F186" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H186" t="s">
@@ -20268,7 +20067,7 @@
       <c r="E187" t="s">
         <v>588</v>
       </c>
-      <c r="F187" s="47" t="s">
+      <c r="F187" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H187" t="s">
@@ -20299,7 +20098,7 @@
       <c r="E188" t="s">
         <v>588</v>
       </c>
-      <c r="F188" s="47" t="s">
+      <c r="F188" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H188" t="s">
@@ -20330,7 +20129,7 @@
       <c r="E189" t="s">
         <v>588</v>
       </c>
-      <c r="F189" s="47" t="s">
+      <c r="F189" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H189" t="s">
@@ -20341,7 +20140,7 @@
       </c>
       <c r="J189" t="b">
         <f>COUNTIF(C189,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -20361,7 +20160,7 @@
       <c r="E190" t="s">
         <v>588</v>
       </c>
-      <c r="F190" s="47" t="s">
+      <c r="F190" s="46" t="s">
         <v>592</v>
       </c>
       <c r="H190" t="s">
@@ -20372,7 +20171,7 @@
       </c>
       <c r="J190" t="b">
         <f>COUNTIF(C190,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -20392,7 +20191,7 @@
       <c r="E191" t="s">
         <v>588</v>
       </c>
-      <c r="F191" s="47" t="s">
+      <c r="F191" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H191" t="s">
@@ -20403,7 +20202,7 @@
       </c>
       <c r="J191" t="b">
         <f>COUNTIF(C191,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -20423,10 +20222,10 @@
       <c r="E192" t="s">
         <v>588</v>
       </c>
-      <c r="F192" s="48" t="s">
+      <c r="F192" s="47" t="s">
         <v>575</v>
       </c>
-      <c r="G192" s="49" t="s">
+      <c r="G192" s="48" t="s">
         <v>571</v>
       </c>
       <c r="H192" t="s">
@@ -20457,7 +20256,7 @@
       <c r="E193" t="s">
         <v>588</v>
       </c>
-      <c r="F193" s="47" t="s">
+      <c r="F193" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H193" t="s">
@@ -20488,7 +20287,7 @@
       <c r="E194" t="s">
         <v>588</v>
       </c>
-      <c r="F194" s="47" t="s">
+      <c r="F194" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H194" t="s">
@@ -20519,7 +20318,7 @@
       <c r="E195" t="s">
         <v>588</v>
       </c>
-      <c r="F195" s="47" t="s">
+      <c r="F195" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H195" t="s">
@@ -20530,7 +20329,7 @@
       </c>
       <c r="J195" t="b">
         <f>COUNTIF(C195,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -20553,7 +20352,7 @@
       <c r="F196" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G196" s="49" t="s">
+      <c r="G196" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H196" t="s">
@@ -20584,7 +20383,7 @@
       <c r="E197" t="s">
         <v>588</v>
       </c>
-      <c r="F197" s="47" t="s">
+      <c r="F197" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H197" t="s">
@@ -20595,7 +20394,7 @@
       </c>
       <c r="J197" t="b">
         <f>COUNTIF(C197,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -20615,7 +20414,7 @@
       <c r="E198" t="s">
         <v>588</v>
       </c>
-      <c r="F198" s="47" t="s">
+      <c r="F198" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H198" t="s">
@@ -20646,7 +20445,7 @@
       <c r="E199" t="s">
         <v>588</v>
       </c>
-      <c r="F199" s="47" t="s">
+      <c r="F199" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H199" t="s">
@@ -20677,7 +20476,7 @@
       <c r="E200" t="s">
         <v>588</v>
       </c>
-      <c r="F200" s="47" t="s">
+      <c r="F200" s="46" t="s">
         <v>590</v>
       </c>
       <c r="H200" t="s">
@@ -20708,7 +20507,7 @@
       <c r="E201" t="s">
         <v>588</v>
       </c>
-      <c r="F201" s="47" t="s">
+      <c r="F201" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H201" t="s">
@@ -20739,7 +20538,7 @@
       <c r="E202" t="s">
         <v>588</v>
       </c>
-      <c r="F202" s="47" t="s">
+      <c r="F202" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H202" t="s">
@@ -20750,7 +20549,7 @@
       </c>
       <c r="J202" t="b">
         <f>COUNTIF(C202,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -20770,7 +20569,7 @@
       <c r="E203" t="s">
         <v>588</v>
       </c>
-      <c r="F203" s="47" t="s">
+      <c r="F203" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H203" t="s">
@@ -20801,7 +20600,7 @@
       <c r="E204" t="s">
         <v>588</v>
       </c>
-      <c r="F204" s="47" t="s">
+      <c r="F204" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H204" t="s">
@@ -20832,7 +20631,7 @@
       <c r="E205" t="s">
         <v>588</v>
       </c>
-      <c r="F205" s="47" t="s">
+      <c r="F205" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H205" t="s">
@@ -20843,7 +20642,7 @@
       </c>
       <c r="J205" t="b">
         <f>COUNTIF(C205,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -20866,7 +20665,7 @@
       <c r="F206" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G206" s="49" t="s">
+      <c r="G206" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H206" t="s">
@@ -20900,7 +20699,7 @@
       <c r="F207" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G207" s="49" t="s">
+      <c r="G207" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H207" t="s">
@@ -20934,7 +20733,7 @@
       <c r="F208" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G208" s="49" t="s">
+      <c r="G208" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H208" t="s">
@@ -20965,7 +20764,7 @@
       <c r="E209" t="s">
         <v>588</v>
       </c>
-      <c r="F209" s="47" t="s">
+      <c r="F209" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H209" t="s">
@@ -20976,7 +20775,7 @@
       </c>
       <c r="J209" t="b">
         <f>COUNTIF(C209,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -20996,7 +20795,7 @@
       <c r="E210" t="s">
         <v>588</v>
       </c>
-      <c r="F210" s="47" t="s">
+      <c r="F210" s="46" t="s">
         <v>583</v>
       </c>
       <c r="H210" t="s">
@@ -21027,7 +20826,7 @@
       <c r="E211" t="s">
         <v>588</v>
       </c>
-      <c r="F211" s="47" t="s">
+      <c r="F211" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H211" t="s">
@@ -21061,7 +20860,7 @@
       <c r="F212" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G212" s="49" t="s">
+      <c r="G212" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H212" t="s">
@@ -21092,7 +20891,7 @@
       <c r="E213" t="s">
         <v>588</v>
       </c>
-      <c r="F213" s="47" t="s">
+      <c r="F213" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H213" t="s">
@@ -21103,7 +20902,7 @@
       </c>
       <c r="J213" t="b">
         <f>COUNTIF(C213,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -21123,7 +20922,7 @@
       <c r="E214" t="s">
         <v>588</v>
       </c>
-      <c r="F214" s="47" t="s">
+      <c r="F214" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H214" t="s">
@@ -21154,7 +20953,7 @@
       <c r="E215" t="s">
         <v>588</v>
       </c>
-      <c r="F215" s="47" t="s">
+      <c r="F215" s="46" t="s">
         <v>593</v>
       </c>
       <c r="H215" t="s">
@@ -21185,7 +20984,7 @@
       <c r="E216" t="s">
         <v>588</v>
       </c>
-      <c r="F216" s="47" t="s">
+      <c r="F216" s="46" t="s">
         <v>583</v>
       </c>
       <c r="H216" t="s">
@@ -21250,7 +21049,7 @@
       <c r="F218" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G218" s="49" t="s">
+      <c r="G218" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H218" t="s">
@@ -21284,7 +21083,7 @@
       <c r="F219" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G219" s="49" t="s">
+      <c r="G219" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H219" t="s">
@@ -21315,7 +21114,7 @@
       <c r="E220" t="s">
         <v>588</v>
       </c>
-      <c r="F220" s="47" t="s">
+      <c r="F220" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H220" t="s">
@@ -21349,7 +21148,7 @@
       <c r="F221" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G221" s="49" t="s">
+      <c r="G221" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H221" t="s">
@@ -21383,7 +21182,7 @@
       <c r="F222" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G222" s="49" t="s">
+      <c r="G222" s="48" t="s">
         <v>566</v>
       </c>
       <c r="H222" t="s">
@@ -21414,7 +21213,7 @@
       <c r="E223" t="s">
         <v>588</v>
       </c>
-      <c r="F223" s="47" t="s">
+      <c r="F223" s="46" t="s">
         <v>572</v>
       </c>
       <c r="H223" t="s">
@@ -21448,7 +21247,7 @@
       <c r="F224" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G224" s="49" t="s">
+      <c r="G224" s="48" t="s">
         <v>573</v>
       </c>
       <c r="H224" t="s">
@@ -21479,7 +21278,7 @@
       <c r="E225" t="s">
         <v>588</v>
       </c>
-      <c r="F225" s="47" t="s">
+      <c r="F225" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H225" t="s">
@@ -21490,7 +21289,7 @@
       </c>
       <c r="J225" t="b">
         <f>COUNTIF(C225,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -21510,7 +21309,7 @@
       <c r="E226" t="s">
         <v>588</v>
       </c>
-      <c r="F226" s="47" t="s">
+      <c r="F226" s="46" t="s">
         <v>590</v>
       </c>
       <c r="H226" t="s">
@@ -21541,7 +21340,7 @@
       <c r="E227" t="s">
         <v>588</v>
       </c>
-      <c r="F227" s="47" t="s">
+      <c r="F227" s="46" t="s">
         <v>575</v>
       </c>
       <c r="H227" t="s">
@@ -21572,7 +21371,7 @@
       <c r="E228" t="s">
         <v>588</v>
       </c>
-      <c r="F228" s="47" t="s">
+      <c r="F228" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H228" t="s">
@@ -21583,7 +21382,7 @@
       </c>
       <c r="J228" t="b">
         <f>COUNTIF(C228,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -21603,7 +21402,7 @@
       <c r="E229" t="s">
         <v>588</v>
       </c>
-      <c r="F229" s="47" t="s">
+      <c r="F229" s="46" t="s">
         <v>565</v>
       </c>
       <c r="H229" t="s">
@@ -21614,7 +21413,7 @@
       </c>
       <c r="J229" t="b">
         <f>COUNTIF(C229,"*"&amp;input_techniques!N12&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21631,32 +21430,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92050C94-5AD6-864C-91D1-23F195AE34A5}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="47" t="s">
-        <v>705</v>
+      <c r="A1" s="46" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>565</v>
       </c>
     </row>
@@ -21681,7 +21480,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>589</v>
       </c>
     </row>
@@ -21691,7 +21490,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>593</v>
       </c>
     </row>
@@ -21701,20 +21500,20 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>583</v>
       </c>
       <c r="E14" t="s">
-        <v>706</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
         <v>590</v>
       </c>
     </row>
@@ -21724,19 +21523,20 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>592</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -21749,7 +21549,7 @@
       <selection activeCell="H26" sqref="H26:H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
@@ -21825,7 +21625,7 @@
         <v>2006</v>
       </c>
       <c r="D14" t="s">
-        <v>707</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -21888,15 +21688,15 @@
         <v>1994</v>
       </c>
       <c r="H26" t="s">
-        <v>703</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
         <v>1993</v>
       </c>
-      <c r="H27" s="69" t="s">
-        <v>704</v>
+      <c r="H27" s="68" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -21904,7 +21704,7 @@
         <v>1992</v>
       </c>
       <c r="H28" t="s">
-        <v>706</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -21912,7 +21712,7 @@
         <v>1991</v>
       </c>
       <c r="H29" t="s">
-        <v>707</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -21920,7 +21720,7 @@
         <v>1990</v>
       </c>
       <c r="H30" t="s">
-        <v>707</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -21928,7 +21728,7 @@
         <v>1989</v>
       </c>
       <c r="H31" t="s">
-        <v>708</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -21936,15 +21736,15 @@
         <v>1988</v>
       </c>
       <c r="H32" t="s">
-        <v>710</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
         <v>1987</v>
       </c>
-      <c r="H33" s="58" t="s">
-        <v>711</v>
+      <c r="H33" s="57" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:8">
